--- a/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
+++ b/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahughes/GitHub/image2dmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5EAE42-9D38-924E-8F09-2FC718256C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2115842-3604-7042-961F-396F3E117EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13480" yWindow="660" windowWidth="13140" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1499">
   <si>
     <t>bf9584</t>
   </si>
@@ -3148,9 +3148,6 @@
     <t>d97b95</t>
   </si>
   <si>
-    <t>c75670</t>
-  </si>
-  <si>
     <t>833147</t>
   </si>
   <si>
@@ -3812,6 +3809,732 @@
   </si>
   <si>
     <t>2f2f2f</t>
+  </si>
+  <si>
+    <t>b1cbe4</t>
+  </si>
+  <si>
+    <t>7493c4</t>
+  </si>
+  <si>
+    <t>597fb7</t>
+  </si>
+  <si>
+    <t>b0cde0</t>
+  </si>
+  <si>
+    <t>90b1d4</t>
+  </si>
+  <si>
+    <t>7299bf</t>
+  </si>
+  <si>
+    <t>4372a7</t>
+  </si>
+  <si>
+    <t>3c5995</t>
+  </si>
+  <si>
+    <t>2b407d</t>
+  </si>
+  <si>
+    <t>263a74</t>
+  </si>
+  <si>
+    <t>d2e6eb</t>
+  </si>
+  <si>
+    <t>b1d1e0</t>
+  </si>
+  <si>
+    <t>7ca7c4</t>
+  </si>
+  <si>
+    <t>5181ae</t>
+  </si>
+  <si>
+    <t>3b6a9a</t>
+  </si>
+  <si>
+    <t>2a5481</t>
+  </si>
+  <si>
+    <t>4bafe1</t>
+  </si>
+  <si>
+    <t>0f8ed0</t>
+  </si>
+  <si>
+    <t>0b82c9</t>
+  </si>
+  <si>
+    <t>47c7e0</t>
+  </si>
+  <si>
+    <t>13abcf</t>
+  </si>
+  <si>
+    <t>0886b2</t>
+  </si>
+  <si>
+    <t>b7c3d3</t>
+  </si>
+  <si>
+    <t>8291ae</t>
+  </si>
+  <si>
+    <t>697799</t>
+  </si>
+  <si>
+    <t>f8f8f8</t>
+  </si>
+  <si>
+    <t>dfebec</t>
+  </si>
+  <si>
+    <t>cce0e8</t>
+  </si>
+  <si>
+    <t>a8c7db</t>
+  </si>
+  <si>
+    <t>87afcb</t>
+  </si>
+  <si>
+    <t>6791b4</t>
+  </si>
+  <si>
+    <t>6187ad</t>
+  </si>
+  <si>
+    <t>39618c</t>
+  </si>
+  <si>
+    <t>32527a</t>
+  </si>
+  <si>
+    <t>37486c</t>
+  </si>
+  <si>
+    <t>353657</t>
+  </si>
+  <si>
+    <t>36314c</t>
+  </si>
+  <si>
+    <t>e7eceb</t>
+  </si>
+  <si>
+    <t>c6d6de</t>
+  </si>
+  <si>
+    <t>99b0bd</t>
+  </si>
+  <si>
+    <t>68869e</t>
+  </si>
+  <si>
+    <t>455969</t>
+  </si>
+  <si>
+    <t>31485f</t>
+  </si>
+  <si>
+    <t>dbe9ea</t>
+  </si>
+  <si>
+    <t>c8e7ee</t>
+  </si>
+  <si>
+    <t>9dc7db</t>
+  </si>
+  <si>
+    <t>699fbd</t>
+  </si>
+  <si>
+    <t>5c90b4</t>
+  </si>
+  <si>
+    <t>3f75a4</t>
+  </si>
+  <si>
+    <t>31628e</t>
+  </si>
+  <si>
+    <t>385776</t>
+  </si>
+  <si>
+    <t>dcf3f3</t>
+  </si>
+  <si>
+    <t>99cdd7</t>
+  </si>
+  <si>
+    <t>69a7bc</t>
+  </si>
+  <si>
+    <t>377399</t>
+  </si>
+  <si>
+    <t>bfe0e2</t>
+  </si>
+  <si>
+    <t>a8d0d4</t>
+  </si>
+  <si>
+    <t>74a8b8</t>
+  </si>
+  <si>
+    <t>4c8a9b</t>
+  </si>
+  <si>
+    <t>337082</t>
+  </si>
+  <si>
+    <t>2c586a</t>
+  </si>
+  <si>
+    <t>d1d6d4</t>
+  </si>
+  <si>
+    <t>b2bdba</t>
+  </si>
+  <si>
+    <t>798c8b</t>
+  </si>
+  <si>
+    <t>54676e</t>
+  </si>
+  <si>
+    <t>3b4f58</t>
+  </si>
+  <si>
+    <t>629d9d</t>
+  </si>
+  <si>
+    <t>3e8083</t>
+  </si>
+  <si>
+    <t>2e6063</t>
+  </si>
+  <si>
+    <t>b3e6e2</t>
+  </si>
+  <si>
+    <t>7cc8be</t>
+  </si>
+  <si>
+    <t>5cb1a9</t>
+  </si>
+  <si>
+    <t>28988f</t>
+  </si>
+  <si>
+    <t>5ab7a7</t>
+  </si>
+  <si>
+    <t>2f9d8c</t>
+  </si>
+  <si>
+    <t>2e9580</t>
+  </si>
+  <si>
+    <t>85c4b8</t>
+  </si>
+  <si>
+    <t>69ada1</t>
+  </si>
+  <si>
+    <t>45908b</t>
+  </si>
+  <si>
+    <t>327d74</t>
+  </si>
+  <si>
+    <t>b6d4bc</t>
+  </si>
+  <si>
+    <t>bbe1c6</t>
+  </si>
+  <si>
+    <t>9ec9b5</t>
+  </si>
+  <si>
+    <t>649a7c</t>
+  </si>
+  <si>
+    <t>4a7d65</t>
+  </si>
+  <si>
+    <t>b0cac1</t>
+  </si>
+  <si>
+    <t>74a595</t>
+  </si>
+  <si>
+    <t>5d8779</t>
+  </si>
+  <si>
+    <t>598b7b</t>
+  </si>
+  <si>
+    <t>427066</t>
+  </si>
+  <si>
+    <t>b4c8c2</t>
+  </si>
+  <si>
+    <t>84a8a1</t>
+  </si>
+  <si>
+    <t>68837d</t>
+  </si>
+  <si>
+    <t>4a6461</t>
+  </si>
+  <si>
+    <t>35423e</t>
+  </si>
+  <si>
+    <t>c9efce</t>
+  </si>
+  <si>
+    <t>c9efc9</t>
+  </si>
+  <si>
+    <t>addfb9</t>
+  </si>
+  <si>
+    <t>88c49b</t>
+  </si>
+  <si>
+    <t>6eb78e</t>
+  </si>
+  <si>
+    <t>50a374</t>
+  </si>
+  <si>
+    <t>378e5c</t>
+  </si>
+  <si>
+    <t>29804f</t>
+  </si>
+  <si>
+    <t>2b6343</t>
+  </si>
+  <si>
+    <t>dcefcf</t>
+  </si>
+  <si>
+    <t>a2bc9a</t>
+  </si>
+  <si>
+    <t>7a9a7d</t>
+  </si>
+  <si>
+    <t>618369</t>
+  </si>
+  <si>
+    <t>3c574a</t>
+  </si>
+  <si>
+    <t>3d5946</t>
+  </si>
+  <si>
+    <t>c8e3c0</t>
+  </si>
+  <si>
+    <t>99b488</t>
+  </si>
+  <si>
+    <t>819b70</t>
+  </si>
+  <si>
+    <t>63825e</t>
+  </si>
+  <si>
+    <t>486d4d</t>
+  </si>
+  <si>
+    <t>f1f8d4</t>
+  </si>
+  <si>
+    <t>d5d7a5</t>
+  </si>
+  <si>
+    <t>7f9467</t>
+  </si>
+  <si>
+    <t>677c53</t>
+  </si>
+  <si>
+    <t>455d3d</t>
+  </si>
+  <si>
+    <t>415845</t>
+  </si>
+  <si>
+    <t>e9f7bf</t>
+  </si>
+  <si>
+    <t>e2edaf</t>
+  </si>
+  <si>
+    <t>d1e38e</t>
+  </si>
+  <si>
+    <t>99ba68</t>
+  </si>
+  <si>
+    <t>8bb470</t>
+  </si>
+  <si>
+    <t>4f8d55</t>
+  </si>
+  <si>
+    <t>448351</t>
+  </si>
+  <si>
+    <t>62995d</t>
+  </si>
+  <si>
+    <t>2a6f44</t>
+  </si>
+  <si>
+    <t>a5ba59</t>
+  </si>
+  <si>
+    <t>678e3d</t>
+  </si>
+  <si>
+    <t>5d7b3f</t>
+  </si>
+  <si>
+    <t>536e43</t>
+  </si>
+  <si>
+    <t>c8c98f</t>
+  </si>
+  <si>
+    <t>929a64</t>
+  </si>
+  <si>
+    <t>7f8d4d</t>
+  </si>
+  <si>
+    <t>6b6d45</t>
+  </si>
+  <si>
+    <t>637044</t>
+  </si>
+  <si>
+    <t>575b44</t>
+  </si>
+  <si>
+    <t>4e5043</t>
+  </si>
+  <si>
+    <t>44453f</t>
+  </si>
+  <si>
+    <t>8e9977</t>
+  </si>
+  <si>
+    <t>747f67</t>
+  </si>
+  <si>
+    <t>5e6753</t>
+  </si>
+  <si>
+    <t>f1f1cf</t>
+  </si>
+  <si>
+    <t>f6f5a1</t>
+  </si>
+  <si>
+    <t>e9ea89</t>
+  </si>
+  <si>
+    <t>e5e396</t>
+  </si>
+  <si>
+    <t>e3e487</t>
+  </si>
+  <si>
+    <t>c0bd50</t>
+  </si>
+  <si>
+    <t>90974b</t>
+  </si>
+  <si>
+    <t>777e45</t>
+  </si>
+  <si>
+    <t>a6b098</t>
+  </si>
+  <si>
+    <t>a1a688</t>
+  </si>
+  <si>
+    <t>898d72</t>
+  </si>
+  <si>
+    <t>63674d</t>
+  </si>
+  <si>
+    <t>bfc2ad</t>
+  </si>
+  <si>
+    <t>96a793</t>
+  </si>
+  <si>
+    <t>536357</t>
+  </si>
+  <si>
+    <t>c5b375</t>
+  </si>
+  <si>
+    <t>ad9f59</t>
+  </si>
+  <si>
+    <t>80763d</t>
+  </si>
+  <si>
+    <t>706939</t>
+  </si>
+  <si>
+    <t>b9b68f</t>
+  </si>
+  <si>
+    <t>928a66</t>
+  </si>
+  <si>
+    <t>787051</t>
+  </si>
+  <si>
+    <t>b3aa8a</t>
+  </si>
+  <si>
+    <t>a09368</t>
+  </si>
+  <si>
+    <t>a49773</t>
+  </si>
+  <si>
+    <t>f4e593</t>
+  </si>
+  <si>
+    <t>ead87a</t>
+  </si>
+  <si>
+    <t>d2ba7f</t>
+  </si>
+  <si>
+    <t>baa167</t>
+  </si>
+  <si>
+    <t>a68a51</t>
+  </si>
+  <si>
+    <t>8e7546</t>
+  </si>
+  <si>
+    <t>7a6341</t>
+  </si>
+  <si>
+    <t>7c5d3d</t>
+  </si>
+  <si>
+    <t>fafada</t>
+  </si>
+  <si>
+    <t>f5ebbf</t>
+  </si>
+  <si>
+    <t>cbaf89</t>
+  </si>
+  <si>
+    <t>ae8f69</t>
+  </si>
+  <si>
+    <t>916e52</t>
+  </si>
+  <si>
+    <t>7b5d45</t>
+  </si>
+  <si>
+    <t>e2dec6</t>
+  </si>
+  <si>
+    <t>aea07f</t>
+  </si>
+  <si>
+    <t>81705c</t>
+  </si>
+  <si>
+    <t>7e684e</t>
+  </si>
+  <si>
+    <t>f0e8c3</t>
+  </si>
+  <si>
+    <t>d3be90</t>
+  </si>
+  <si>
+    <t>ab8f6d</t>
+  </si>
+  <si>
+    <t>9b795c</t>
+  </si>
+  <si>
+    <t>e9cc9a</t>
+  </si>
+  <si>
+    <t>c9a16d</t>
+  </si>
+  <si>
+    <t>ac835a</t>
+  </si>
+  <si>
+    <t>a57b52</t>
+  </si>
+  <si>
+    <t>f3df9a</t>
+  </si>
+  <si>
+    <t>e8c67a</t>
+  </si>
+  <si>
+    <t>d9ab5f</t>
+  </si>
+  <si>
+    <t>cc954e</t>
+  </si>
+  <si>
+    <t>eec26a</t>
+  </si>
+  <si>
+    <t>ca9155</t>
+  </si>
+  <si>
+    <t>925f42</t>
+  </si>
+  <si>
+    <t>a77440</t>
+  </si>
+  <si>
+    <t>fcf9d5</t>
+  </si>
+  <si>
+    <t>f8e4b5</t>
+  </si>
+  <si>
+    <t>f8dca4</t>
+  </si>
+  <si>
+    <t>ebae7f</t>
+  </si>
+  <si>
+    <t>d78156</t>
+  </si>
+  <si>
+    <t>e3b38d</t>
+  </si>
+  <si>
+    <t>d69b74</t>
+  </si>
+  <si>
+    <t>bb7954</t>
+  </si>
+  <si>
+    <t>a6674a</t>
+  </si>
+  <si>
+    <t>824f3e</t>
+  </si>
+  <si>
+    <t>fefdb1</t>
+  </si>
+  <si>
+    <t>fbf069</t>
+  </si>
+  <si>
+    <t>fae55a</t>
+  </si>
+  <si>
+    <t>f6d943</t>
+  </si>
+  <si>
+    <t>fdf9bd</t>
+  </si>
+  <si>
+    <t>fbf6a4</t>
+  </si>
+  <si>
+    <t>f9e780</t>
+  </si>
+  <si>
+    <t>f3cd78</t>
+  </si>
+  <si>
+    <t>f3b756</t>
+  </si>
+  <si>
+    <t>fcf4c0</t>
+  </si>
+  <si>
+    <t>faeea9</t>
+  </si>
+  <si>
+    <t>f8db82</t>
+  </si>
+  <si>
+    <t>f3b761</t>
+  </si>
+  <si>
+    <t>ef9445</t>
+  </si>
+  <si>
+    <t>e06e3d</t>
+  </si>
+  <si>
+    <t>e87350</t>
+  </si>
+  <si>
+    <t>dd5e41</t>
+  </si>
+  <si>
+    <t>d45544</t>
+  </si>
+  <si>
+    <t>bf4345</t>
+  </si>
+  <si>
+    <t>f8e1d7</t>
+  </si>
+  <si>
+    <t>f4c4bb</t>
+  </si>
+  <si>
+    <t>f19a91</t>
+  </si>
+  <si>
+    <t>ee796f</t>
+  </si>
+  <si>
+    <t>db573e</t>
+  </si>
+  <si>
+    <t>cf463d</t>
+  </si>
+  <si>
+    <t>ece9d6</t>
+  </si>
+  <si>
+    <t>ac3f52</t>
+  </si>
+  <si>
+    <t>c75770</t>
   </si>
 </sst>
 </file>
@@ -4234,9 +4957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E483" sqref="E483"/>
+      <selection pane="topRight" activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4588,7 +5311,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1036</v>
+        <v>1498</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>531</v>
@@ -4608,7 +5331,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1036</v>
+        <v>1497</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>532</v>
@@ -4628,7 +5351,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>533</v>
@@ -4680,7 +5403,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>534</v>
@@ -4700,7 +5423,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>535</v>
@@ -4720,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>536</v>
@@ -4740,7 +5463,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>537</v>
@@ -4760,7 +5483,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>538</v>
@@ -4780,7 +5503,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>539</v>
@@ -4800,7 +5523,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>569</v>
@@ -4820,7 +5543,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>570</v>
@@ -4840,7 +5563,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>571</v>
@@ -4860,7 +5583,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>572</v>
@@ -4880,7 +5603,7 @@
         <v>31</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>573</v>
@@ -4900,7 +5623,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>574</v>
@@ -4920,7 +5643,7 @@
         <v>33</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>575</v>
@@ -4940,7 +5663,7 @@
         <v>34</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>576</v>
@@ -4960,7 +5683,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>577</v>
@@ -4980,7 +5703,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>578</v>
@@ -5000,7 +5723,7 @@
         <v>37</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>579</v>
@@ -5020,7 +5743,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>580</v>
@@ -5040,7 +5763,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>581</v>
@@ -5060,7 +5783,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>582</v>
@@ -5080,7 +5803,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>583</v>
@@ -5100,7 +5823,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>584</v>
@@ -5120,7 +5843,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>585</v>
@@ -5140,7 +5863,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>586</v>
@@ -5160,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>587</v>
@@ -5180,7 +5903,7 @@
         <v>45</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>588</v>
@@ -5200,7 +5923,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>589</v>
@@ -5220,7 +5943,7 @@
         <v>47</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>590</v>
@@ -5240,7 +5963,7 @@
         <v>48</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>591</v>
@@ -5260,7 +5983,7 @@
         <v>49</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>592</v>
@@ -5280,7 +6003,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>593</v>
@@ -5300,7 +6023,7 @@
         <v>51</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>594</v>
@@ -5320,7 +6043,7 @@
         <v>52</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>568</v>
@@ -5340,7 +6063,7 @@
         <v>53</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>595</v>
@@ -5360,7 +6083,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>597</v>
@@ -5380,7 +6103,7 @@
         <v>55</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>596</v>
@@ -5400,7 +6123,7 @@
         <v>56</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>598</v>
@@ -5420,7 +6143,7 @@
         <v>57</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>599</v>
@@ -5440,7 +6163,7 @@
         <v>58</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>600</v>
@@ -5460,7 +6183,7 @@
         <v>162</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>601</v>
@@ -5480,7 +6203,7 @@
         <v>163</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>602</v>
@@ -5500,7 +6223,7 @@
         <v>164</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>603</v>
@@ -5520,7 +6243,7 @@
         <v>165</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>604</v>
@@ -5540,7 +6263,7 @@
         <v>166</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>605</v>
@@ -5560,7 +6283,7 @@
         <v>167</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>606</v>
@@ -5612,7 +6335,7 @@
         <v>169</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>607</v>
@@ -5632,7 +6355,7 @@
         <v>170</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>608</v>
@@ -5652,7 +6375,7 @@
         <v>171</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>609</v>
@@ -5672,7 +6395,7 @@
         <v>172</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>610</v>
@@ -5692,7 +6415,7 @@
         <v>173</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>611</v>
@@ -5712,7 +6435,7 @@
         <v>174</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>612</v>
@@ -5732,7 +6455,7 @@
         <v>175</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>613</v>
@@ -5752,7 +6475,7 @@
         <v>176</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>614</v>
@@ -5772,7 +6495,7 @@
         <v>177</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>615</v>
@@ -5792,7 +6515,7 @@
         <v>178</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>616</v>
@@ -5812,7 +6535,7 @@
         <v>179</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>617</v>
@@ -5832,7 +6555,7 @@
         <v>180</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>618</v>
@@ -5852,7 +6575,7 @@
         <v>181</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>619</v>
@@ -5872,7 +6595,7 @@
         <v>182</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>620</v>
@@ -5892,7 +6615,7 @@
         <v>183</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>621</v>
@@ -5912,7 +6635,7 @@
         <v>184</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>622</v>
@@ -5932,7 +6655,7 @@
         <v>185</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>623</v>
@@ -5952,7 +6675,7 @@
         <v>186</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>624</v>
@@ -5972,7 +6695,7 @@
         <v>187</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>625</v>
@@ -5992,7 +6715,7 @@
         <v>188</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>626</v>
@@ -6012,7 +6735,7 @@
         <v>189</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>627</v>
@@ -6032,7 +6755,7 @@
         <v>190</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>628</v>
@@ -6052,7 +6775,7 @@
         <v>191</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>629</v>
@@ -6104,7 +6827,7 @@
         <v>193</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>630</v>
@@ -6124,7 +6847,7 @@
         <v>194</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>631</v>
@@ -6144,7 +6867,7 @@
         <v>195</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>633</v>
@@ -6164,7 +6887,7 @@
         <v>196</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>632</v>
@@ -6184,7 +6907,7 @@
         <v>197</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>634</v>
@@ -6204,7 +6927,7 @@
         <v>198</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>635</v>
@@ -6224,7 +6947,7 @@
         <v>199</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>636</v>
@@ -6244,7 +6967,7 @@
         <v>200</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>637</v>
@@ -6264,7 +6987,7 @@
         <v>201</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>638</v>
@@ -6284,7 +7007,7 @@
         <v>202</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>639</v>
@@ -6304,7 +7027,7 @@
         <v>203</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>640</v>
@@ -6324,7 +7047,7 @@
         <v>204</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>641</v>
@@ -6344,7 +7067,7 @@
         <v>205</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>642</v>
@@ -6364,7 +7087,7 @@
         <v>206</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>643</v>
@@ -6384,7 +7107,7 @@
         <v>207</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>644</v>
@@ -6404,7 +7127,7 @@
         <v>208</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>645</v>
@@ -6424,7 +7147,7 @@
         <v>209</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>646</v>
@@ -6444,7 +7167,7 @@
         <v>210</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>647</v>
@@ -6464,7 +7187,7 @@
         <v>211</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>648</v>
@@ -6484,7 +7207,7 @@
         <v>212</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>649</v>
@@ -6504,7 +7227,7 @@
         <v>213</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>650</v>
@@ -6524,7 +7247,7 @@
         <v>214</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>651</v>
@@ -6544,7 +7267,7 @@
         <v>215</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>652</v>
@@ -6564,7 +7287,7 @@
         <v>216</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>653</v>
@@ -6590,7 +7313,7 @@
         <v>503</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>500</v>
@@ -6616,7 +7339,7 @@
         <v>218</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>654</v>
@@ -6636,7 +7359,7 @@
         <v>219</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>655</v>
@@ -6656,7 +7379,7 @@
         <v>323</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>656</v>
@@ -6676,7 +7399,7 @@
         <v>324</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>657</v>
@@ -6696,7 +7419,7 @@
         <v>325</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>658</v>
@@ -6716,7 +7439,7 @@
         <v>326</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>659</v>
@@ -6736,7 +7459,7 @@
         <v>327</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>660</v>
@@ -6756,7 +7479,7 @@
         <v>328</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>661</v>
@@ -6776,7 +7499,7 @@
         <v>329</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>662</v>
@@ -6796,7 +7519,7 @@
         <v>330</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>663</v>
@@ -6815,6 +7538,9 @@
       <c r="B125" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="E125" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="F125" s="5" t="s">
         <v>664</v>
       </c>
@@ -6832,6 +7558,9 @@
       <c r="B126" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="E126" s="5" t="s">
+        <v>1258</v>
+      </c>
       <c r="F126" s="5" t="s">
         <v>665</v>
       </c>
@@ -6849,6 +7578,9 @@
       <c r="B127" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="E127" s="5" t="s">
+        <v>1259</v>
+      </c>
       <c r="F127" s="5" t="s">
         <v>666</v>
       </c>
@@ -6866,6 +7598,9 @@
       <c r="B128" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="E128" s="5" t="s">
+        <v>1260</v>
+      </c>
       <c r="F128" s="5" t="s">
         <v>667</v>
       </c>
@@ -6883,6 +7618,9 @@
       <c r="B129" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="E129" s="5" t="s">
+        <v>1261</v>
+      </c>
       <c r="F129" s="5" t="s">
         <v>668</v>
       </c>
@@ -6900,6 +7638,9 @@
       <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="E130" s="5" t="s">
+        <v>1262</v>
+      </c>
       <c r="F130" s="5" t="s">
         <v>669</v>
       </c>
@@ -6917,6 +7658,9 @@
       <c r="B131" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="E131" s="5" t="s">
+        <v>1263</v>
+      </c>
       <c r="F131" s="5" t="s">
         <v>670</v>
       </c>
@@ -6934,6 +7678,9 @@
       <c r="B132" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="E132" s="5" t="s">
+        <v>1264</v>
+      </c>
       <c r="F132" s="5" t="s">
         <v>671</v>
       </c>
@@ -6951,6 +7698,9 @@
       <c r="B133" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="E133" s="5" t="s">
+        <v>1265</v>
+      </c>
       <c r="F133" s="5" t="s">
         <v>672</v>
       </c>
@@ -6968,6 +7718,9 @@
       <c r="B134" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="E134" s="5" t="s">
+        <v>1266</v>
+      </c>
       <c r="F134" s="5" t="s">
         <v>673</v>
       </c>
@@ -6985,6 +7738,9 @@
       <c r="B135" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="E135" s="5" t="s">
+        <v>1267</v>
+      </c>
       <c r="F135" s="5" t="s">
         <v>674</v>
       </c>
@@ -7002,6 +7758,9 @@
       <c r="B136" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="E136" s="5" t="s">
+        <v>1268</v>
+      </c>
       <c r="F136" s="5" t="s">
         <v>675</v>
       </c>
@@ -7019,6 +7778,9 @@
       <c r="B137" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="E137" s="5" t="s">
+        <v>1269</v>
+      </c>
       <c r="F137" s="5" t="s">
         <v>676</v>
       </c>
@@ -7036,6 +7798,9 @@
       <c r="B138" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="E138" s="5" t="s">
+        <v>1270</v>
+      </c>
       <c r="F138" s="5" t="s">
         <v>677</v>
       </c>
@@ -7053,6 +7818,9 @@
       <c r="B139" s="3" t="s">
         <v>345</v>
       </c>
+      <c r="E139" s="5" t="s">
+        <v>1271</v>
+      </c>
       <c r="F139" s="5" t="s">
         <v>678</v>
       </c>
@@ -7070,6 +7838,9 @@
       <c r="B140" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="E140" s="5" t="s">
+        <v>1272</v>
+      </c>
       <c r="F140" s="5" t="s">
         <v>679</v>
       </c>
@@ -7087,6 +7858,9 @@
       <c r="B141" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="E141" s="5" t="s">
+        <v>1273</v>
+      </c>
       <c r="F141" s="5" t="s">
         <v>680</v>
       </c>
@@ -7104,6 +7878,9 @@
       <c r="B142" s="3" t="s">
         <v>348</v>
       </c>
+      <c r="E142" s="5" t="s">
+        <v>1274</v>
+      </c>
       <c r="F142" s="5" t="s">
         <v>681</v>
       </c>
@@ -7121,6 +7898,9 @@
       <c r="B143" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="E143" s="5" t="s">
+        <v>1275</v>
+      </c>
       <c r="F143" s="5" t="s">
         <v>682</v>
       </c>
@@ -7138,6 +7918,9 @@
       <c r="B144" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="E144" s="5" t="s">
+        <v>1276</v>
+      </c>
       <c r="F144" s="5" t="s">
         <v>683</v>
       </c>
@@ -7155,6 +7938,9 @@
       <c r="B145" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="E145" s="5" t="s">
+        <v>1277</v>
+      </c>
       <c r="F145" s="5" t="s">
         <v>684</v>
       </c>
@@ -7172,6 +7958,9 @@
       <c r="B146" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="E146" s="5" t="s">
+        <v>1278</v>
+      </c>
       <c r="F146" s="5" t="s">
         <v>685</v>
       </c>
@@ -7189,6 +7978,9 @@
       <c r="B147" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="E147" s="5" t="s">
+        <v>1279</v>
+      </c>
       <c r="F147" s="5" t="s">
         <v>686</v>
       </c>
@@ -7206,6 +7998,9 @@
       <c r="B148" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="E148" s="5" t="s">
+        <v>1280</v>
+      </c>
       <c r="F148" s="5" t="s">
         <v>687</v>
       </c>
@@ -7223,6 +8018,9 @@
       <c r="B149" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="E149" s="5" t="s">
+        <v>1281</v>
+      </c>
       <c r="F149" s="5" t="s">
         <v>688</v>
       </c>
@@ -7240,6 +8038,9 @@
       <c r="B150" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="E150" s="5" t="s">
+        <v>1282</v>
+      </c>
       <c r="F150" s="5" t="s">
         <v>689</v>
       </c>
@@ -7257,6 +8058,9 @@
       <c r="B151" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="E151" s="5" t="s">
+        <v>1283</v>
+      </c>
       <c r="F151" s="5" t="s">
         <v>690</v>
       </c>
@@ -7274,6 +8078,9 @@
       <c r="B152" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="E152" s="5" t="s">
+        <v>1284</v>
+      </c>
       <c r="F152" s="5" t="s">
         <v>691</v>
       </c>
@@ -7291,6 +8098,9 @@
       <c r="B153" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="E153" s="5" t="s">
+        <v>1285</v>
+      </c>
       <c r="F153" s="5" t="s">
         <v>692</v>
       </c>
@@ -7308,6 +8118,9 @@
       <c r="B154" s="3" t="s">
         <v>360</v>
       </c>
+      <c r="E154" s="5" t="s">
+        <v>1286</v>
+      </c>
       <c r="F154" s="5" t="s">
         <v>693</v>
       </c>
@@ -7325,6 +8138,9 @@
       <c r="B155" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="E155" s="5" t="s">
+        <v>1287</v>
+      </c>
       <c r="F155" s="5" t="s">
         <v>694</v>
       </c>
@@ -7342,6 +8158,9 @@
       <c r="B156" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="E156" s="5" t="s">
+        <v>1288</v>
+      </c>
       <c r="F156" s="5" t="s">
         <v>695</v>
       </c>
@@ -7359,6 +8178,9 @@
       <c r="B157" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="E157" s="5" t="s">
+        <v>1289</v>
+      </c>
       <c r="F157" s="5" t="s">
         <v>696</v>
       </c>
@@ -7376,6 +8198,9 @@
       <c r="B158" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="E158" s="5" t="s">
+        <v>1290</v>
+      </c>
       <c r="F158" s="5" t="s">
         <v>697</v>
       </c>
@@ -7393,6 +8218,9 @@
       <c r="B159" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="E159" s="5" t="s">
+        <v>1291</v>
+      </c>
       <c r="F159" s="5" t="s">
         <v>698</v>
       </c>
@@ -7410,6 +8238,9 @@
       <c r="B160" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="E160" s="5" t="s">
+        <v>1292</v>
+      </c>
       <c r="F160" s="5" t="s">
         <v>699</v>
       </c>
@@ -7427,6 +8258,9 @@
       <c r="B161" s="3" t="s">
         <v>367</v>
       </c>
+      <c r="E161" s="5" t="s">
+        <v>1293</v>
+      </c>
       <c r="F161" s="5" t="s">
         <v>700</v>
       </c>
@@ -7444,6 +8278,9 @@
       <c r="B162" s="3" t="s">
         <v>368</v>
       </c>
+      <c r="E162" s="5" t="s">
+        <v>1294</v>
+      </c>
       <c r="F162" s="5" t="s">
         <v>701</v>
       </c>
@@ -7461,6 +8298,9 @@
       <c r="B163" s="3" t="s">
         <v>369</v>
       </c>
+      <c r="E163" s="5" t="s">
+        <v>1295</v>
+      </c>
       <c r="F163" s="5" t="s">
         <v>702</v>
       </c>
@@ -7478,6 +8318,9 @@
       <c r="B164" s="3" t="s">
         <v>370</v>
       </c>
+      <c r="E164" s="5" t="s">
+        <v>1296</v>
+      </c>
       <c r="F164" s="5" t="s">
         <v>703</v>
       </c>
@@ -7495,6 +8338,9 @@
       <c r="B165" s="3" t="s">
         <v>371</v>
       </c>
+      <c r="E165" s="5" t="s">
+        <v>1297</v>
+      </c>
       <c r="F165" s="5" t="s">
         <v>704</v>
       </c>
@@ -7512,6 +8358,9 @@
       <c r="B166" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="E166" s="5" t="s">
+        <v>1298</v>
+      </c>
       <c r="F166" s="5" t="s">
         <v>705</v>
       </c>
@@ -7529,6 +8378,9 @@
       <c r="B167" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="E167" s="5" t="s">
+        <v>1299</v>
+      </c>
       <c r="F167" s="5" t="s">
         <v>706</v>
       </c>
@@ -7546,6 +8398,9 @@
       <c r="B168" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="E168" s="5" t="s">
+        <v>1300</v>
+      </c>
       <c r="F168" s="5" t="s">
         <v>707</v>
       </c>
@@ -7563,6 +8418,9 @@
       <c r="B169" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="E169" s="5" t="s">
+        <v>1301</v>
+      </c>
       <c r="F169" s="5" t="s">
         <v>708</v>
       </c>
@@ -7580,6 +8438,9 @@
       <c r="B170" s="3" t="s">
         <v>376</v>
       </c>
+      <c r="E170" s="5" t="s">
+        <v>1302</v>
+      </c>
       <c r="F170" s="5" t="s">
         <v>709</v>
       </c>
@@ -7597,6 +8458,9 @@
       <c r="B171" s="3" t="s">
         <v>377</v>
       </c>
+      <c r="E171" s="5" t="s">
+        <v>1303</v>
+      </c>
       <c r="F171" s="5" t="s">
         <v>710</v>
       </c>
@@ -7614,6 +8478,9 @@
       <c r="B172" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="E172" s="5" t="s">
+        <v>1304</v>
+      </c>
       <c r="F172" s="5" t="s">
         <v>711</v>
       </c>
@@ -7631,6 +8498,9 @@
       <c r="B173" s="3" t="s">
         <v>379</v>
       </c>
+      <c r="E173" s="5" t="s">
+        <v>1305</v>
+      </c>
       <c r="F173" s="5" t="s">
         <v>712</v>
       </c>
@@ -7648,6 +8518,9 @@
       <c r="B174" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="E174" s="5" t="s">
+        <v>1306</v>
+      </c>
       <c r="F174" s="5" t="s">
         <v>713</v>
       </c>
@@ -7665,6 +8538,9 @@
       <c r="B175" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E175" s="5" t="s">
+        <v>1307</v>
+      </c>
       <c r="F175" s="5" t="s">
         <v>714</v>
       </c>
@@ -7682,6 +8558,9 @@
       <c r="B176" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E176" s="5" t="s">
+        <v>1308</v>
+      </c>
       <c r="F176" s="5" t="s">
         <v>715</v>
       </c>
@@ -7699,6 +8578,9 @@
       <c r="B177" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E177" s="5" t="s">
+        <v>1309</v>
+      </c>
       <c r="F177" s="5" t="s">
         <v>716</v>
       </c>
@@ -7716,6 +8598,9 @@
       <c r="B178" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E178" s="5" t="s">
+        <v>1310</v>
+      </c>
       <c r="F178" s="5" t="s">
         <v>717</v>
       </c>
@@ -7733,6 +8618,9 @@
       <c r="B179" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="E179" s="5" t="s">
+        <v>1311</v>
+      </c>
       <c r="F179" s="5" t="s">
         <v>718</v>
       </c>
@@ -7750,6 +8638,9 @@
       <c r="B180" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E180" s="5" t="s">
+        <v>1312</v>
+      </c>
       <c r="F180" s="5" t="s">
         <v>719</v>
       </c>
@@ -7767,6 +8658,9 @@
       <c r="B181" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="E181" s="5" t="s">
+        <v>1313</v>
+      </c>
       <c r="F181" s="5" t="s">
         <v>720</v>
       </c>
@@ -7784,6 +8678,9 @@
       <c r="B182" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E182" s="5" t="s">
+        <v>1314</v>
+      </c>
       <c r="F182" s="5" t="s">
         <v>721</v>
       </c>
@@ -7801,6 +8698,9 @@
       <c r="B183" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="E183" s="5" t="s">
+        <v>1315</v>
+      </c>
       <c r="F183" s="5" t="s">
         <v>723</v>
       </c>
@@ -7818,6 +8718,9 @@
       <c r="B184" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="E184" s="5" t="s">
+        <v>1316</v>
+      </c>
       <c r="F184" s="5" t="s">
         <v>722</v>
       </c>
@@ -7835,6 +8738,9 @@
       <c r="B185" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="E185" s="5" t="s">
+        <v>1317</v>
+      </c>
       <c r="F185" s="5" t="s">
         <v>724</v>
       </c>
@@ -7852,6 +8758,9 @@
       <c r="B186" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E186" s="5" t="s">
+        <v>1318</v>
+      </c>
       <c r="F186" s="5" t="s">
         <v>725</v>
       </c>
@@ -7869,6 +8778,9 @@
       <c r="B187" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="E187" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="F187" s="5" t="s">
         <v>726</v>
       </c>
@@ -7886,6 +8798,9 @@
       <c r="B188" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="E188" s="5" t="s">
+        <v>1320</v>
+      </c>
       <c r="F188" s="5" t="s">
         <v>727</v>
       </c>
@@ -7903,6 +8818,9 @@
       <c r="B189" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="E189" s="5" t="s">
+        <v>1321</v>
+      </c>
       <c r="F189" s="5" t="s">
         <v>728</v>
       </c>
@@ -7920,6 +8838,9 @@
       <c r="B190" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="E190" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="F190" s="5" t="s">
         <v>729</v>
       </c>
@@ -7937,6 +8858,9 @@
       <c r="B191" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="E191" s="5" t="s">
+        <v>1323</v>
+      </c>
       <c r="F191" s="5" t="s">
         <v>730</v>
       </c>
@@ -7954,6 +8878,9 @@
       <c r="B192" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="E192" s="5" t="s">
+        <v>1324</v>
+      </c>
       <c r="F192" s="5" t="s">
         <v>731</v>
       </c>
@@ -7971,6 +8898,9 @@
       <c r="B193" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="E193" s="5" t="s">
+        <v>1325</v>
+      </c>
       <c r="F193" s="5" t="s">
         <v>732</v>
       </c>
@@ -7988,6 +8918,9 @@
       <c r="B194" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="E194" s="5" t="s">
+        <v>1326</v>
+      </c>
       <c r="F194" s="5" t="s">
         <v>733</v>
       </c>
@@ -8005,6 +8938,9 @@
       <c r="B195" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="E195" s="5" t="s">
+        <v>1327</v>
+      </c>
       <c r="F195" s="5" t="s">
         <v>734</v>
       </c>
@@ -8022,6 +8958,9 @@
       <c r="B196" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E196" s="5" t="s">
+        <v>1328</v>
+      </c>
       <c r="F196" s="5" t="s">
         <v>735</v>
       </c>
@@ -8039,6 +8978,9 @@
       <c r="B197" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="E197" s="5" t="s">
+        <v>1329</v>
+      </c>
       <c r="F197" s="5" t="s">
         <v>736</v>
       </c>
@@ -8056,6 +8998,9 @@
       <c r="B198" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="E198" s="5" t="s">
+        <v>1330</v>
+      </c>
       <c r="F198" s="5" t="s">
         <v>737</v>
       </c>
@@ -8073,6 +9018,9 @@
       <c r="B199" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="E199" s="5" t="s">
+        <v>1331</v>
+      </c>
       <c r="F199" s="5" t="s">
         <v>738</v>
       </c>
@@ -8090,6 +9038,9 @@
       <c r="B200" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="E200" s="5" t="s">
+        <v>1332</v>
+      </c>
       <c r="F200" s="5" t="s">
         <v>739</v>
       </c>
@@ -8107,6 +9058,9 @@
       <c r="B201" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="E201" s="5" t="s">
+        <v>1333</v>
+      </c>
       <c r="F201" s="5" t="s">
         <v>740</v>
       </c>
@@ -8124,6 +9078,9 @@
       <c r="B202" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="E202" s="5" t="s">
+        <v>1334</v>
+      </c>
       <c r="F202" s="5" t="s">
         <v>741</v>
       </c>
@@ -8141,6 +9098,9 @@
       <c r="B203" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="E203" s="5" t="s">
+        <v>1335</v>
+      </c>
       <c r="F203" s="5" t="s">
         <v>742</v>
       </c>
@@ -8158,6 +9118,9 @@
       <c r="B204" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="E204" s="5" t="s">
+        <v>1336</v>
+      </c>
       <c r="F204" s="5" t="s">
         <v>743</v>
       </c>
@@ -8175,6 +9138,9 @@
       <c r="B205" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="E205" s="5" t="s">
+        <v>1337</v>
+      </c>
       <c r="F205" s="5" t="s">
         <v>744</v>
       </c>
@@ -8192,6 +9158,9 @@
       <c r="B206" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="E206" s="5" t="s">
+        <v>1338</v>
+      </c>
       <c r="F206" s="5" t="s">
         <v>745</v>
       </c>
@@ -8209,6 +9178,9 @@
       <c r="B207" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="E207" s="5" t="s">
+        <v>1339</v>
+      </c>
       <c r="F207" s="5" t="s">
         <v>746</v>
       </c>
@@ -8226,6 +9198,9 @@
       <c r="B208" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E208" s="5" t="s">
+        <v>1340</v>
+      </c>
       <c r="F208" s="5" t="s">
         <v>747</v>
       </c>
@@ -8243,6 +9218,9 @@
       <c r="B209" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="E209" s="5" t="s">
+        <v>1341</v>
+      </c>
       <c r="F209" s="5" t="s">
         <v>748</v>
       </c>
@@ -8260,6 +9238,9 @@
       <c r="B210" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="E210" s="5" t="s">
+        <v>1342</v>
+      </c>
       <c r="F210" s="5" t="s">
         <v>749</v>
       </c>
@@ -8277,6 +9258,9 @@
       <c r="B211" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="E211" s="5" t="s">
+        <v>1343</v>
+      </c>
       <c r="F211" s="5" t="s">
         <v>750</v>
       </c>
@@ -8294,6 +9278,9 @@
       <c r="B212" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="E212" s="5" t="s">
+        <v>1344</v>
+      </c>
       <c r="F212" s="5" t="s">
         <v>751</v>
       </c>
@@ -8311,6 +9298,9 @@
       <c r="B213" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E213" s="5" t="s">
+        <v>1345</v>
+      </c>
       <c r="F213" s="5" t="s">
         <v>752</v>
       </c>
@@ -8328,6 +9318,9 @@
       <c r="B214" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="E214" s="5" t="s">
+        <v>1346</v>
+      </c>
       <c r="F214" s="5" t="s">
         <v>753</v>
       </c>
@@ -8345,6 +9338,9 @@
       <c r="B215" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E215" s="5" t="s">
+        <v>1347</v>
+      </c>
       <c r="F215" s="5" t="s">
         <v>754</v>
       </c>
@@ -8362,6 +9358,9 @@
       <c r="B216" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="E216" s="5" t="s">
+        <v>1348</v>
+      </c>
       <c r="F216" s="5" t="s">
         <v>755</v>
       </c>
@@ -8379,6 +9378,9 @@
       <c r="B217" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="E217" s="5" t="s">
+        <v>1349</v>
+      </c>
       <c r="F217" s="5" t="s">
         <v>756</v>
       </c>
@@ -8396,6 +9398,9 @@
       <c r="B218" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="E218" s="5" t="s">
+        <v>1350</v>
+      </c>
       <c r="F218" s="5" t="s">
         <v>757</v>
       </c>
@@ -8413,6 +9418,9 @@
       <c r="B219" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="E219" s="5" t="s">
+        <v>1351</v>
+      </c>
       <c r="F219" s="5" t="s">
         <v>758</v>
       </c>
@@ -8430,6 +9438,9 @@
       <c r="B220" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="E220" s="5" t="s">
+        <v>1352</v>
+      </c>
       <c r="F220" s="5" t="s">
         <v>759</v>
       </c>
@@ -8447,6 +9458,9 @@
       <c r="B221" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="E221" s="5" t="s">
+        <v>1353</v>
+      </c>
       <c r="F221" s="5" t="s">
         <v>760</v>
       </c>
@@ -8464,6 +9478,9 @@
       <c r="B222" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E222" s="5" t="s">
+        <v>1354</v>
+      </c>
       <c r="F222" s="5" t="s">
         <v>761</v>
       </c>
@@ -8481,6 +9498,9 @@
       <c r="B223" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="E223" s="5" t="s">
+        <v>1355</v>
+      </c>
       <c r="F223" s="5" t="s">
         <v>762</v>
       </c>
@@ -8498,6 +9518,9 @@
       <c r="B224" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="E224" s="5" t="s">
+        <v>1356</v>
+      </c>
       <c r="F224" s="5" t="s">
         <v>763</v>
       </c>
@@ -8515,6 +9538,9 @@
       <c r="B225" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="E225" s="5" t="s">
+        <v>1357</v>
+      </c>
       <c r="F225" s="5" t="s">
         <v>764</v>
       </c>
@@ -8532,6 +9558,9 @@
       <c r="B226" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="E226" s="5" t="s">
+        <v>1358</v>
+      </c>
       <c r="F226" s="5" t="s">
         <v>765</v>
       </c>
@@ -8549,6 +9578,9 @@
       <c r="B227" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="E227" s="5" t="s">
+        <v>1359</v>
+      </c>
       <c r="F227" s="5" t="s">
         <v>766</v>
       </c>
@@ -8566,6 +9598,9 @@
       <c r="B228" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="E228" s="5" t="s">
+        <v>1360</v>
+      </c>
       <c r="F228" s="5" t="s">
         <v>767</v>
       </c>
@@ -8583,6 +9618,9 @@
       <c r="B229" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="E229" s="5" t="s">
+        <v>1361</v>
+      </c>
       <c r="F229" s="5" t="s">
         <v>768</v>
       </c>
@@ -8600,6 +9638,9 @@
       <c r="B230" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="E230" s="5" t="s">
+        <v>1362</v>
+      </c>
       <c r="F230" s="5" t="s">
         <v>769</v>
       </c>
@@ -8617,6 +9658,9 @@
       <c r="B231" s="3" t="s">
         <v>220</v>
       </c>
+      <c r="E231" s="5" t="s">
+        <v>1363</v>
+      </c>
       <c r="F231" s="5" t="s">
         <v>770</v>
       </c>
@@ -8634,6 +9678,9 @@
       <c r="B232" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="E232" s="5" t="s">
+        <v>1364</v>
+      </c>
       <c r="F232" s="5" t="s">
         <v>771</v>
       </c>
@@ -8651,6 +9698,9 @@
       <c r="B233" s="3" t="s">
         <v>222</v>
       </c>
+      <c r="E233" s="5" t="s">
+        <v>1365</v>
+      </c>
       <c r="F233" s="5" t="s">
         <v>772</v>
       </c>
@@ -8668,6 +9718,9 @@
       <c r="B234" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="E234" s="5" t="s">
+        <v>1366</v>
+      </c>
       <c r="F234" s="5" t="s">
         <v>773</v>
       </c>
@@ -8685,6 +9738,9 @@
       <c r="B235" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="E235" s="5" t="s">
+        <v>1367</v>
+      </c>
       <c r="F235" s="5" t="s">
         <v>774</v>
       </c>
@@ -8702,6 +9758,9 @@
       <c r="B236" s="3" t="s">
         <v>225</v>
       </c>
+      <c r="E236" s="5" t="s">
+        <v>1368</v>
+      </c>
       <c r="F236" s="5" t="s">
         <v>775</v>
       </c>
@@ -8719,6 +9778,9 @@
       <c r="B237" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="E237" s="5" t="s">
+        <v>1369</v>
+      </c>
       <c r="F237" s="5" t="s">
         <v>776</v>
       </c>
@@ -8736,6 +9798,9 @@
       <c r="B238" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="E238" s="5" t="s">
+        <v>1370</v>
+      </c>
       <c r="F238" s="5" t="s">
         <v>777</v>
       </c>
@@ -8753,6 +9818,9 @@
       <c r="B239" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="E239" s="5" t="s">
+        <v>1371</v>
+      </c>
       <c r="F239" s="5" t="s">
         <v>778</v>
       </c>
@@ -8770,6 +9838,9 @@
       <c r="B240" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="E240" s="5" t="s">
+        <v>1372</v>
+      </c>
       <c r="F240" s="5" t="s">
         <v>779</v>
       </c>
@@ -8787,6 +9858,9 @@
       <c r="B241" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="E241" s="5" t="s">
+        <v>1373</v>
+      </c>
       <c r="F241" s="5" t="s">
         <v>780</v>
       </c>
@@ -8804,6 +9878,9 @@
       <c r="B242" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="E242" s="5" t="s">
+        <v>1374</v>
+      </c>
       <c r="F242" s="5" t="s">
         <v>781</v>
       </c>
@@ -8821,6 +9898,9 @@
       <c r="B243" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="E243" s="5" t="s">
+        <v>1375</v>
+      </c>
       <c r="F243" s="5" t="s">
         <v>782</v>
       </c>
@@ -8838,6 +9918,9 @@
       <c r="B244" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="E244" s="5" t="s">
+        <v>1376</v>
+      </c>
       <c r="F244" s="5" t="s">
         <v>783</v>
       </c>
@@ -8855,6 +9938,9 @@
       <c r="B245" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="E245" s="5" t="s">
+        <v>1377</v>
+      </c>
       <c r="F245" s="5" t="s">
         <v>784</v>
       </c>
@@ -8872,6 +9958,9 @@
       <c r="B246" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="E246" s="5" t="s">
+        <v>1378</v>
+      </c>
       <c r="F246" s="5" t="s">
         <v>785</v>
       </c>
@@ -8889,6 +9978,9 @@
       <c r="B247" s="3" t="s">
         <v>236</v>
       </c>
+      <c r="E247" s="5" t="s">
+        <v>1379</v>
+      </c>
       <c r="F247" s="5" t="s">
         <v>786</v>
       </c>
@@ -8906,6 +9998,9 @@
       <c r="B248" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="E248" s="5" t="s">
+        <v>1380</v>
+      </c>
       <c r="F248" s="5" t="s">
         <v>787</v>
       </c>
@@ -8923,6 +10018,9 @@
       <c r="B249" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="E249" s="5" t="s">
+        <v>1381</v>
+      </c>
       <c r="F249" s="5" t="s">
         <v>788</v>
       </c>
@@ -8940,6 +10038,9 @@
       <c r="B250" s="3" t="s">
         <v>239</v>
       </c>
+      <c r="E250" s="5" t="s">
+        <v>1382</v>
+      </c>
       <c r="F250" s="5" t="s">
         <v>789</v>
       </c>
@@ -8957,6 +10058,9 @@
       <c r="B251" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="E251" s="5" t="s">
+        <v>1385</v>
+      </c>
       <c r="F251" s="5" t="s">
         <v>790</v>
       </c>
@@ -8974,6 +10078,9 @@
       <c r="B252" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="E252" s="5" t="s">
+        <v>1383</v>
+      </c>
       <c r="F252" s="5" t="s">
         <v>791</v>
       </c>
@@ -8991,6 +10098,9 @@
       <c r="B253" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="E253" s="5" t="s">
+        <v>1384</v>
+      </c>
       <c r="F253" s="5" t="s">
         <v>792</v>
       </c>
@@ -9008,6 +10118,9 @@
       <c r="B254" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="E254" s="5" t="s">
+        <v>1386</v>
+      </c>
       <c r="F254" s="5" t="s">
         <v>793</v>
       </c>
@@ -9025,6 +10138,9 @@
       <c r="B255" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="E255" s="5" t="s">
+        <v>1387</v>
+      </c>
       <c r="F255" s="5" t="s">
         <v>794</v>
       </c>
@@ -9042,6 +10158,9 @@
       <c r="B256" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="E256" s="5" t="s">
+        <v>1388</v>
+      </c>
       <c r="F256" s="5" t="s">
         <v>795</v>
       </c>
@@ -9059,6 +10178,9 @@
       <c r="B257" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="E257" s="5" t="s">
+        <v>1389</v>
+      </c>
       <c r="F257" s="5" t="s">
         <v>796</v>
       </c>
@@ -9076,6 +10198,9 @@
       <c r="B258" s="3" t="s">
         <v>247</v>
       </c>
+      <c r="E258" s="5" t="s">
+        <v>1390</v>
+      </c>
       <c r="F258" s="5" t="s">
         <v>797</v>
       </c>
@@ -9093,6 +10218,9 @@
       <c r="B259" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="E259" s="5" t="s">
+        <v>1391</v>
+      </c>
       <c r="F259" s="5" t="s">
         <v>798</v>
       </c>
@@ -9110,6 +10238,9 @@
       <c r="B260" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="E260" s="5" t="s">
+        <v>1392</v>
+      </c>
       <c r="F260" s="5" t="s">
         <v>799</v>
       </c>
@@ -9127,6 +10258,9 @@
       <c r="B261" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="E261" s="5" t="s">
+        <v>1393</v>
+      </c>
       <c r="F261" s="5" t="s">
         <v>800</v>
       </c>
@@ -9144,6 +10278,9 @@
       <c r="B262" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="E262" s="5" t="s">
+        <v>1394</v>
+      </c>
       <c r="F262" s="5" t="s">
         <v>801</v>
       </c>
@@ -9161,6 +10298,9 @@
       <c r="B263" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="E263" s="5" t="s">
+        <v>1395</v>
+      </c>
       <c r="F263" s="5" t="s">
         <v>802</v>
       </c>
@@ -9178,6 +10318,9 @@
       <c r="B264" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="E264" s="5" t="s">
+        <v>1396</v>
+      </c>
       <c r="F264" s="5" t="s">
         <v>803</v>
       </c>
@@ -9195,6 +10338,9 @@
       <c r="B265" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="E265" s="5" t="s">
+        <v>1397</v>
+      </c>
       <c r="F265" s="5" t="s">
         <v>804</v>
       </c>
@@ -9212,6 +10358,9 @@
       <c r="B266" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="E266" s="5" t="s">
+        <v>1398</v>
+      </c>
       <c r="F266" s="5" t="s">
         <v>805</v>
       </c>
@@ -9229,6 +10378,9 @@
       <c r="B267" s="3" t="s">
         <v>256</v>
       </c>
+      <c r="E267" s="5" t="s">
+        <v>1399</v>
+      </c>
       <c r="F267" s="5" t="s">
         <v>806</v>
       </c>
@@ -9246,6 +10398,9 @@
       <c r="B268" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="E268" s="5" t="s">
+        <v>1400</v>
+      </c>
       <c r="F268" s="5" t="s">
         <v>807</v>
       </c>
@@ -9263,6 +10418,9 @@
       <c r="B269" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="E269" s="5" t="s">
+        <v>1401</v>
+      </c>
       <c r="F269" s="5" t="s">
         <v>808</v>
       </c>
@@ -9280,6 +10438,9 @@
       <c r="B270" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="E270" s="5" t="s">
+        <v>1402</v>
+      </c>
       <c r="F270" s="5" t="s">
         <v>809</v>
       </c>
@@ -9297,6 +10458,9 @@
       <c r="B271" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="E271" s="5" t="s">
+        <v>1403</v>
+      </c>
       <c r="F271" s="5" t="s">
         <v>810</v>
       </c>
@@ -9314,6 +10478,9 @@
       <c r="B272" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="E272" s="5" t="s">
+        <v>1404</v>
+      </c>
       <c r="F272" s="5" t="s">
         <v>811</v>
       </c>
@@ -9331,6 +10498,9 @@
       <c r="B273" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="E273" s="5" t="s">
+        <v>1405</v>
+      </c>
       <c r="F273" s="5" t="s">
         <v>812</v>
       </c>
@@ -9348,6 +10518,9 @@
       <c r="B274" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="E274" s="5" t="s">
+        <v>1406</v>
+      </c>
       <c r="F274" s="5" t="s">
         <v>813</v>
       </c>
@@ -9365,6 +10538,9 @@
       <c r="B275" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="E275" s="5" t="s">
+        <v>1407</v>
+      </c>
       <c r="F275" s="5" t="s">
         <v>814</v>
       </c>
@@ -9382,6 +10558,9 @@
       <c r="B276" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="E276" s="5" t="s">
+        <v>1408</v>
+      </c>
       <c r="F276" s="5" t="s">
         <v>815</v>
       </c>
@@ -9399,6 +10578,9 @@
       <c r="B277" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="E277" s="5" t="s">
+        <v>1409</v>
+      </c>
       <c r="F277" s="5" t="s">
         <v>816</v>
       </c>
@@ -9416,6 +10598,9 @@
       <c r="B278" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="E278" s="5" t="s">
+        <v>1410</v>
+      </c>
       <c r="F278" s="5" t="s">
         <v>817</v>
       </c>
@@ -9433,6 +10618,9 @@
       <c r="B279" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="E279" s="5" t="s">
+        <v>1411</v>
+      </c>
       <c r="F279" s="5" t="s">
         <v>818</v>
       </c>
@@ -9450,6 +10638,9 @@
       <c r="B280" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="E280" s="5" t="s">
+        <v>1412</v>
+      </c>
       <c r="F280" s="5" t="s">
         <v>819</v>
       </c>
@@ -9467,6 +10658,9 @@
       <c r="B281" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="E281" s="5" t="s">
+        <v>1413</v>
+      </c>
       <c r="F281" s="5" t="s">
         <v>820</v>
       </c>
@@ -9484,6 +10678,9 @@
       <c r="B282" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="E282" s="5" t="s">
+        <v>1414</v>
+      </c>
       <c r="F282" s="5" t="s">
         <v>821</v>
       </c>
@@ -9501,6 +10698,9 @@
       <c r="B283" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="E283" s="5" t="s">
+        <v>1415</v>
+      </c>
       <c r="F283" s="5" t="s">
         <v>822</v>
       </c>
@@ -9518,6 +10718,9 @@
       <c r="B284" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="E284" s="5" t="s">
+        <v>1416</v>
+      </c>
       <c r="F284" s="5" t="s">
         <v>823</v>
       </c>
@@ -9535,6 +10738,9 @@
       <c r="B285" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="E285" s="5" t="s">
+        <v>1417</v>
+      </c>
       <c r="F285" s="5" t="s">
         <v>824</v>
       </c>
@@ -9552,6 +10758,9 @@
       <c r="B286" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="E286" s="5" t="s">
+        <v>1418</v>
+      </c>
       <c r="F286" s="5" t="s">
         <v>825</v>
       </c>
@@ -9569,6 +10778,9 @@
       <c r="B287" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="E287" s="5" t="s">
+        <v>1419</v>
+      </c>
       <c r="F287" s="5" t="s">
         <v>826</v>
       </c>
@@ -9586,6 +10798,9 @@
       <c r="B288" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="E288" s="5" t="s">
+        <v>1420</v>
+      </c>
       <c r="F288" s="5" t="s">
         <v>827</v>
       </c>
@@ -9603,6 +10818,9 @@
       <c r="B289" s="3" t="s">
         <v>381</v>
       </c>
+      <c r="E289" s="5" t="s">
+        <v>1421</v>
+      </c>
       <c r="F289" s="5" t="s">
         <v>828</v>
       </c>
@@ -9620,6 +10838,9 @@
       <c r="B290" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="E290" s="5" t="s">
+        <v>1422</v>
+      </c>
       <c r="F290" s="5" t="s">
         <v>829</v>
       </c>
@@ -9637,6 +10858,9 @@
       <c r="B291" s="3" t="s">
         <v>383</v>
       </c>
+      <c r="E291" s="5" t="s">
+        <v>1423</v>
+      </c>
       <c r="F291" s="5" t="s">
         <v>830</v>
       </c>
@@ -9654,6 +10878,9 @@
       <c r="B292" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="E292" s="5" t="s">
+        <v>1424</v>
+      </c>
       <c r="F292" s="5" t="s">
         <v>831</v>
       </c>
@@ -9671,6 +10898,9 @@
       <c r="B293" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="E293" s="5" t="s">
+        <v>1425</v>
+      </c>
       <c r="F293" s="5" t="s">
         <v>832</v>
       </c>
@@ -9688,6 +10918,9 @@
       <c r="B294" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="E294" s="5" t="s">
+        <v>1426</v>
+      </c>
       <c r="F294" s="5" t="s">
         <v>833</v>
       </c>
@@ -9705,6 +10938,9 @@
       <c r="B295" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="E295" s="5" t="s">
+        <v>1427</v>
+      </c>
       <c r="F295" s="5" t="s">
         <v>834</v>
       </c>
@@ -9722,6 +10958,9 @@
       <c r="B296" s="3" t="s">
         <v>388</v>
       </c>
+      <c r="E296" s="5" t="s">
+        <v>1428</v>
+      </c>
       <c r="F296" s="5" t="s">
         <v>835</v>
       </c>
@@ -9739,6 +10978,9 @@
       <c r="B297" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="E297" s="5" t="s">
+        <v>1429</v>
+      </c>
       <c r="F297" s="5" t="s">
         <v>836</v>
       </c>
@@ -9756,6 +10998,9 @@
       <c r="B298" s="3" t="s">
         <v>390</v>
       </c>
+      <c r="E298" s="5" t="s">
+        <v>1430</v>
+      </c>
       <c r="F298" s="5" t="s">
         <v>837</v>
       </c>
@@ -9773,6 +11018,9 @@
       <c r="B299" s="3" t="s">
         <v>391</v>
       </c>
+      <c r="E299" s="5" t="s">
+        <v>1431</v>
+      </c>
       <c r="F299" s="5" t="s">
         <v>838</v>
       </c>
@@ -9790,6 +11038,9 @@
       <c r="B300" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="E300" s="5" t="s">
+        <v>1432</v>
+      </c>
       <c r="F300" s="5" t="s">
         <v>839</v>
       </c>
@@ -9807,6 +11058,9 @@
       <c r="B301" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="E301" s="5" t="s">
+        <v>1433</v>
+      </c>
       <c r="F301" s="5" t="s">
         <v>840</v>
       </c>
@@ -9824,6 +11078,9 @@
       <c r="B302" s="3" t="s">
         <v>394</v>
       </c>
+      <c r="E302" s="5" t="s">
+        <v>1434</v>
+      </c>
       <c r="F302" s="5" t="s">
         <v>841</v>
       </c>
@@ -9841,6 +11098,9 @@
       <c r="B303" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="E303" s="5" t="s">
+        <v>1435</v>
+      </c>
       <c r="F303" s="5" t="s">
         <v>842</v>
       </c>
@@ -9858,6 +11118,9 @@
       <c r="B304" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="E304" s="5" t="s">
+        <v>1436</v>
+      </c>
       <c r="F304" s="5" t="s">
         <v>843</v>
       </c>
@@ -9875,6 +11138,9 @@
       <c r="B305" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="E305" s="5" t="s">
+        <v>1437</v>
+      </c>
       <c r="F305" s="5" t="s">
         <v>844</v>
       </c>
@@ -9892,6 +11158,9 @@
       <c r="B306" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="E306" s="5" t="s">
+        <v>1438</v>
+      </c>
       <c r="F306" s="5" t="s">
         <v>845</v>
       </c>
@@ -9909,6 +11178,9 @@
       <c r="B307" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="E307" s="5" t="s">
+        <v>1439</v>
+      </c>
       <c r="F307" s="5" t="s">
         <v>846</v>
       </c>
@@ -9926,6 +11198,9 @@
       <c r="B308" s="3" t="s">
         <v>400</v>
       </c>
+      <c r="E308" s="5" t="s">
+        <v>1440</v>
+      </c>
       <c r="F308" s="5" t="s">
         <v>847</v>
       </c>
@@ -9943,6 +11218,9 @@
       <c r="B309" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="E309" s="5" t="s">
+        <v>1441</v>
+      </c>
       <c r="F309" s="5" t="s">
         <v>848</v>
       </c>
@@ -9960,6 +11238,9 @@
       <c r="B310" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="E310" s="5" t="s">
+        <v>1442</v>
+      </c>
       <c r="F310" s="5" t="s">
         <v>849</v>
       </c>
@@ -9977,6 +11258,9 @@
       <c r="B311" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="E311" s="5" t="s">
+        <v>1443</v>
+      </c>
       <c r="F311" s="5" t="s">
         <v>850</v>
       </c>
@@ -9994,6 +11278,9 @@
       <c r="B312" s="3" t="s">
         <v>404</v>
       </c>
+      <c r="E312" s="5" t="s">
+        <v>1444</v>
+      </c>
       <c r="F312" s="5" t="s">
         <v>851</v>
       </c>
@@ -10011,6 +11298,9 @@
       <c r="B313" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="E313" s="5" t="s">
+        <v>1445</v>
+      </c>
       <c r="F313" s="5" t="s">
         <v>852</v>
       </c>
@@ -10028,6 +11318,9 @@
       <c r="B314" s="3" t="s">
         <v>406</v>
       </c>
+      <c r="E314" s="5" t="s">
+        <v>1446</v>
+      </c>
       <c r="F314" s="5" t="s">
         <v>853</v>
       </c>
@@ -10045,6 +11338,9 @@
       <c r="B315" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="E315" s="5" t="s">
+        <v>1447</v>
+      </c>
       <c r="F315" s="5" t="s">
         <v>854</v>
       </c>
@@ -10062,6 +11358,9 @@
       <c r="B316" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="E316" s="5" t="s">
+        <v>1448</v>
+      </c>
       <c r="F316" s="5" t="s">
         <v>855</v>
       </c>
@@ -10079,6 +11378,9 @@
       <c r="B317" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="E317" s="5" t="s">
+        <v>1449</v>
+      </c>
       <c r="F317" s="5" t="s">
         <v>856</v>
       </c>
@@ -10096,6 +11398,9 @@
       <c r="B318" s="3" t="s">
         <v>410</v>
       </c>
+      <c r="E318" s="5" t="s">
+        <v>1450</v>
+      </c>
       <c r="F318" s="5" t="s">
         <v>857</v>
       </c>
@@ -10113,6 +11418,9 @@
       <c r="B319" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="E319" s="5" t="s">
+        <v>1451</v>
+      </c>
       <c r="F319" s="5" t="s">
         <v>858</v>
       </c>
@@ -10130,6 +11438,9 @@
       <c r="B320" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="E320" s="5" t="s">
+        <v>1452</v>
+      </c>
       <c r="F320" s="5" t="s">
         <v>859</v>
       </c>
@@ -10147,6 +11458,9 @@
       <c r="B321" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="E321" s="5" t="s">
+        <v>1453</v>
+      </c>
       <c r="F321" s="5" t="s">
         <v>860</v>
       </c>
@@ -10164,6 +11478,9 @@
       <c r="B322" s="3" t="s">
         <v>414</v>
       </c>
+      <c r="E322" s="5" t="s">
+        <v>1454</v>
+      </c>
       <c r="F322" s="5" t="s">
         <v>861</v>
       </c>
@@ -10181,6 +11498,9 @@
       <c r="B323" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="E323" s="5" t="s">
+        <v>1455</v>
+      </c>
       <c r="F323" s="5" t="s">
         <v>862</v>
       </c>
@@ -10198,6 +11518,9 @@
       <c r="B324" s="3" t="s">
         <v>416</v>
       </c>
+      <c r="E324" s="5" t="s">
+        <v>1456</v>
+      </c>
       <c r="F324" s="5" t="s">
         <v>863</v>
       </c>
@@ -10215,6 +11538,9 @@
       <c r="B325" s="3" t="s">
         <v>417</v>
       </c>
+      <c r="E325" s="5" t="s">
+        <v>1457</v>
+      </c>
       <c r="F325" s="5" t="s">
         <v>864</v>
       </c>
@@ -10232,6 +11558,9 @@
       <c r="B326" s="3" t="s">
         <v>418</v>
       </c>
+      <c r="E326" s="5" t="s">
+        <v>1458</v>
+      </c>
       <c r="F326" s="5" t="s">
         <v>865</v>
       </c>
@@ -10249,6 +11578,9 @@
       <c r="B327" s="3" t="s">
         <v>419</v>
       </c>
+      <c r="E327" s="5" t="s">
+        <v>1460</v>
+      </c>
       <c r="F327" s="5" t="s">
         <v>866</v>
       </c>
@@ -10266,6 +11598,9 @@
       <c r="B328" s="3" t="s">
         <v>420</v>
       </c>
+      <c r="E328" s="5" t="s">
+        <v>1459</v>
+      </c>
       <c r="F328" s="5" t="s">
         <v>867</v>
       </c>
@@ -10283,6 +11618,9 @@
       <c r="B329" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="E329" s="5" t="s">
+        <v>1461</v>
+      </c>
       <c r="F329" s="5" t="s">
         <v>868</v>
       </c>
@@ -10300,6 +11638,9 @@
       <c r="B330" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="E330" s="5" t="s">
+        <v>1462</v>
+      </c>
       <c r="F330" s="5" t="s">
         <v>869</v>
       </c>
@@ -10317,6 +11658,9 @@
       <c r="B331" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="E331" s="5" t="s">
+        <v>1463</v>
+      </c>
       <c r="F331" s="5" t="s">
         <v>870</v>
       </c>
@@ -10334,6 +11678,9 @@
       <c r="B332" s="3" t="s">
         <v>424</v>
       </c>
+      <c r="E332" s="5" t="s">
+        <v>1464</v>
+      </c>
       <c r="F332" s="5" t="s">
         <v>871</v>
       </c>
@@ -10351,6 +11698,9 @@
       <c r="B333" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="E333" s="5" t="s">
+        <v>1465</v>
+      </c>
       <c r="F333" s="5" t="s">
         <v>872</v>
       </c>
@@ -10368,6 +11718,9 @@
       <c r="B334" s="3" t="s">
         <v>426</v>
       </c>
+      <c r="E334" s="5" t="s">
+        <v>1466</v>
+      </c>
       <c r="F334" s="5" t="s">
         <v>873</v>
       </c>
@@ -10385,6 +11738,9 @@
       <c r="B335" s="3" t="s">
         <v>427</v>
       </c>
+      <c r="E335" s="5" t="s">
+        <v>1467</v>
+      </c>
       <c r="F335" s="5" t="s">
         <v>874</v>
       </c>
@@ -10402,6 +11758,9 @@
       <c r="B336" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="E336" s="5" t="s">
+        <v>1468</v>
+      </c>
       <c r="F336" s="5" t="s">
         <v>875</v>
       </c>
@@ -10419,6 +11778,9 @@
       <c r="B337" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="E337" s="5" t="s">
+        <v>1469</v>
+      </c>
       <c r="F337" s="5" t="s">
         <v>876</v>
       </c>
@@ -10436,6 +11798,9 @@
       <c r="B338" s="3" t="s">
         <v>430</v>
       </c>
+      <c r="E338" s="5" t="s">
+        <v>1470</v>
+      </c>
       <c r="F338" s="5" t="s">
         <v>877</v>
       </c>
@@ -10453,6 +11818,9 @@
       <c r="B339" s="3" t="s">
         <v>431</v>
       </c>
+      <c r="E339" s="5" t="s">
+        <v>1471</v>
+      </c>
       <c r="F339" s="5" t="s">
         <v>878</v>
       </c>
@@ -10470,6 +11838,9 @@
       <c r="B340" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="E340" s="5" t="s">
+        <v>1472</v>
+      </c>
       <c r="F340" s="5" t="s">
         <v>879</v>
       </c>
@@ -10487,6 +11858,9 @@
       <c r="B341" s="3" t="s">
         <v>433</v>
       </c>
+      <c r="E341" s="5" t="s">
+        <v>1473</v>
+      </c>
       <c r="F341" s="5" t="s">
         <v>880</v>
       </c>
@@ -10504,6 +11878,9 @@
       <c r="B342" s="3" t="s">
         <v>434</v>
       </c>
+      <c r="E342" s="5" t="s">
+        <v>1474</v>
+      </c>
       <c r="F342" s="5" t="s">
         <v>881</v>
       </c>
@@ -10521,6 +11898,9 @@
       <c r="B343" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="E343" s="5" t="s">
+        <v>1475</v>
+      </c>
       <c r="F343" s="5" t="s">
         <v>882</v>
       </c>
@@ -10538,6 +11918,9 @@
       <c r="B344" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="E344" s="5" t="s">
+        <v>1476</v>
+      </c>
       <c r="F344" s="5" t="s">
         <v>883</v>
       </c>
@@ -10555,6 +11938,9 @@
       <c r="B345" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="E345" s="5" t="s">
+        <v>1477</v>
+      </c>
       <c r="F345" s="5" t="s">
         <v>884</v>
       </c>
@@ -10573,6 +11959,9 @@
       <c r="B346" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="E346" s="5" t="s">
+        <v>1478</v>
+      </c>
       <c r="F346" s="5" t="s">
         <v>885</v>
       </c>
@@ -10591,6 +11980,9 @@
       <c r="B347" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="E347" s="5" t="s">
+        <v>1479</v>
+      </c>
       <c r="F347" s="5" t="s">
         <v>886</v>
       </c>
@@ -10609,6 +12001,9 @@
       <c r="B348" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E348" s="5" t="s">
+        <v>1480</v>
+      </c>
       <c r="F348" s="5" t="s">
         <v>887</v>
       </c>
@@ -10627,6 +12022,9 @@
       <c r="B349" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="E349" s="5" t="s">
+        <v>1481</v>
+      </c>
       <c r="F349" s="5" t="s">
         <v>888</v>
       </c>
@@ -10645,6 +12043,9 @@
       <c r="B350" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E350" s="5" t="s">
+        <v>1482</v>
+      </c>
       <c r="F350" s="5" t="s">
         <v>889</v>
       </c>
@@ -10663,6 +12064,9 @@
       <c r="B351" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="E351" s="5" t="s">
+        <v>1483</v>
+      </c>
       <c r="F351" s="5" t="s">
         <v>890</v>
       </c>
@@ -10681,6 +12085,9 @@
       <c r="B352" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="E352" s="5" t="s">
+        <v>1484</v>
+      </c>
       <c r="F352" s="5" t="s">
         <v>891</v>
       </c>
@@ -10699,6 +12106,9 @@
       <c r="B353" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="E353" s="5" t="s">
+        <v>1485</v>
+      </c>
       <c r="F353" s="5" t="s">
         <v>892</v>
       </c>
@@ -10717,6 +12127,9 @@
       <c r="B354" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="E354" s="5" t="s">
+        <v>1486</v>
+      </c>
       <c r="F354" s="5" t="s">
         <v>893</v>
       </c>
@@ -10735,6 +12148,9 @@
       <c r="B355" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="E355" s="5" t="s">
+        <v>1487</v>
+      </c>
       <c r="F355" s="5" t="s">
         <v>894</v>
       </c>
@@ -10753,6 +12169,9 @@
       <c r="B356" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="E356" s="5" t="s">
+        <v>1488</v>
+      </c>
       <c r="F356" s="5" t="s">
         <v>895</v>
       </c>
@@ -10771,6 +12190,9 @@
       <c r="B357" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="E357" s="5" t="s">
+        <v>1489</v>
+      </c>
       <c r="F357" s="5" t="s">
         <v>896</v>
       </c>
@@ -10789,6 +12211,9 @@
       <c r="B358" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="E358" s="5" t="s">
+        <v>1490</v>
+      </c>
       <c r="F358" s="5" t="s">
         <v>897</v>
       </c>
@@ -10807,6 +12232,9 @@
       <c r="B359" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="E359" s="5" t="s">
+        <v>1491</v>
+      </c>
       <c r="F359" s="5" t="s">
         <v>898</v>
       </c>
@@ -10825,6 +12253,9 @@
       <c r="B360" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="E360" s="5" t="s">
+        <v>1492</v>
+      </c>
       <c r="F360" s="5" t="s">
         <v>899</v>
       </c>
@@ -10843,6 +12274,9 @@
       <c r="B361" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="E361" s="5" t="s">
+        <v>1493</v>
+      </c>
       <c r="F361" s="5" t="s">
         <v>900</v>
       </c>
@@ -10861,6 +12295,9 @@
       <c r="B362" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="E362" s="5" t="s">
+        <v>1494</v>
+      </c>
       <c r="F362" s="5" t="s">
         <v>901</v>
       </c>
@@ -10879,6 +12316,9 @@
       <c r="B363" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="E363" s="5" t="s">
+        <v>1495</v>
+      </c>
       <c r="F363" s="5" t="s">
         <v>902</v>
       </c>
@@ -10898,7 +12338,7 @@
         <v>135</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>1022</v>
@@ -10919,7 +12359,7 @@
         <v>136</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>903</v>
@@ -10940,7 +12380,7 @@
         <v>137</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>904</v>
@@ -10961,7 +12401,7 @@
         <v>138</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>905</v>
@@ -10982,7 +12422,7 @@
         <v>139</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>906</v>
@@ -11003,7 +12443,7 @@
         <v>140</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F369" s="5" t="s">
         <v>907</v>
@@ -11024,7 +12464,7 @@
         <v>141</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>908</v>
@@ -11045,7 +12485,7 @@
         <v>142</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F371" s="5" t="s">
         <v>909</v>
@@ -11066,7 +12506,7 @@
         <v>143</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F372" s="5" t="s">
         <v>910</v>
@@ -11087,7 +12527,7 @@
         <v>144</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>911</v>
@@ -11108,7 +12548,7 @@
         <v>145</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F374" s="5" t="s">
         <v>912</v>
@@ -11129,7 +12569,7 @@
         <v>146</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F375" s="5" t="s">
         <v>913</v>
@@ -11150,7 +12590,7 @@
         <v>147</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F376" s="5" t="s">
         <v>914</v>
@@ -11171,7 +12611,7 @@
         <v>148</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F377" s="5" t="s">
         <v>915</v>
@@ -11192,7 +12632,7 @@
         <v>149</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>916</v>
@@ -11213,7 +12653,7 @@
         <v>150</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>917</v>
@@ -11234,7 +12674,7 @@
         <v>151</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F380" s="5" t="s">
         <v>918</v>
@@ -11255,7 +12695,7 @@
         <v>152</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F381" s="5" t="s">
         <v>919</v>
@@ -11276,7 +12716,7 @@
         <v>153</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F382" s="5" t="s">
         <v>920</v>
@@ -11297,7 +12737,7 @@
         <v>154</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F383" s="5" t="s">
         <v>921</v>
@@ -11318,7 +12758,7 @@
         <v>155</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F384" s="5" t="s">
         <v>922</v>
@@ -11339,7 +12779,7 @@
         <v>156</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F385" s="5" t="s">
         <v>923</v>
@@ -11360,7 +12800,7 @@
         <v>157</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F386" s="5" t="s">
         <v>924</v>
@@ -11381,7 +12821,7 @@
         <v>158</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F387" s="5" t="s">
         <v>925</v>
@@ -11402,7 +12842,7 @@
         <v>159</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>926</v>
@@ -11423,7 +12863,7 @@
         <v>160</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>927</v>
@@ -11444,7 +12884,7 @@
         <v>161</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F390" s="5" t="s">
         <v>928</v>
@@ -11465,7 +12905,7 @@
         <v>277</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F391" s="5" t="s">
         <v>929</v>
@@ -11485,7 +12925,7 @@
         <v>278</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F392" s="5" t="s">
         <v>930</v>
@@ -11505,7 +12945,7 @@
         <v>279</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F393" s="5" t="s">
         <v>931</v>
@@ -11525,7 +12965,7 @@
         <v>280</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F394" s="5" t="s">
         <v>932</v>
@@ -11545,7 +12985,7 @@
         <v>281</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F395" s="5" t="s">
         <v>933</v>
@@ -11565,7 +13005,7 @@
         <v>282</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F396" s="5" t="s">
         <v>934</v>
@@ -11585,7 +13025,7 @@
         <v>283</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F397" s="5" t="s">
         <v>935</v>
@@ -11605,7 +13045,7 @@
         <v>284</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F398" s="5" t="s">
         <v>936</v>
@@ -11625,7 +13065,7 @@
         <v>285</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F399" s="5" t="s">
         <v>937</v>
@@ -11645,7 +13085,7 @@
         <v>286</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F400" s="5" t="s">
         <v>938</v>
@@ -11665,7 +13105,7 @@
         <v>287</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F401" s="5" t="s">
         <v>939</v>
@@ -11685,7 +13125,7 @@
         <v>288</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F402" s="5" t="s">
         <v>940</v>
@@ -11705,7 +13145,7 @@
         <v>289</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>941</v>
@@ -11725,7 +13165,7 @@
         <v>290</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>942</v>
@@ -11745,7 +13185,7 @@
         <v>291</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>943</v>
@@ -11765,7 +13205,7 @@
         <v>292</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F406" s="5" t="s">
         <v>944</v>
@@ -11785,7 +13225,7 @@
         <v>293</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F407" s="5" t="s">
         <v>945</v>
@@ -11805,7 +13245,7 @@
         <v>294</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F408" s="5" t="s">
         <v>946</v>
@@ -11825,7 +13265,7 @@
         <v>295</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F409" s="5" t="s">
         <v>947</v>
@@ -11845,7 +13285,7 @@
         <v>296</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F410" s="5" t="s">
         <v>948</v>
@@ -11865,7 +13305,7 @@
         <v>297</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F411" s="5" t="s">
         <v>949</v>
@@ -11885,7 +13325,7 @@
         <v>298</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F412" s="5" t="s">
         <v>950</v>
@@ -11905,7 +13345,7 @@
         <v>299</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>951</v>
@@ -11925,7 +13365,7 @@
         <v>300</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F414" s="5" t="s">
         <v>952</v>
@@ -11945,7 +13385,7 @@
         <v>301</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>953</v>
@@ -11965,7 +13405,7 @@
         <v>302</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F416" s="5" t="s">
         <v>954</v>
@@ -11985,7 +13425,7 @@
         <v>303</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F417" s="5" t="s">
         <v>955</v>
@@ -12005,7 +13445,7 @@
         <v>304</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F418" s="5" t="s">
         <v>956</v>
@@ -12025,7 +13465,7 @@
         <v>305</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F419" s="5" t="s">
         <v>957</v>
@@ -12045,7 +13485,7 @@
         <v>306</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>958</v>
@@ -12065,7 +13505,7 @@
         <v>307</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>959</v>
@@ -12085,7 +13525,7 @@
         <v>308</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F422" s="5" t="s">
         <v>960</v>
@@ -12105,7 +13545,7 @@
         <v>309</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F423" s="5" t="s">
         <v>961</v>
@@ -12125,7 +13565,7 @@
         <v>310</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F424" s="5" t="s">
         <v>962</v>
@@ -12145,7 +13585,7 @@
         <v>311</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F425" s="5" t="s">
         <v>963</v>
@@ -12165,7 +13605,7 @@
         <v>312</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F426" s="5" t="s">
         <v>964</v>
@@ -12185,7 +13625,7 @@
         <v>313</v>
       </c>
       <c r="E427" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F427" s="5" t="s">
         <v>965</v>
@@ -12205,7 +13645,7 @@
         <v>314</v>
       </c>
       <c r="E428" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F428" s="5" t="s">
         <v>966</v>
@@ -12225,7 +13665,7 @@
         <v>315</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F429" s="5" t="s">
         <v>967</v>
@@ -12245,7 +13685,7 @@
         <v>316</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F430" s="5" t="s">
         <v>968</v>
@@ -12265,7 +13705,7 @@
         <v>317</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F431" s="5" t="s">
         <v>969</v>
@@ -12285,7 +13725,7 @@
         <v>318</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F432" s="5" t="s">
         <v>970</v>
@@ -12305,7 +13745,7 @@
         <v>319</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F433" s="5" t="s">
         <v>971</v>
@@ -12325,7 +13765,7 @@
         <v>320</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F434" s="5" t="s">
         <v>972</v>
@@ -12345,7 +13785,7 @@
         <v>321</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F435" s="5" t="s">
         <v>973</v>
@@ -12365,7 +13805,7 @@
         <v>322</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F436" s="5" t="s">
         <v>974</v>
@@ -12385,7 +13825,7 @@
         <v>437</v>
       </c>
       <c r="E437" s="5" t="s">
-        <v>1213</v>
+        <v>1496</v>
       </c>
       <c r="F437" s="5" t="s">
         <v>975</v>
@@ -12405,7 +13845,7 @@
         <v>438</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F438" s="5" t="s">
         <v>976</v>
@@ -12425,7 +13865,7 @@
         <v>439</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>977</v>
@@ -12445,7 +13885,7 @@
         <v>440</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F440" s="5" t="s">
         <v>978</v>
@@ -12465,7 +13905,7 @@
         <v>441</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F441" s="5" t="s">
         <v>979</v>
@@ -12485,7 +13925,7 @@
         <v>442</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>980</v>
@@ -12505,7 +13945,7 @@
         <v>443</v>
       </c>
       <c r="E443" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F443" s="5" t="s">
         <v>981</v>
@@ -12525,7 +13965,7 @@
         <v>444</v>
       </c>
       <c r="E444" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F444" s="5" t="s">
         <v>982</v>
@@ -12545,7 +13985,7 @@
         <v>445</v>
       </c>
       <c r="E445" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F445" s="5" t="s">
         <v>983</v>
@@ -12565,7 +14005,7 @@
         <v>446</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F446" s="5" t="s">
         <v>984</v>
@@ -12585,7 +14025,7 @@
         <v>447</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F447" s="5" t="s">
         <v>985</v>
@@ -12605,7 +14045,7 @@
         <v>448</v>
       </c>
       <c r="E448" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F448" s="5" t="s">
         <v>986</v>
@@ -12625,7 +14065,7 @@
         <v>449</v>
       </c>
       <c r="E449" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F449" s="5" t="s">
         <v>987</v>
@@ -12645,7 +14085,7 @@
         <v>450</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F450" s="5" t="s">
         <v>988</v>
@@ -12665,7 +14105,7 @@
         <v>451</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F451" s="5" t="s">
         <v>989</v>
@@ -12685,7 +14125,7 @@
         <v>452</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F452" s="5" t="s">
         <v>990</v>
@@ -12705,7 +14145,7 @@
         <v>453</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F453" s="5" t="s">
         <v>991</v>
@@ -12725,7 +14165,7 @@
         <v>454</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>992</v>
@@ -12745,7 +14185,7 @@
         <v>455</v>
       </c>
       <c r="E455" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F455" s="5" t="s">
         <v>993</v>
@@ -12765,7 +14205,7 @@
         <v>456</v>
       </c>
       <c r="E456" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>994</v>
@@ -12785,7 +14225,7 @@
         <v>457</v>
       </c>
       <c r="E457" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F457" s="5" t="s">
         <v>995</v>
@@ -12805,7 +14245,7 @@
         <v>458</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F458" s="5" t="s">
         <v>996</v>
@@ -12825,7 +14265,7 @@
         <v>459</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F459" s="5" t="s">
         <v>997</v>
@@ -12845,7 +14285,7 @@
         <v>460</v>
       </c>
       <c r="E460" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F460" s="5" t="s">
         <v>998</v>
@@ -12865,7 +14305,7 @@
         <v>461</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F461" s="5" t="s">
         <v>999</v>
@@ -12885,7 +14325,7 @@
         <v>462</v>
       </c>
       <c r="E462" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F462" s="5" t="s">
         <v>1000</v>
@@ -12905,7 +14345,7 @@
         <v>463</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F463" s="5" t="s">
         <v>1001</v>
@@ -12925,7 +14365,7 @@
         <v>464</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F464" s="5" t="s">
         <v>1002</v>
@@ -12945,7 +14385,7 @@
         <v>465</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F465" s="5" t="s">
         <v>1003</v>
@@ -12965,7 +14405,7 @@
         <v>466</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F466" s="5" t="s">
         <v>1004</v>
@@ -12985,7 +14425,7 @@
         <v>467</v>
       </c>
       <c r="E467" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F467" s="5" t="s">
         <v>1005</v>
@@ -13005,7 +14445,7 @@
         <v>468</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F468" s="5" t="s">
         <v>1006</v>
@@ -13025,7 +14465,7 @@
         <v>469</v>
       </c>
       <c r="E469" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F469" s="5" t="s">
         <v>1007</v>
@@ -13045,7 +14485,7 @@
         <v>470</v>
       </c>
       <c r="E470" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F470" s="5" t="s">
         <v>1008</v>
@@ -13065,7 +14505,7 @@
         <v>471</v>
       </c>
       <c r="E471" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F471" s="5" t="s">
         <v>1009</v>
@@ -13085,7 +14525,7 @@
         <v>472</v>
       </c>
       <c r="E472" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F472" s="5" t="s">
         <v>1010</v>
@@ -13105,7 +14545,7 @@
         <v>473</v>
       </c>
       <c r="E473" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F473" s="5" t="s">
         <v>1011</v>
@@ -13125,7 +14565,7 @@
         <v>474</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F474" s="5" t="s">
         <v>1012</v>
@@ -13145,7 +14585,7 @@
         <v>475</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F475" s="5" t="s">
         <v>1013</v>
@@ -13165,7 +14605,7 @@
         <v>476</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F476" s="5" t="s">
         <v>1014</v>
@@ -13185,7 +14625,7 @@
         <v>477</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F477" s="5" t="s">
         <v>1015</v>
@@ -13205,7 +14645,7 @@
         <v>478</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F478" s="5" t="s">
         <v>1016</v>
@@ -13225,7 +14665,7 @@
         <v>479</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F479" s="5" t="s">
         <v>1017</v>
@@ -13245,7 +14685,7 @@
         <v>480</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F480" s="5" t="s">
         <v>1018</v>
@@ -13265,7 +14705,7 @@
         <v>481</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F481" s="5" t="s">
         <v>1019</v>
@@ -13285,7 +14725,7 @@
         <v>482</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F482" s="5" t="s">
         <v>1020</v>
@@ -13305,7 +14745,7 @@
         <v>483</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F483" s="5" t="s">
         <v>1021</v>

--- a/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
+++ b/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahughes/GitHub/image2dmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2115842-3604-7042-961F-396F3E117EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BC415-72C1-3845-8135-AC6441C3FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13480" yWindow="660" windowWidth="13140" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1509">
   <si>
     <t>bf9584</t>
   </si>
@@ -4535,6 +4535,36 @@
   </si>
   <si>
     <t>c75770</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>pinks</t>
+  </si>
+  <si>
+    <t>purples</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>greens</t>
+  </si>
+  <si>
+    <t>browns</t>
+  </si>
+  <si>
+    <t>yellows</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>greys</t>
+  </si>
+  <si>
+    <t>reds</t>
   </si>
 </sst>
 </file>
@@ -4957,9 +4987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J331" sqref="J331"/>
+      <selection pane="topRight" activeCell="K403" sqref="K377:K403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4972,7 +5002,8 @@
     <col min="6" max="6" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.3984375" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="8"/>
-    <col min="11" max="13" width="9" style="5"/>
+    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="5"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5007,7 +5038,9 @@
       <c r="J1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>1499</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
@@ -5042,6 +5075,9 @@
       <c r="J2" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="20">
       <c r="A3" s="1">
@@ -5062,6 +5098,9 @@
       <c r="J3" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="20">
       <c r="A4" s="1">
@@ -5082,6 +5121,9 @@
       <c r="J4" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="20">
       <c r="A5" s="1">
@@ -5102,6 +5144,9 @@
       <c r="J5" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="20">
       <c r="A6" s="1">
@@ -5122,6 +5167,9 @@
       <c r="J6" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K6" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="20">
       <c r="A7" s="1">
@@ -5142,6 +5190,9 @@
       <c r="J7" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K7" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="20">
       <c r="A8" s="1">
@@ -5162,6 +5213,9 @@
       <c r="J8" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K8" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="20">
       <c r="A9" s="1">
@@ -5182,6 +5236,9 @@
       <c r="J9" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K9" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="20">
       <c r="A10" s="1">
@@ -5202,6 +5259,9 @@
       <c r="J10" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K10" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="20">
       <c r="A11" s="1">
@@ -5222,6 +5282,9 @@
       <c r="J11" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K11" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="20">
       <c r="A12" s="1">
@@ -5242,6 +5305,9 @@
       <c r="J12" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K12" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="20">
       <c r="A13" s="1">
@@ -5262,6 +5328,9 @@
       <c r="J13" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K13" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="20">
       <c r="A14" s="1">
@@ -5282,6 +5351,9 @@
       <c r="J14" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K14" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="20">
       <c r="A15" s="1">
@@ -5302,6 +5374,9 @@
       <c r="J15" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K15" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="20">
       <c r="A16" s="1">
@@ -5322,8 +5397,11 @@
       <c r="J16" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="20">
+      <c r="K16" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20">
       <c r="A17" s="1">
         <v>3831</v>
       </c>
@@ -5342,8 +5420,11 @@
       <c r="J17" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="20">
+      <c r="K17" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20">
       <c r="A18" s="1">
         <v>777</v>
       </c>
@@ -5362,8 +5443,11 @@
       <c r="J18" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="20">
+      <c r="K18" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20">
       <c r="A19" s="1">
         <v>3801</v>
       </c>
@@ -5394,8 +5478,11 @@
       <c r="J19" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20">
+      <c r="K19" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20">
       <c r="A20" s="1">
         <v>666</v>
       </c>
@@ -5414,8 +5501,11 @@
       <c r="J20" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="20">
+      <c r="K20" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20">
       <c r="A21" s="1">
         <v>321</v>
       </c>
@@ -5434,8 +5524,11 @@
       <c r="J21" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="20">
+      <c r="K21" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20">
       <c r="A22" s="1">
         <v>498</v>
       </c>
@@ -5454,8 +5547,11 @@
       <c r="J22" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="20">
+      <c r="K22" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20">
       <c r="A23" s="1">
         <v>816</v>
       </c>
@@ -5474,8 +5570,11 @@
       <c r="J23" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="20">
+      <c r="K23" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20">
       <c r="A24" s="1">
         <v>815</v>
       </c>
@@ -5494,8 +5593,11 @@
       <c r="J24" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="20">
+      <c r="K24" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20">
       <c r="A25" s="1">
         <v>814</v>
       </c>
@@ -5514,8 +5616,11 @@
       <c r="J25" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="20">
+      <c r="K25" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20">
       <c r="A26" s="1">
         <v>894</v>
       </c>
@@ -5534,8 +5639,11 @@
       <c r="J26" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="20">
+      <c r="K26" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20">
       <c r="A27" s="1">
         <v>893</v>
       </c>
@@ -5554,8 +5662,11 @@
       <c r="J27" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20">
+      <c r="K27" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20">
       <c r="A28" s="1">
         <v>892</v>
       </c>
@@ -5574,8 +5685,11 @@
       <c r="J28" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20">
+      <c r="K28" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20">
       <c r="A29" s="1">
         <v>891</v>
       </c>
@@ -5594,8 +5708,11 @@
       <c r="J29" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20">
+      <c r="K29" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20">
       <c r="A30" s="1">
         <v>818</v>
       </c>
@@ -5614,8 +5731,11 @@
       <c r="J30" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20">
+      <c r="K30" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20">
       <c r="A31" s="1">
         <v>957</v>
       </c>
@@ -5634,8 +5754,11 @@
       <c r="J31" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="20">
+      <c r="K31" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20">
       <c r="A32" s="1">
         <v>956</v>
       </c>
@@ -5654,8 +5777,11 @@
       <c r="J32" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="20">
+      <c r="K32" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20">
       <c r="A33" s="1">
         <v>3708</v>
       </c>
@@ -5674,8 +5800,11 @@
       <c r="J33" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="20">
+      <c r="K33" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20">
       <c r="A34" s="1">
         <v>3706</v>
       </c>
@@ -5694,8 +5823,11 @@
       <c r="J34" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="20">
+      <c r="K34" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20">
       <c r="A35" s="1">
         <v>3705</v>
       </c>
@@ -5714,8 +5846,11 @@
       <c r="J35" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="20">
+      <c r="K35" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20">
       <c r="A36" s="1">
         <v>963</v>
       </c>
@@ -5734,8 +5869,11 @@
       <c r="J36" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="20">
+      <c r="K36" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20">
       <c r="A37" s="1">
         <v>3716</v>
       </c>
@@ -5754,8 +5892,11 @@
       <c r="J37" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="20">
+      <c r="K37" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20">
       <c r="A38" s="1">
         <v>962</v>
       </c>
@@ -5774,8 +5915,11 @@
       <c r="J38" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="20">
+      <c r="K38" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20">
       <c r="A39" s="1">
         <v>961</v>
       </c>
@@ -5794,8 +5938,11 @@
       <c r="J39" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="20">
+      <c r="K39" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20">
       <c r="A40" s="1">
         <v>309</v>
       </c>
@@ -5814,8 +5961,11 @@
       <c r="J40" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="20">
+      <c r="K40" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20">
       <c r="A41" s="1">
         <v>819</v>
       </c>
@@ -5834,8 +5984,11 @@
       <c r="J41" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="20">
+      <c r="K41" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20">
       <c r="A42" s="1">
         <v>3326</v>
       </c>
@@ -5854,8 +6007,11 @@
       <c r="J42" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="20">
+      <c r="K42" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="20">
       <c r="A43" s="1">
         <v>899</v>
       </c>
@@ -5874,8 +6030,11 @@
       <c r="J43" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="20">
+      <c r="K43" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20">
       <c r="A44" s="1">
         <v>335</v>
       </c>
@@ -5894,8 +6053,11 @@
       <c r="J44" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="20">
+      <c r="K44" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20">
       <c r="A45" s="1">
         <v>326</v>
       </c>
@@ -5914,8 +6076,11 @@
       <c r="J45" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="20">
+      <c r="K45" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20">
       <c r="A46" s="1">
         <v>151</v>
       </c>
@@ -5934,8 +6099,11 @@
       <c r="J46" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="20">
+      <c r="K46" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20">
       <c r="A47" s="1">
         <v>3354</v>
       </c>
@@ -5954,8 +6122,11 @@
       <c r="J47" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="20">
+      <c r="K47" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20">
       <c r="A48" s="1">
         <v>3733</v>
       </c>
@@ -5974,8 +6145,11 @@
       <c r="J48" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="20">
+      <c r="K48" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20">
       <c r="A49" s="1">
         <v>3731</v>
       </c>
@@ -5994,8 +6168,11 @@
       <c r="J49" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="20">
+      <c r="K49" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20">
       <c r="A50" s="1">
         <v>3350</v>
       </c>
@@ -6014,8 +6191,11 @@
       <c r="J50" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="20">
+      <c r="K50" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20">
       <c r="A51" s="1">
         <v>150</v>
       </c>
@@ -6034,8 +6214,11 @@
       <c r="J51" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="20">
+      <c r="K51" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -6054,8 +6237,11 @@
       <c r="J52" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="20">
+      <c r="K52" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20">
       <c r="A53" s="1">
         <v>3689</v>
       </c>
@@ -6074,8 +6260,11 @@
       <c r="J53" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="20">
+      <c r="K53" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="20">
       <c r="A54" s="1">
         <v>3688</v>
       </c>
@@ -6094,8 +6283,11 @@
       <c r="J54" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="20">
+      <c r="K54" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20">
       <c r="A55" s="1">
         <v>3687</v>
       </c>
@@ -6114,8 +6306,11 @@
       <c r="J55" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="20">
+      <c r="K55" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="20">
       <c r="A56" s="1">
         <v>3803</v>
       </c>
@@ -6134,8 +6329,11 @@
       <c r="J56" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="20">
+      <c r="K56" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="20">
       <c r="A57" s="1">
         <v>3685</v>
       </c>
@@ -6154,8 +6352,11 @@
       <c r="J57" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="20">
+      <c r="K57" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20">
       <c r="A58" s="1">
         <v>605</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="J58" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="20">
+      <c r="K58" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="20">
       <c r="A59" s="1">
         <v>604</v>
       </c>
@@ -6194,8 +6398,11 @@
       <c r="J59" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="20">
+      <c r="K59" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="20">
       <c r="A60" s="1">
         <v>603</v>
       </c>
@@ -6214,8 +6421,11 @@
       <c r="J60" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="20">
+      <c r="K60" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="20">
       <c r="A61" s="1">
         <v>602</v>
       </c>
@@ -6234,8 +6444,11 @@
       <c r="J61" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="20">
+      <c r="K61" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="20">
       <c r="A62" s="1">
         <v>601</v>
       </c>
@@ -6254,8 +6467,11 @@
       <c r="J62" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="20">
+      <c r="K62" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20">
       <c r="A63" s="1">
         <v>600</v>
       </c>
@@ -6274,8 +6490,11 @@
       <c r="J63" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="20">
+      <c r="K63" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="20">
       <c r="A64" s="1">
         <v>3806</v>
       </c>
@@ -6294,8 +6513,11 @@
       <c r="J64" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="20">
+      <c r="K64" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20">
       <c r="A65" s="1">
         <v>3805</v>
       </c>
@@ -6326,8 +6548,11 @@
       <c r="J65" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="20">
+      <c r="K65" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20">
       <c r="A66" s="1">
         <v>3804</v>
       </c>
@@ -6346,8 +6571,11 @@
       <c r="J66" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="20">
+      <c r="K66" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20">
       <c r="A67" s="1">
         <v>3609</v>
       </c>
@@ -6366,8 +6594,11 @@
       <c r="J67" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="20">
+      <c r="K67" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20">
       <c r="A68" s="1">
         <v>3608</v>
       </c>
@@ -6386,8 +6617,11 @@
       <c r="J68" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="20">
+      <c r="K68" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20">
       <c r="A69" s="1">
         <v>3607</v>
       </c>
@@ -6406,8 +6640,11 @@
       <c r="J69" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="20">
+      <c r="K69" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20">
       <c r="A70" s="1">
         <v>718</v>
       </c>
@@ -6426,8 +6663,11 @@
       <c r="J70" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="20">
+      <c r="K70" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20">
       <c r="A71" s="1">
         <v>917</v>
       </c>
@@ -6446,8 +6686,11 @@
       <c r="J71" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="20">
+      <c r="K71" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="20">
       <c r="A72" s="1">
         <v>915</v>
       </c>
@@ -6466,8 +6709,11 @@
       <c r="J72" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="20">
+      <c r="K72" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20">
       <c r="A73" s="1">
         <v>33</v>
       </c>
@@ -6486,8 +6732,11 @@
       <c r="J73" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="20">
+      <c r="K73" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20">
       <c r="A74" s="1">
         <v>34</v>
       </c>
@@ -6506,8 +6755,11 @@
       <c r="J74" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="20">
+      <c r="K74" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="20">
       <c r="A75" s="1">
         <v>35</v>
       </c>
@@ -6526,8 +6778,11 @@
       <c r="J75" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="20">
+      <c r="K75" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="20">
       <c r="A76" s="1">
         <v>778</v>
       </c>
@@ -6546,8 +6801,11 @@
       <c r="J76" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="20">
+      <c r="K76" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="20">
       <c r="A77" s="1">
         <v>3727</v>
       </c>
@@ -6566,8 +6824,11 @@
       <c r="J77" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="20">
+      <c r="K77" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="20">
       <c r="A78" s="1">
         <v>316</v>
       </c>
@@ -6586,8 +6847,11 @@
       <c r="J78" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="20">
+      <c r="K78" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="20">
       <c r="A79" s="1">
         <v>3726</v>
       </c>
@@ -6606,8 +6870,11 @@
       <c r="J79" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="20">
+      <c r="K79" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="20">
       <c r="A80" s="1">
         <v>315</v>
       </c>
@@ -6626,8 +6893,11 @@
       <c r="J80" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="20">
+      <c r="K80" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="20">
       <c r="A81" s="1">
         <v>3802</v>
       </c>
@@ -6646,8 +6916,11 @@
       <c r="J81" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="20">
+      <c r="K81" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20">
       <c r="A82" s="1">
         <v>902</v>
       </c>
@@ -6666,8 +6939,11 @@
       <c r="J82" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="20">
+      <c r="K82" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="20">
       <c r="A83" s="1">
         <v>3836</v>
       </c>
@@ -6686,8 +6962,11 @@
       <c r="J83" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="20">
+      <c r="K83" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="20">
       <c r="A84" s="1">
         <v>3835</v>
       </c>
@@ -6706,8 +6985,11 @@
       <c r="J84" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="20">
+      <c r="K84" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20">
       <c r="A85" s="1">
         <v>3834</v>
       </c>
@@ -6726,8 +7008,11 @@
       <c r="J85" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="20">
+      <c r="K85" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="20">
       <c r="A86" s="1">
         <v>154</v>
       </c>
@@ -6746,8 +7031,11 @@
       <c r="J86" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="20">
+      <c r="K86" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="20">
       <c r="A87" s="1">
         <v>24</v>
       </c>
@@ -6766,8 +7054,11 @@
       <c r="J87" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="20">
+      <c r="K87" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="20">
       <c r="A88" s="1">
         <v>25</v>
       </c>
@@ -6786,8 +7077,11 @@
       <c r="J88" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="20">
+      <c r="K88" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="20">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -6818,8 +7112,11 @@
       <c r="J89" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="20">
+      <c r="K89" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20">
       <c r="A90" s="1">
         <v>211</v>
       </c>
@@ -6838,8 +7135,11 @@
       <c r="J90" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="20">
+      <c r="K90" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20">
       <c r="A91" s="1">
         <v>210</v>
       </c>
@@ -6858,8 +7158,11 @@
       <c r="J91" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="20">
+      <c r="K91" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20">
       <c r="A92" s="1">
         <v>209</v>
       </c>
@@ -6878,8 +7181,11 @@
       <c r="J92" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="20">
+      <c r="K92" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20">
       <c r="A93" s="1">
         <v>208</v>
       </c>
@@ -6898,8 +7204,11 @@
       <c r="J93" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="20">
+      <c r="K93" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="20">
       <c r="A94" s="1">
         <v>3837</v>
       </c>
@@ -6918,8 +7227,11 @@
       <c r="J94" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="20">
+      <c r="K94" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20">
       <c r="A95" s="1">
         <v>327</v>
       </c>
@@ -6938,8 +7250,11 @@
       <c r="J95" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="20">
+      <c r="K95" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20">
       <c r="A96" s="1">
         <v>153</v>
       </c>
@@ -6958,8 +7273,11 @@
       <c r="J96" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="20">
+      <c r="K96" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="20">
       <c r="A97" s="1">
         <v>554</v>
       </c>
@@ -6978,8 +7296,11 @@
       <c r="J97" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="20">
+      <c r="K97" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20">
       <c r="A98" s="1">
         <v>553</v>
       </c>
@@ -6998,8 +7319,11 @@
       <c r="J98" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="20">
+      <c r="K98" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20">
       <c r="A99" s="1">
         <v>552</v>
       </c>
@@ -7018,8 +7342,11 @@
       <c r="J99" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="20">
+      <c r="K99" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20">
       <c r="A100" s="1">
         <v>550</v>
       </c>
@@ -7038,8 +7365,11 @@
       <c r="J100" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="20">
+      <c r="K100" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20">
       <c r="A101" s="1">
         <v>3743</v>
       </c>
@@ -7058,8 +7388,11 @@
       <c r="J101" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="20">
+      <c r="K101" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20">
       <c r="A102" s="1">
         <v>3042</v>
       </c>
@@ -7078,8 +7411,11 @@
       <c r="J102" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="20">
+      <c r="K102" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20">
       <c r="A103" s="1">
         <v>3041</v>
       </c>
@@ -7098,8 +7434,11 @@
       <c r="J103" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="20">
+      <c r="K103" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20">
       <c r="A104" s="1">
         <v>3740</v>
       </c>
@@ -7118,8 +7457,11 @@
       <c r="J104" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="20">
+      <c r="K104" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="20">
       <c r="A105" s="1">
         <v>27</v>
       </c>
@@ -7138,8 +7480,11 @@
       <c r="J105" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="20">
+      <c r="K105" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20">
       <c r="A106" s="1">
         <v>28</v>
       </c>
@@ -7158,8 +7503,11 @@
       <c r="J106" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="20">
+      <c r="K106" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="20">
       <c r="A107" s="1">
         <v>29</v>
       </c>
@@ -7178,8 +7526,11 @@
       <c r="J107" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="20">
+      <c r="K107" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20">
       <c r="A108" s="1">
         <v>3747</v>
       </c>
@@ -7198,8 +7549,11 @@
       <c r="J108" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="20">
+      <c r="K108" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20">
       <c r="A109" s="1">
         <v>341</v>
       </c>
@@ -7218,8 +7572,11 @@
       <c r="J109" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="20">
+      <c r="K109" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20">
       <c r="A110" s="1">
         <v>156</v>
       </c>
@@ -7238,8 +7595,11 @@
       <c r="J110" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="20">
+      <c r="K110" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="20">
       <c r="A111" s="1">
         <v>340</v>
       </c>
@@ -7258,8 +7618,11 @@
       <c r="J111" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="20">
+      <c r="K111" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="20">
       <c r="A112" s="1">
         <v>155</v>
       </c>
@@ -7278,8 +7641,11 @@
       <c r="J112" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="20">
+      <c r="K112" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="20">
       <c r="A113" s="1">
         <v>3746</v>
       </c>
@@ -7298,8 +7664,11 @@
       <c r="J113" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="20">
+      <c r="K113" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20">
       <c r="A114" s="1">
         <v>333</v>
       </c>
@@ -7330,8 +7699,11 @@
       <c r="J114" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="20">
+      <c r="K114" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="20">
       <c r="A115" s="1">
         <v>30</v>
       </c>
@@ -7350,8 +7722,11 @@
       <c r="J115" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="20">
+      <c r="K115" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="20">
       <c r="A116" s="1">
         <v>31</v>
       </c>
@@ -7370,8 +7745,11 @@
       <c r="J116" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="20">
+      <c r="K116" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="20">
       <c r="A117" s="1">
         <v>32</v>
       </c>
@@ -7390,8 +7768,11 @@
       <c r="J117" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="20">
+      <c r="K117" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="20">
       <c r="A118" s="1">
         <v>157</v>
       </c>
@@ -7410,8 +7791,11 @@
       <c r="J118" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="20">
+      <c r="K118" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="20">
       <c r="A119" s="1">
         <v>794</v>
       </c>
@@ -7430,8 +7814,11 @@
       <c r="J119" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="20">
+      <c r="K119" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="20">
       <c r="A120" s="1">
         <v>793</v>
       </c>
@@ -7450,8 +7837,11 @@
       <c r="J120" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="20">
+      <c r="K120" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="20">
       <c r="A121" s="1">
         <v>3807</v>
       </c>
@@ -7470,8 +7860,11 @@
       <c r="J121" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="20">
+      <c r="K121" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="20">
       <c r="A122" s="1">
         <v>792</v>
       </c>
@@ -7490,8 +7883,11 @@
       <c r="J122" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="20">
+      <c r="K122" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="20">
       <c r="A123" s="1">
         <v>158</v>
       </c>
@@ -7510,8 +7906,11 @@
       <c r="J123" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="20">
+      <c r="K123" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="20">
       <c r="A124" s="1">
         <v>791</v>
       </c>
@@ -7530,8 +7929,11 @@
       <c r="J124" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="20">
+      <c r="K124" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="20">
       <c r="A125" s="1">
         <v>3840</v>
       </c>
@@ -7550,8 +7952,11 @@
       <c r="J125" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="20">
+      <c r="K125" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="20">
       <c r="A126" s="1">
         <v>3839</v>
       </c>
@@ -7570,8 +7975,11 @@
       <c r="J126" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="20">
+      <c r="K126" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="20">
       <c r="A127" s="1">
         <v>3838</v>
       </c>
@@ -7590,8 +7998,11 @@
       <c r="J127" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="20">
+      <c r="K127" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="20">
       <c r="A128" s="1">
         <v>800</v>
       </c>
@@ -7610,8 +8021,11 @@
       <c r="J128" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="20">
+      <c r="K128" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="20">
       <c r="A129" s="1">
         <v>809</v>
       </c>
@@ -7630,8 +8044,11 @@
       <c r="J129" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="20">
+      <c r="K129" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="20">
       <c r="A130" s="1">
         <v>799</v>
       </c>
@@ -7650,8 +8067,11 @@
       <c r="J130" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="20">
+      <c r="K130" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="20">
       <c r="A131" s="1">
         <v>798</v>
       </c>
@@ -7670,8 +8090,11 @@
       <c r="J131" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="20">
+      <c r="K131" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="20">
       <c r="A132" s="1">
         <v>797</v>
       </c>
@@ -7690,8 +8113,11 @@
       <c r="J132" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="20">
+      <c r="K132" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="20">
       <c r="A133" s="1">
         <v>796</v>
       </c>
@@ -7710,8 +8136,11 @@
       <c r="J133" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="20">
+      <c r="K133" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="20">
       <c r="A134" s="1">
         <v>820</v>
       </c>
@@ -7730,8 +8159,11 @@
       <c r="J134" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="20">
+      <c r="K134" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="20">
       <c r="A135" s="1">
         <v>162</v>
       </c>
@@ -7750,8 +8182,11 @@
       <c r="J135" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="20">
+      <c r="K135" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="20">
       <c r="A136" s="1">
         <v>827</v>
       </c>
@@ -7770,8 +8205,11 @@
       <c r="J136" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="20">
+      <c r="K136" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="20">
       <c r="A137" s="1">
         <v>813</v>
       </c>
@@ -7790,8 +8228,11 @@
       <c r="J137" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="20">
+      <c r="K137" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="20">
       <c r="A138" s="1">
         <v>826</v>
       </c>
@@ -7810,8 +8251,11 @@
       <c r="J138" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="20">
+      <c r="K138" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="20">
       <c r="A139" s="1">
         <v>825</v>
       </c>
@@ -7830,8 +8274,11 @@
       <c r="J139" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="20">
+      <c r="K139" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="20">
       <c r="A140" s="1">
         <v>824</v>
       </c>
@@ -7850,8 +8297,11 @@
       <c r="J140" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="20">
+      <c r="K140" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="20">
       <c r="A141" s="1">
         <v>996</v>
       </c>
@@ -7870,8 +8320,11 @@
       <c r="J141" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="20">
+      <c r="K141" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="20">
       <c r="A142" s="1">
         <v>3843</v>
       </c>
@@ -7890,8 +8343,11 @@
       <c r="J142" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="20">
+      <c r="K142" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="20">
       <c r="A143" s="1">
         <v>995</v>
       </c>
@@ -7910,8 +8366,11 @@
       <c r="J143" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="20">
+      <c r="K143" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="20">
       <c r="A144" s="1">
         <v>3846</v>
       </c>
@@ -7930,8 +8389,11 @@
       <c r="J144" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="20">
+      <c r="K144" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="20">
       <c r="A145" s="1">
         <v>3845</v>
       </c>
@@ -7950,8 +8412,11 @@
       <c r="J145" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="20">
+      <c r="K145" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="20">
       <c r="A146" s="1">
         <v>3844</v>
       </c>
@@ -7970,8 +8435,11 @@
       <c r="J146" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="20">
+      <c r="K146" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="20">
       <c r="A147" s="1">
         <v>159</v>
       </c>
@@ -7990,8 +8458,11 @@
       <c r="J147" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="20">
+      <c r="K147" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="20">
       <c r="A148" s="1">
         <v>160</v>
       </c>
@@ -8010,8 +8481,11 @@
       <c r="J148" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="20">
+      <c r="K148" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="20">
       <c r="A149" s="1">
         <v>161</v>
       </c>
@@ -8030,8 +8504,11 @@
       <c r="J149" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="20">
+      <c r="K149" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="20">
       <c r="A150" s="1">
         <v>3756</v>
       </c>
@@ -8050,8 +8527,11 @@
       <c r="J150" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="20">
+      <c r="K150" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="20">
       <c r="A151" s="1">
         <v>775</v>
       </c>
@@ -8070,8 +8550,11 @@
       <c r="J151" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="20">
+      <c r="K151" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="20">
       <c r="A152" s="1">
         <v>3841</v>
       </c>
@@ -8090,8 +8573,11 @@
       <c r="J152" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="20">
+      <c r="K152" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="20">
       <c r="A153" s="1">
         <v>3325</v>
       </c>
@@ -8110,8 +8596,11 @@
       <c r="J153" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="20">
+      <c r="K153" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="20">
       <c r="A154" s="1">
         <v>3755</v>
       </c>
@@ -8130,8 +8619,11 @@
       <c r="J154" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="20">
+      <c r="K154" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="20">
       <c r="A155" s="1">
         <v>334</v>
       </c>
@@ -8150,8 +8642,11 @@
       <c r="J155" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="20">
+      <c r="K155" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="20">
       <c r="A156" s="1">
         <v>322</v>
       </c>
@@ -8170,8 +8665,11 @@
       <c r="J156" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="20">
+      <c r="K156" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="20">
       <c r="A157" s="1">
         <v>312</v>
       </c>
@@ -8190,8 +8688,11 @@
       <c r="J157" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="20">
+      <c r="K157" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="20">
       <c r="A158" s="1">
         <v>803</v>
       </c>
@@ -8210,8 +8711,11 @@
       <c r="J158" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="20">
+      <c r="K158" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="20">
       <c r="A159" s="1">
         <v>336</v>
       </c>
@@ -8230,8 +8734,11 @@
       <c r="J159" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="20">
+      <c r="K159" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="20">
       <c r="A160" s="1">
         <v>823</v>
       </c>
@@ -8250,8 +8757,11 @@
       <c r="J160" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="20">
+      <c r="K160" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="20">
       <c r="A161" s="1">
         <v>939</v>
       </c>
@@ -8270,8 +8780,11 @@
       <c r="J161" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="20">
+      <c r="K161" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="20">
       <c r="A162" s="1">
         <v>3753</v>
       </c>
@@ -8290,8 +8803,11 @@
       <c r="J162" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="20">
+      <c r="K162" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="20">
       <c r="A163" s="1">
         <v>3752</v>
       </c>
@@ -8310,8 +8826,11 @@
       <c r="J163" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="20">
+      <c r="K163" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="20">
       <c r="A164" s="1">
         <v>932</v>
       </c>
@@ -8330,8 +8849,11 @@
       <c r="J164" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="20">
+      <c r="K164" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="20">
       <c r="A165" s="1">
         <v>931</v>
       </c>
@@ -8350,8 +8872,11 @@
       <c r="J165" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="20">
+      <c r="K165" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="20">
       <c r="A166" s="1">
         <v>930</v>
       </c>
@@ -8370,8 +8895,11 @@
       <c r="J166" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="20">
+      <c r="K166" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="20">
       <c r="A167" s="1">
         <v>3750</v>
       </c>
@@ -8390,8 +8918,11 @@
       <c r="J167" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="20">
+      <c r="K167" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="20">
       <c r="A168" s="1">
         <v>828</v>
       </c>
@@ -8410,8 +8941,11 @@
       <c r="J168" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="20">
+      <c r="K168" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="20">
       <c r="A169" s="1">
         <v>3761</v>
       </c>
@@ -8430,8 +8964,11 @@
       <c r="J169" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="20">
+      <c r="K169" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="20">
       <c r="A170" s="1">
         <v>519</v>
       </c>
@@ -8450,8 +8987,11 @@
       <c r="J170" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="20">
+      <c r="K170" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="20">
       <c r="A171" s="1">
         <v>518</v>
       </c>
@@ -8470,8 +9010,11 @@
       <c r="J171" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="20">
+      <c r="K171" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="20">
       <c r="A172" s="1">
         <v>3760</v>
       </c>
@@ -8490,8 +9033,11 @@
       <c r="J172" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="20">
+      <c r="K172" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="20">
       <c r="A173" s="1">
         <v>517</v>
       </c>
@@ -8510,8 +9056,11 @@
       <c r="J173" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="20">
+      <c r="K173" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="20">
       <c r="A174" s="1">
         <v>3842</v>
       </c>
@@ -8530,8 +9079,11 @@
       <c r="J174" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="20">
+      <c r="K174" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="20">
       <c r="A175" s="1">
         <v>311</v>
       </c>
@@ -8550,8 +9102,11 @@
       <c r="J175" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="20">
+      <c r="K175" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="20">
       <c r="A176" s="1">
         <v>747</v>
       </c>
@@ -8570,8 +9125,11 @@
       <c r="J176" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="20">
+      <c r="K176" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="20">
       <c r="A177" s="1">
         <v>3766</v>
       </c>
@@ -8590,8 +9148,11 @@
       <c r="J177" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="20">
+      <c r="K177" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="20">
       <c r="A178" s="1">
         <v>807</v>
       </c>
@@ -8610,8 +9171,11 @@
       <c r="J178" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="20">
+      <c r="K178" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="20">
       <c r="A179" s="1">
         <v>3765</v>
       </c>
@@ -8630,8 +9194,11 @@
       <c r="J179" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="20">
+      <c r="K179" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="20">
       <c r="A180" s="1">
         <v>3811</v>
       </c>
@@ -8650,8 +9217,11 @@
       <c r="J180" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="20">
+      <c r="K180" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="20">
       <c r="A181" s="1">
         <v>598</v>
       </c>
@@ -8670,8 +9240,11 @@
       <c r="J181" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="20">
+      <c r="K181" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="20">
       <c r="A182" s="1">
         <v>597</v>
       </c>
@@ -8690,8 +9263,11 @@
       <c r="J182" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="20">
+      <c r="K182" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="20">
       <c r="A183" s="1">
         <v>3810</v>
       </c>
@@ -8710,8 +9286,11 @@
       <c r="J183" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="20">
+      <c r="K183" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="20">
       <c r="A184" s="1">
         <v>3809</v>
       </c>
@@ -8730,8 +9309,11 @@
       <c r="J184" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="20">
+      <c r="K184" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="20">
       <c r="A185" s="1">
         <v>3808</v>
       </c>
@@ -8750,8 +9332,11 @@
       <c r="J185" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="20">
+      <c r="K185" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="20">
       <c r="A186" s="1">
         <v>928</v>
       </c>
@@ -8770,8 +9355,11 @@
       <c r="J186" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="20">
+      <c r="K186" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="20">
       <c r="A187" s="1">
         <v>927</v>
       </c>
@@ -8790,8 +9378,11 @@
       <c r="J187" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="20">
+      <c r="K187" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="20">
       <c r="A188" s="1">
         <v>926</v>
       </c>
@@ -8810,8 +9401,11 @@
       <c r="J188" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="20">
+      <c r="K188" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="20">
       <c r="A189" s="1">
         <v>3768</v>
       </c>
@@ -8830,8 +9424,11 @@
       <c r="J189" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="20">
+      <c r="K189" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="20">
       <c r="A190" s="1">
         <v>924</v>
       </c>
@@ -8850,8 +9447,11 @@
       <c r="J190" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="20">
+      <c r="K190" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="20">
       <c r="A191" s="1">
         <v>3849</v>
       </c>
@@ -8870,8 +9470,11 @@
       <c r="J191" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="20">
+      <c r="K191" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="20">
       <c r="A192" s="1">
         <v>3848</v>
       </c>
@@ -8890,8 +9493,11 @@
       <c r="J192" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="20">
+      <c r="K192" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="20">
       <c r="A193" s="1">
         <v>3847</v>
       </c>
@@ -8910,8 +9516,11 @@
       <c r="J193" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="20">
+      <c r="K193" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="20">
       <c r="A194" s="1">
         <v>964</v>
       </c>
@@ -8930,8 +9539,11 @@
       <c r="J194" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="20">
+      <c r="K194" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="20">
       <c r="A195" s="1">
         <v>959</v>
       </c>
@@ -8950,8 +9562,11 @@
       <c r="J195" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="20">
+      <c r="K195" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="20">
       <c r="A196" s="1">
         <v>958</v>
       </c>
@@ -8970,8 +9585,11 @@
       <c r="J196" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="20">
+      <c r="K196" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="20">
       <c r="A197" s="1">
         <v>3812</v>
       </c>
@@ -8990,8 +9608,11 @@
       <c r="J197" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="20">
+      <c r="K197" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="20">
       <c r="A198" s="1">
         <v>3851</v>
       </c>
@@ -9010,8 +9631,11 @@
       <c r="J198" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="20">
+      <c r="K198" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="20">
       <c r="A199" s="1">
         <v>943</v>
       </c>
@@ -9030,8 +9654,11 @@
       <c r="J199" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="20">
+      <c r="K199" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="20">
       <c r="A200" s="1">
         <v>3850</v>
       </c>
@@ -9050,8 +9677,11 @@
       <c r="J200" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="20">
+      <c r="K200" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="20">
       <c r="A201" s="1">
         <v>993</v>
       </c>
@@ -9070,8 +9700,11 @@
       <c r="J201" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="20">
+      <c r="K201" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="20">
       <c r="A202" s="1">
         <v>992</v>
       </c>
@@ -9090,8 +9723,11 @@
       <c r="J202" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="20">
+      <c r="K202" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="20">
       <c r="A203" s="1">
         <v>3814</v>
       </c>
@@ -9110,8 +9746,11 @@
       <c r="J203" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="20">
+      <c r="K203" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="20">
       <c r="A204" s="1">
         <v>991</v>
       </c>
@@ -9130,8 +9769,11 @@
       <c r="J204" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="20">
+      <c r="K204" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="20">
       <c r="A205" s="1">
         <v>966</v>
       </c>
@@ -9150,8 +9792,11 @@
       <c r="J205" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="20">
+      <c r="K205" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="20">
       <c r="A206" s="1">
         <v>564</v>
       </c>
@@ -9170,8 +9815,11 @@
       <c r="J206" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="20">
+      <c r="K206" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="20">
       <c r="A207" s="1">
         <v>563</v>
       </c>
@@ -9190,8 +9838,11 @@
       <c r="J207" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="20">
+      <c r="K207" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="20">
       <c r="A208" s="1">
         <v>562</v>
       </c>
@@ -9210,8 +9861,11 @@
       <c r="J208" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="20">
+      <c r="K208" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="20">
       <c r="A209" s="1">
         <v>505</v>
       </c>
@@ -9230,8 +9884,11 @@
       <c r="J209" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="20">
+      <c r="K209" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="20">
       <c r="A210" s="1">
         <v>3817</v>
       </c>
@@ -9250,8 +9907,11 @@
       <c r="J210" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="20">
+      <c r="K210" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="20">
       <c r="A211" s="1">
         <v>3816</v>
       </c>
@@ -9270,8 +9930,11 @@
       <c r="J211" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="20">
+      <c r="K211" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="20">
       <c r="A212" s="1">
         <v>163</v>
       </c>
@@ -9290,8 +9953,11 @@
       <c r="J212" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="20">
+      <c r="K212" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="20">
       <c r="A213" s="1">
         <v>3815</v>
       </c>
@@ -9310,8 +9976,11 @@
       <c r="J213" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="20">
+      <c r="K213" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="20">
       <c r="A214" s="1">
         <v>561</v>
       </c>
@@ -9330,8 +9999,11 @@
       <c r="J214" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="20">
+      <c r="K214" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="20">
       <c r="A215" s="1">
         <v>3813</v>
       </c>
@@ -9350,8 +10022,11 @@
       <c r="J215" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="20">
+      <c r="K215" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="20">
       <c r="A216" s="1">
         <v>503</v>
       </c>
@@ -9370,8 +10045,11 @@
       <c r="J216" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="20">
+      <c r="K216" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="20">
       <c r="A217" s="1">
         <v>502</v>
       </c>
@@ -9390,8 +10068,11 @@
       <c r="J217" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="20">
+      <c r="K217" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="20">
       <c r="A218" s="1">
         <v>501</v>
       </c>
@@ -9410,8 +10091,11 @@
       <c r="J218" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="20">
+      <c r="K218" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="20">
       <c r="A219" s="1">
         <v>500</v>
       </c>
@@ -9430,8 +10114,11 @@
       <c r="J219" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="20">
+      <c r="K219" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="20">
       <c r="A220" s="1">
         <v>955</v>
       </c>
@@ -9450,8 +10137,11 @@
       <c r="J220" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="20">
+      <c r="K220" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="20">
       <c r="A221" s="1">
         <v>13</v>
       </c>
@@ -9470,8 +10160,11 @@
       <c r="J221" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="20">
+      <c r="K221" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="20">
       <c r="A222" s="1">
         <v>954</v>
       </c>
@@ -9490,8 +10183,11 @@
       <c r="J222" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="20">
+      <c r="K222" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="20">
       <c r="A223" s="1">
         <v>913</v>
       </c>
@@ -9510,8 +10206,11 @@
       <c r="J223" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="20">
+      <c r="K223" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="20">
       <c r="A224" s="1">
         <v>912</v>
       </c>
@@ -9530,8 +10229,11 @@
       <c r="J224" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="20">
+      <c r="K224" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="20">
       <c r="A225" s="1">
         <v>911</v>
       </c>
@@ -9550,8 +10252,11 @@
       <c r="J225" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="20">
+      <c r="K225" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="20">
       <c r="A226" s="1">
         <v>910</v>
       </c>
@@ -9570,8 +10275,11 @@
       <c r="J226" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="20">
+      <c r="K226" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="20">
       <c r="A227" s="1">
         <v>909</v>
       </c>
@@ -9590,8 +10298,11 @@
       <c r="J227" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="20">
+      <c r="K227" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="20">
       <c r="A228" s="1">
         <v>3818</v>
       </c>
@@ -9610,8 +10321,11 @@
       <c r="J228" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="20">
+      <c r="K228" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="20">
       <c r="A229" s="1">
         <v>369</v>
       </c>
@@ -9630,8 +10344,11 @@
       <c r="J229" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="20">
+      <c r="K229" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="20">
       <c r="A230" s="1">
         <v>368</v>
       </c>
@@ -9650,8 +10367,11 @@
       <c r="J230" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="20">
+      <c r="K230" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="20">
       <c r="A231" s="1">
         <v>320</v>
       </c>
@@ -9670,8 +10390,11 @@
       <c r="J231" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="20">
+      <c r="K231" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="20">
       <c r="A232" s="1">
         <v>367</v>
       </c>
@@ -9690,8 +10413,11 @@
       <c r="J232" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="20">
+      <c r="K232" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="20">
       <c r="A233" s="1">
         <v>319</v>
       </c>
@@ -9710,8 +10436,11 @@
       <c r="J233" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="20">
+      <c r="K233" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="20">
       <c r="A234" s="1">
         <v>890</v>
       </c>
@@ -9730,8 +10459,11 @@
       <c r="J234" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="20">
+      <c r="K234" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="20">
       <c r="A235" s="1">
         <v>164</v>
       </c>
@@ -9750,8 +10482,11 @@
       <c r="J235" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="20">
+      <c r="K235" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="20">
       <c r="A236" s="1">
         <v>989</v>
       </c>
@@ -9770,8 +10505,11 @@
       <c r="J236" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="20">
+      <c r="K236" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="20">
       <c r="A237" s="1">
         <v>988</v>
       </c>
@@ -9790,8 +10528,11 @@
       <c r="J237" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="20">
+      <c r="K237" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="20">
       <c r="A238" s="1">
         <v>987</v>
       </c>
@@ -9810,8 +10551,11 @@
       <c r="J238" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="20">
+      <c r="K238" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="20">
       <c r="A239" s="1">
         <v>986</v>
       </c>
@@ -9830,8 +10574,11 @@
       <c r="J239" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="20">
+      <c r="K239" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="20">
       <c r="A240" s="1">
         <v>772</v>
       </c>
@@ -9850,8 +10597,11 @@
       <c r="J240" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="20">
+      <c r="K240" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="20">
       <c r="A241" s="1">
         <v>3348</v>
       </c>
@@ -9870,8 +10620,11 @@
       <c r="J241" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="20">
+      <c r="K241" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="20">
       <c r="A242" s="1">
         <v>3347</v>
       </c>
@@ -9890,8 +10643,11 @@
       <c r="J242" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="20">
+      <c r="K242" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="20">
       <c r="A243" s="1">
         <v>3346</v>
       </c>
@@ -9910,8 +10666,11 @@
       <c r="J243" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="20">
+      <c r="K243" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="20">
       <c r="A244" s="1">
         <v>3345</v>
       </c>
@@ -9930,8 +10689,11 @@
       <c r="J244" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="20">
+      <c r="K244" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="20">
       <c r="A245" s="1">
         <v>895</v>
       </c>
@@ -9950,8 +10712,11 @@
       <c r="J245" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="20">
+      <c r="K245" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="20">
       <c r="A246" s="1">
         <v>14</v>
       </c>
@@ -9970,8 +10735,11 @@
       <c r="J246" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="20">
+      <c r="K246" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="20">
       <c r="A247" s="1">
         <v>15</v>
       </c>
@@ -9990,8 +10758,11 @@
       <c r="J247" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="20">
+      <c r="K247" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="20">
       <c r="A248" s="1">
         <v>16</v>
       </c>
@@ -10010,8 +10781,11 @@
       <c r="J248" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="20">
+      <c r="K248" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="20">
       <c r="A249" s="1">
         <v>704</v>
       </c>
@@ -10030,8 +10804,11 @@
       <c r="J249" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="20">
+      <c r="K249" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="20">
       <c r="A250" s="1">
         <v>703</v>
       </c>
@@ -10050,8 +10827,11 @@
       <c r="J250" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" ht="20">
+      <c r="K250" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="20">
       <c r="A251" s="1">
         <v>702</v>
       </c>
@@ -10070,8 +10850,11 @@
       <c r="J251" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" ht="20">
+      <c r="K251" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="20">
       <c r="A252" s="1">
         <v>701</v>
       </c>
@@ -10090,8 +10873,11 @@
       <c r="J252" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" ht="20">
+      <c r="K252" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="20">
       <c r="A253" s="1">
         <v>700</v>
       </c>
@@ -10110,8 +10896,11 @@
       <c r="J253" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" ht="20">
+      <c r="K253" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="20">
       <c r="A254" s="1">
         <v>699</v>
       </c>
@@ -10130,8 +10919,11 @@
       <c r="J254" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="20">
+      <c r="K254" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="20">
       <c r="A255" s="1">
         <v>907</v>
       </c>
@@ -10150,8 +10942,11 @@
       <c r="J255" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="20">
+      <c r="K255" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="20">
       <c r="A256" s="1">
         <v>906</v>
       </c>
@@ -10170,8 +10965,11 @@
       <c r="J256" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="20">
+      <c r="K256" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="20">
       <c r="A257" s="1">
         <v>905</v>
       </c>
@@ -10190,8 +10988,11 @@
       <c r="J257" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="20">
+      <c r="K257" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="20">
       <c r="A258" s="1">
         <v>904</v>
       </c>
@@ -10210,8 +11011,11 @@
       <c r="J258" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="20">
+      <c r="K258" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="20">
       <c r="A259" s="1">
         <v>472</v>
       </c>
@@ -10230,8 +11034,11 @@
       <c r="J259" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" ht="20">
+      <c r="K259" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="20">
       <c r="A260" s="1">
         <v>471</v>
       </c>
@@ -10250,8 +11057,11 @@
       <c r="J260" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" ht="20">
+      <c r="K260" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="20">
       <c r="A261" s="1">
         <v>470</v>
       </c>
@@ -10270,8 +11080,11 @@
       <c r="J261" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" ht="20">
+      <c r="K261" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="20">
       <c r="A262" s="1">
         <v>469</v>
       </c>
@@ -10290,8 +11103,11 @@
       <c r="J262" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" ht="20">
+      <c r="K262" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="20">
       <c r="A263" s="1">
         <v>937</v>
       </c>
@@ -10310,8 +11126,11 @@
       <c r="J263" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" ht="20">
+      <c r="K263" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="20">
       <c r="A264" s="1">
         <v>936</v>
       </c>
@@ -10330,8 +11149,11 @@
       <c r="J264" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" ht="20">
+      <c r="K264" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="20">
       <c r="A265" s="1">
         <v>935</v>
       </c>
@@ -10350,8 +11172,11 @@
       <c r="J265" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" ht="20">
+      <c r="K265" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="20">
       <c r="A266" s="1">
         <v>934</v>
       </c>
@@ -10370,8 +11195,11 @@
       <c r="J266" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" ht="20">
+      <c r="K266" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="20">
       <c r="A267" s="1">
         <v>3364</v>
       </c>
@@ -10390,8 +11218,11 @@
       <c r="J267" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" ht="20">
+      <c r="K267" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="20">
       <c r="A268" s="1">
         <v>3363</v>
       </c>
@@ -10410,8 +11241,11 @@
       <c r="J268" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" ht="20">
+      <c r="K268" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="20">
       <c r="A269" s="1">
         <v>3362</v>
       </c>
@@ -10430,8 +11264,11 @@
       <c r="J269" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" ht="20">
+      <c r="K269" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="20">
       <c r="A270" s="1">
         <v>10</v>
       </c>
@@ -10450,8 +11287,11 @@
       <c r="J270" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" ht="20">
+      <c r="K270" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="20">
       <c r="A271" s="1">
         <v>11</v>
       </c>
@@ -10470,8 +11310,11 @@
       <c r="J271" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="20">
+      <c r="K271" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="20">
       <c r="A272" s="1">
         <v>12</v>
       </c>
@@ -10490,8 +11333,11 @@
       <c r="J272" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="20">
+      <c r="K272" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="20">
       <c r="A273" s="1">
         <v>165</v>
       </c>
@@ -10510,8 +11356,11 @@
       <c r="J273" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="20">
+      <c r="K273" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="20">
       <c r="A274" s="1">
         <v>3819</v>
       </c>
@@ -10530,8 +11379,11 @@
       <c r="J274" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" ht="20">
+      <c r="K274" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="20">
       <c r="A275" s="1">
         <v>166</v>
       </c>
@@ -10550,8 +11402,11 @@
       <c r="J275" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="20">
+      <c r="K275" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="20">
       <c r="A276" s="1">
         <v>581</v>
       </c>
@@ -10570,8 +11425,11 @@
       <c r="J276" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" ht="20">
+      <c r="K276" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="20">
       <c r="A277" s="1">
         <v>580</v>
       </c>
@@ -10590,8 +11448,11 @@
       <c r="J277" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" ht="20">
+      <c r="K277" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="20">
       <c r="A278" s="1">
         <v>523</v>
       </c>
@@ -10610,8 +11471,11 @@
       <c r="J278" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" ht="20">
+      <c r="K278" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="20">
       <c r="A279" s="1">
         <v>3053</v>
       </c>
@@ -10630,8 +11494,11 @@
       <c r="J279" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" ht="20">
+      <c r="K279" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="20">
       <c r="A280" s="1">
         <v>3052</v>
       </c>
@@ -10650,8 +11517,11 @@
       <c r="J280" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" ht="20">
+      <c r="K280" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="20">
       <c r="A281" s="1">
         <v>3051</v>
       </c>
@@ -10670,8 +11540,11 @@
       <c r="J281" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="20">
+      <c r="K281" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="20">
       <c r="A282" s="1">
         <v>524</v>
       </c>
@@ -10690,8 +11563,11 @@
       <c r="J282" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" ht="20">
+      <c r="K282" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="20">
       <c r="A283" s="1">
         <v>522</v>
       </c>
@@ -10710,8 +11586,11 @@
       <c r="J283" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="20">
+      <c r="K283" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="20">
       <c r="A284" s="1">
         <v>520</v>
       </c>
@@ -10730,8 +11609,11 @@
       <c r="J284" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" ht="20">
+      <c r="K284" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="20">
       <c r="A285" s="1">
         <v>734</v>
       </c>
@@ -10750,8 +11632,11 @@
       <c r="J285" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" ht="20">
+      <c r="K285" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="20">
       <c r="A286" s="1">
         <v>733</v>
       </c>
@@ -10770,8 +11655,11 @@
       <c r="J286" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" ht="20">
+      <c r="K286" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="20">
       <c r="A287" s="1">
         <v>732</v>
       </c>
@@ -10790,8 +11678,11 @@
       <c r="J287" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="20">
+      <c r="K287" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="20">
       <c r="A288" s="1">
         <v>730</v>
       </c>
@@ -10810,8 +11701,11 @@
       <c r="J288" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="20">
+      <c r="K288" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="20">
       <c r="A289" s="1">
         <v>3013</v>
       </c>
@@ -10830,8 +11724,11 @@
       <c r="J289" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="20">
+      <c r="K289" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="20">
       <c r="A290" s="1">
         <v>3012</v>
       </c>
@@ -10850,8 +11747,11 @@
       <c r="J290" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="20">
+      <c r="K290" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="20">
       <c r="A291" s="1">
         <v>3011</v>
       </c>
@@ -10870,8 +11770,11 @@
       <c r="J291" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="20">
+      <c r="K291" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="20">
       <c r="A292" s="1">
         <v>372</v>
       </c>
@@ -10890,8 +11793,11 @@
       <c r="J292" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="20">
+      <c r="K292" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="20">
       <c r="A293" s="1">
         <v>371</v>
       </c>
@@ -10910,8 +11816,11 @@
       <c r="J293" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="20">
+      <c r="K293" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="20">
       <c r="A294" s="1">
         <v>370</v>
       </c>
@@ -10930,8 +11839,11 @@
       <c r="J294" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="20">
+      <c r="K294" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="20">
       <c r="A295" s="1">
         <v>17</v>
       </c>
@@ -10950,8 +11862,11 @@
       <c r="J295" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" ht="20">
+      <c r="K295" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="20">
       <c r="A296" s="1">
         <v>18</v>
       </c>
@@ -10970,8 +11885,11 @@
       <c r="J296" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="20">
+      <c r="K296" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="20">
       <c r="A297" s="1">
         <v>834</v>
       </c>
@@ -10990,8 +11908,11 @@
       <c r="J297" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="20">
+      <c r="K297" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="20">
       <c r="A298" s="1">
         <v>833</v>
       </c>
@@ -11010,8 +11931,11 @@
       <c r="J298" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="20">
+      <c r="K298" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="20">
       <c r="A299" s="1">
         <v>832</v>
       </c>
@@ -11030,8 +11954,11 @@
       <c r="J299" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="20">
+      <c r="K299" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="20">
       <c r="A300" s="1">
         <v>831</v>
       </c>
@@ -11050,8 +11977,11 @@
       <c r="J300" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="20">
+      <c r="K300" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="20">
       <c r="A301" s="1">
         <v>830</v>
       </c>
@@ -11070,8 +12000,11 @@
       <c r="J301" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="20">
+      <c r="K301" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="20">
       <c r="A302" s="1">
         <v>829</v>
       </c>
@@ -11090,8 +12023,11 @@
       <c r="J302" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="20">
+      <c r="K302" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="20">
       <c r="A303" s="1">
         <v>746</v>
       </c>
@@ -11110,8 +12046,11 @@
       <c r="J303" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" ht="20">
+      <c r="K303" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="20">
       <c r="A304" s="1">
         <v>677</v>
       </c>
@@ -11130,8 +12069,11 @@
       <c r="J304" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" ht="20">
+      <c r="K304" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="20">
       <c r="A305" s="1">
         <v>422</v>
       </c>
@@ -11150,8 +12092,11 @@
       <c r="J305" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" ht="20">
+      <c r="K305" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="20">
       <c r="A306" s="1">
         <v>3828</v>
       </c>
@@ -11170,8 +12115,11 @@
       <c r="J306" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" ht="20">
+      <c r="K306" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="20">
       <c r="A307" s="1">
         <v>420</v>
       </c>
@@ -11190,8 +12138,11 @@
       <c r="J307" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" ht="20">
+      <c r="K307" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="20">
       <c r="A308" s="1">
         <v>869</v>
       </c>
@@ -11210,8 +12161,11 @@
       <c r="J308" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" ht="20">
+      <c r="K308" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="20">
       <c r="A309" s="1">
         <v>613</v>
       </c>
@@ -11230,8 +12184,11 @@
       <c r="J309" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" ht="20">
+      <c r="K309" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="20">
       <c r="A310" s="1">
         <v>612</v>
       </c>
@@ -11250,8 +12207,11 @@
       <c r="J310" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" ht="20">
+      <c r="K310" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="20">
       <c r="A311" s="1">
         <v>611</v>
       </c>
@@ -11270,8 +12230,11 @@
       <c r="J311" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" ht="20">
+      <c r="K311" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="20">
       <c r="A312" s="1">
         <v>610</v>
       </c>
@@ -11290,8 +12253,11 @@
       <c r="J312" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" ht="20">
+      <c r="K312" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="20">
       <c r="A313" s="1">
         <v>3047</v>
       </c>
@@ -11310,8 +12276,11 @@
       <c r="J313" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" ht="20">
+      <c r="K313" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="20">
       <c r="A314" s="1">
         <v>3046</v>
       </c>
@@ -11330,8 +12299,11 @@
       <c r="J314" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" ht="20">
+      <c r="K314" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="20">
       <c r="A315" s="1">
         <v>3045</v>
       </c>
@@ -11350,8 +12322,11 @@
       <c r="J315" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" ht="20">
+      <c r="K315" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="20">
       <c r="A316" s="1">
         <v>167</v>
       </c>
@@ -11370,8 +12345,11 @@
       <c r="J316" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" ht="20">
+      <c r="K316" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="20">
       <c r="A317" s="1">
         <v>676</v>
       </c>
@@ -11390,8 +12368,11 @@
       <c r="J317" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" ht="20">
+      <c r="K317" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="20">
       <c r="A318" s="1">
         <v>729</v>
       </c>
@@ -11410,8 +12391,11 @@
       <c r="J318" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" ht="20">
+      <c r="K318" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="20">
       <c r="A319" s="1">
         <v>680</v>
       </c>
@@ -11430,8 +12414,11 @@
       <c r="J319" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" ht="20">
+      <c r="K319" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" ht="20">
       <c r="A320" s="1">
         <v>3829</v>
       </c>
@@ -11450,8 +12437,11 @@
       <c r="J320" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="20">
+      <c r="K320" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" ht="20">
       <c r="A321" s="1">
         <v>3822</v>
       </c>
@@ -11470,8 +12460,11 @@
       <c r="J321" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" ht="20">
+      <c r="K321" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" ht="20">
       <c r="A322" s="1">
         <v>3821</v>
       </c>
@@ -11490,8 +12483,11 @@
       <c r="J322" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" ht="20">
+      <c r="K322" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="20">
       <c r="A323" s="1">
         <v>3820</v>
       </c>
@@ -11510,8 +12506,11 @@
       <c r="J323" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" ht="20">
+      <c r="K323" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="20">
       <c r="A324" s="1">
         <v>3852</v>
       </c>
@@ -11530,8 +12529,11 @@
       <c r="J324" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" ht="20">
+      <c r="K324" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="20">
       <c r="A325" s="1">
         <v>728</v>
       </c>
@@ -11550,8 +12552,11 @@
       <c r="J325" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" ht="20">
+      <c r="K325" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" ht="20">
       <c r="A326" s="1">
         <v>783</v>
       </c>
@@ -11570,8 +12575,11 @@
       <c r="J326" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" ht="20">
+      <c r="K326" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="20">
       <c r="A327" s="1">
         <v>782</v>
       </c>
@@ -11590,8 +12598,11 @@
       <c r="J327" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" ht="20">
+      <c r="K327" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="20">
       <c r="A328" s="1">
         <v>780</v>
       </c>
@@ -11610,8 +12621,11 @@
       <c r="J328" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" ht="20">
+      <c r="K328" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" ht="20">
       <c r="A329" s="1">
         <v>3823</v>
       </c>
@@ -11630,8 +12644,11 @@
       <c r="J329" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" ht="20">
+      <c r="K329" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="20">
       <c r="A330" s="1">
         <v>3855</v>
       </c>
@@ -11650,8 +12667,11 @@
       <c r="J330" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" ht="20">
+      <c r="K330" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="20">
       <c r="A331" s="1">
         <v>19</v>
       </c>
@@ -11670,8 +12690,11 @@
       <c r="J331" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="20">
+      <c r="K331" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="20">
       <c r="A332" s="1">
         <v>3854</v>
       </c>
@@ -11690,8 +12713,11 @@
       <c r="J332" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" ht="20">
+      <c r="K332" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="20">
       <c r="A333" s="1">
         <v>3853</v>
       </c>
@@ -11710,8 +12736,11 @@
       <c r="J333" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="20">
+      <c r="K333" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="20">
       <c r="A334" s="1">
         <v>3827</v>
       </c>
@@ -11730,8 +12759,11 @@
       <c r="J334" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" ht="20">
+      <c r="K334" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="20">
       <c r="A335" s="1">
         <v>977</v>
       </c>
@@ -11750,8 +12782,11 @@
       <c r="J335" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="20">
+      <c r="K335" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="20">
       <c r="A336" s="1">
         <v>976</v>
       </c>
@@ -11770,8 +12805,11 @@
       <c r="J336" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" ht="20">
+      <c r="K336" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="20">
       <c r="A337" s="1">
         <v>3826</v>
       </c>
@@ -11790,8 +12828,11 @@
       <c r="J337" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" ht="20">
+      <c r="K337" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="20">
       <c r="A338" s="1">
         <v>975</v>
       </c>
@@ -11810,8 +12851,11 @@
       <c r="J338" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" ht="20">
+      <c r="K338" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="20">
       <c r="A339" s="1">
         <v>445</v>
       </c>
@@ -11830,8 +12874,11 @@
       <c r="J339" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" ht="20">
+      <c r="K339" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="20">
       <c r="A340" s="1">
         <v>307</v>
       </c>
@@ -11850,8 +12897,11 @@
       <c r="J340" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" ht="20">
+      <c r="K340" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="20">
       <c r="A341" s="1">
         <v>973</v>
       </c>
@@ -11870,8 +12920,11 @@
       <c r="J341" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" ht="20">
+      <c r="K341" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="20">
       <c r="A342" s="1">
         <v>444</v>
       </c>
@@ -11890,8 +12943,11 @@
       <c r="J342" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" ht="20">
+      <c r="K342" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="20">
       <c r="A343" s="1">
         <v>3078</v>
       </c>
@@ -11910,8 +12966,11 @@
       <c r="J343" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" ht="20">
+      <c r="K343" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="20">
       <c r="A344" s="1">
         <v>727</v>
       </c>
@@ -11930,8 +12989,11 @@
       <c r="J344" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" ht="20">
+      <c r="K344" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="20">
       <c r="A345" s="1">
         <v>726</v>
       </c>
@@ -11951,8 +13013,11 @@
       <c r="J345" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" ht="20">
+      <c r="K345" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="20">
       <c r="A346" s="1">
         <v>725</v>
       </c>
@@ -11972,8 +13037,11 @@
       <c r="J346" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" ht="20">
+      <c r="K346" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="20">
       <c r="A347" s="1">
         <v>972</v>
       </c>
@@ -11993,8 +13061,11 @@
       <c r="J347" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" ht="20">
+      <c r="K347" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="20">
       <c r="A348" s="1">
         <v>745</v>
       </c>
@@ -12014,8 +13085,11 @@
       <c r="J348" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" ht="20">
+      <c r="K348" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="20">
       <c r="A349" s="1">
         <v>744</v>
       </c>
@@ -12035,8 +13109,11 @@
       <c r="J349" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" ht="20">
+      <c r="K349" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="20">
       <c r="A350" s="1">
         <v>743</v>
       </c>
@@ -12056,8 +13133,11 @@
       <c r="J350" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" ht="20">
+      <c r="K350" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="20">
       <c r="A351" s="1">
         <v>742</v>
       </c>
@@ -12077,8 +13157,11 @@
       <c r="J351" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" ht="20">
+      <c r="K351" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="20">
       <c r="A352" s="1">
         <v>741</v>
       </c>
@@ -12098,8 +13181,11 @@
       <c r="J352" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="20">
+      <c r="K352" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="20">
       <c r="A353" s="1">
         <v>740</v>
       </c>
@@ -12119,8 +13205,11 @@
       <c r="J353" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="20">
+      <c r="K353" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="20">
       <c r="A354" s="1">
         <v>970</v>
       </c>
@@ -12140,8 +13229,11 @@
       <c r="J354" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="20">
+      <c r="K354" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="20">
       <c r="A355" s="1">
         <v>947</v>
       </c>
@@ -12161,8 +13253,11 @@
       <c r="J355" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="20">
+      <c r="K355" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="20">
       <c r="A356" s="1">
         <v>946</v>
       </c>
@@ -12182,8 +13277,11 @@
       <c r="J356" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="20">
+      <c r="K356" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" ht="20">
       <c r="A357" s="1">
         <v>900</v>
       </c>
@@ -12203,8 +13301,11 @@
       <c r="J357" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="20">
+      <c r="K357" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="20">
       <c r="A358" s="1">
         <v>967</v>
       </c>
@@ -12224,8 +13325,11 @@
       <c r="J358" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" ht="20">
+      <c r="K358" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="20">
       <c r="A359" s="1">
         <v>3824</v>
       </c>
@@ -12245,8 +13349,11 @@
       <c r="J359" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="20">
+      <c r="K359" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="20">
       <c r="A360" s="1">
         <v>3341</v>
       </c>
@@ -12266,8 +13373,11 @@
       <c r="J360" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" ht="20">
+      <c r="K360" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="20">
       <c r="A361" s="1">
         <v>3340</v>
       </c>
@@ -12287,8 +13397,11 @@
       <c r="J361" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" ht="20">
+      <c r="K361" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="20">
       <c r="A362" s="1">
         <v>608</v>
       </c>
@@ -12308,8 +13421,11 @@
       <c r="J362" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" ht="20">
+      <c r="K362" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="20">
       <c r="A363" s="1">
         <v>606</v>
       </c>
@@ -12329,8 +13445,11 @@
       <c r="J363" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" ht="20">
+      <c r="K363" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="20">
       <c r="A364" s="1">
         <v>951</v>
       </c>
@@ -12350,8 +13469,11 @@
       <c r="J364" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" ht="20">
+      <c r="K364" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="20">
       <c r="A365" s="1">
         <v>3856</v>
       </c>
@@ -12371,8 +13493,11 @@
       <c r="J365" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" ht="20">
+      <c r="K365" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="20">
       <c r="A366" s="1">
         <v>722</v>
       </c>
@@ -12392,8 +13517,11 @@
       <c r="J366" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" ht="20">
+      <c r="K366" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="20">
       <c r="A367" s="1">
         <v>721</v>
       </c>
@@ -12413,8 +13541,11 @@
       <c r="J367" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" ht="20">
+      <c r="K367" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="20">
       <c r="A368" s="1">
         <v>720</v>
       </c>
@@ -12434,8 +13565,11 @@
       <c r="J368" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" ht="20">
+      <c r="K368" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="20">
       <c r="A369" s="1">
         <v>3825</v>
       </c>
@@ -12455,8 +13589,11 @@
       <c r="J369" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" ht="20">
+      <c r="K369" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="20">
       <c r="A370" s="1">
         <v>922</v>
       </c>
@@ -12476,8 +13613,11 @@
       <c r="J370" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" ht="20">
+      <c r="K370" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="20">
       <c r="A371" s="1">
         <v>921</v>
       </c>
@@ -12497,8 +13637,11 @@
       <c r="J371" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" ht="20">
+      <c r="K371" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="20">
       <c r="A372" s="1">
         <v>920</v>
       </c>
@@ -12518,8 +13661,11 @@
       <c r="J372" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" ht="20">
+      <c r="K372" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="20">
       <c r="A373" s="1">
         <v>919</v>
       </c>
@@ -12539,8 +13685,11 @@
       <c r="J373" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" ht="20">
+      <c r="K373" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="20">
       <c r="A374" s="1">
         <v>918</v>
       </c>
@@ -12560,8 +13709,11 @@
       <c r="J374" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" ht="20">
+      <c r="K374" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="20">
       <c r="A375" s="1">
         <v>3770</v>
       </c>
@@ -12581,8 +13733,11 @@
       <c r="J375" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" ht="20">
+      <c r="K375" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="20">
       <c r="A376" s="1">
         <v>945</v>
       </c>
@@ -12602,8 +13757,11 @@
       <c r="J376" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" ht="20">
+      <c r="K376" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="20">
       <c r="A377" s="1">
         <v>402</v>
       </c>
@@ -12623,8 +13781,11 @@
       <c r="J377" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" ht="20">
+      <c r="K377" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="20">
       <c r="A378" s="1">
         <v>3776</v>
       </c>
@@ -12644,8 +13805,11 @@
       <c r="J378" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" ht="20">
+      <c r="K378" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="20">
       <c r="A379" s="1">
         <v>301</v>
       </c>
@@ -12665,8 +13829,11 @@
       <c r="J379" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" ht="20">
+      <c r="K379" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="20">
       <c r="A380" s="1">
         <v>400</v>
       </c>
@@ -12686,8 +13853,11 @@
       <c r="J380" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" ht="20">
+      <c r="K380" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="20">
       <c r="A381" s="1">
         <v>300</v>
       </c>
@@ -12707,8 +13877,11 @@
       <c r="J381" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" ht="20">
+      <c r="K381" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="20">
       <c r="A382" s="1">
         <v>225</v>
       </c>
@@ -12728,8 +13901,11 @@
       <c r="J382" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" ht="20">
+      <c r="K382" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="20">
       <c r="A383" s="1">
         <v>224</v>
       </c>
@@ -12749,8 +13925,11 @@
       <c r="J383" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" ht="20">
+      <c r="K383" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="20">
       <c r="A384" s="1">
         <v>152</v>
       </c>
@@ -12770,8 +13949,11 @@
       <c r="J384" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" ht="20">
+      <c r="K384" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="20">
       <c r="A385" s="1">
         <v>223</v>
       </c>
@@ -12791,8 +13973,11 @@
       <c r="J385" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" ht="20">
+      <c r="K385" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="20">
       <c r="A386" s="1">
         <v>3722</v>
       </c>
@@ -12812,8 +13997,11 @@
       <c r="J386" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" ht="20">
+      <c r="K386" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="20">
       <c r="A387" s="1">
         <v>3721</v>
       </c>
@@ -12833,8 +14021,11 @@
       <c r="J387" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" ht="20">
+      <c r="K387" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="20">
       <c r="A388" s="1">
         <v>221</v>
       </c>
@@ -12854,8 +14045,11 @@
       <c r="J388" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" ht="20">
+      <c r="K388" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="20">
       <c r="A389" s="1">
         <v>948</v>
       </c>
@@ -12875,8 +14069,11 @@
       <c r="J389" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" ht="20">
+      <c r="K389" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="20">
       <c r="A390" s="1">
         <v>754</v>
       </c>
@@ -12896,8 +14093,11 @@
       <c r="J390" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" ht="20">
+      <c r="K390" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="20">
       <c r="A391" s="1">
         <v>3771</v>
       </c>
@@ -12916,8 +14116,11 @@
       <c r="J391" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" ht="20">
+      <c r="K391" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="20">
       <c r="A392" s="1">
         <v>758</v>
       </c>
@@ -12936,8 +14139,11 @@
       <c r="J392" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" ht="20">
+      <c r="K392" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="20">
       <c r="A393" s="1">
         <v>3778</v>
       </c>
@@ -12956,8 +14162,11 @@
       <c r="J393" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" ht="20">
+      <c r="K393" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="20">
       <c r="A394" s="1">
         <v>356</v>
       </c>
@@ -12976,8 +14185,11 @@
       <c r="J394" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" ht="20">
+      <c r="K394" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="20">
       <c r="A395" s="1">
         <v>3830</v>
       </c>
@@ -12996,8 +14208,11 @@
       <c r="J395" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" ht="20">
+      <c r="K395" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="20">
       <c r="A396" s="1">
         <v>355</v>
       </c>
@@ -13016,8 +14231,11 @@
       <c r="J396" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" ht="20">
+      <c r="K396" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="20">
       <c r="A397" s="1">
         <v>3777</v>
       </c>
@@ -13036,8 +14254,11 @@
       <c r="J397" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" ht="20">
+      <c r="K397" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="20">
       <c r="A398" s="1">
         <v>3779</v>
       </c>
@@ -13056,8 +14277,11 @@
       <c r="J398" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" ht="20">
+      <c r="K398" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" ht="20">
       <c r="A399" s="1">
         <v>3859</v>
       </c>
@@ -13076,8 +14300,11 @@
       <c r="J399" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" ht="20">
+      <c r="K399" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="20">
       <c r="A400" s="1">
         <v>3858</v>
       </c>
@@ -13096,8 +14323,11 @@
       <c r="J400" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" ht="20">
+      <c r="K400" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" ht="20">
       <c r="A401" s="1">
         <v>3857</v>
       </c>
@@ -13116,8 +14346,11 @@
       <c r="J401" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" ht="20">
+      <c r="K401" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="20">
       <c r="A402" s="1">
         <v>20</v>
       </c>
@@ -13136,8 +14369,11 @@
       <c r="J402" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" ht="20">
+      <c r="K402" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" ht="20">
       <c r="A403" s="1">
         <v>21</v>
       </c>
@@ -13156,8 +14392,11 @@
       <c r="J403" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" ht="20">
+      <c r="K403" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" ht="20">
       <c r="A404" s="1">
         <v>22</v>
       </c>
@@ -13176,8 +14415,11 @@
       <c r="J404" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" ht="20">
+      <c r="K404" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" ht="20">
       <c r="A405" s="1">
         <v>3774</v>
       </c>
@@ -13196,8 +14438,11 @@
       <c r="J405" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" ht="20">
+      <c r="K405" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="20">
       <c r="A406" s="1">
         <v>950</v>
       </c>
@@ -13216,8 +14461,11 @@
       <c r="J406" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" ht="20">
+      <c r="K406" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" ht="20">
       <c r="A407" s="1">
         <v>3064</v>
       </c>
@@ -13236,8 +14484,11 @@
       <c r="J407" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" ht="20">
+      <c r="K407" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" ht="20">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -13256,8 +14507,11 @@
       <c r="J408" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" ht="20">
+      <c r="K408" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="20">
       <c r="A409" s="1">
         <v>3772</v>
       </c>
@@ -13276,8 +14530,11 @@
       <c r="J409" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" ht="20">
+      <c r="K409" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" ht="20">
       <c r="A410" s="1">
         <v>632</v>
       </c>
@@ -13296,8 +14553,11 @@
       <c r="J410" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" ht="20">
+      <c r="K410" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" ht="20">
       <c r="A411" s="1">
         <v>453</v>
       </c>
@@ -13316,8 +14576,11 @@
       <c r="J411" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" ht="20">
+      <c r="K411" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" ht="20">
       <c r="A412" s="1">
         <v>452</v>
       </c>
@@ -13336,8 +14599,11 @@
       <c r="J412" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" ht="20">
+      <c r="K412" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" ht="20">
       <c r="A413" s="1">
         <v>451</v>
       </c>
@@ -13356,8 +14622,11 @@
       <c r="J413" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" ht="20">
+      <c r="K413" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" ht="20">
       <c r="A414" s="1">
         <v>3861</v>
       </c>
@@ -13376,8 +14645,11 @@
       <c r="J414" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" ht="20">
+      <c r="K414" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="20">
       <c r="A415" s="1">
         <v>3860</v>
       </c>
@@ -13396,8 +14668,11 @@
       <c r="J415" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" ht="20">
+      <c r="K415" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" ht="20">
       <c r="A416" s="1">
         <v>779</v>
       </c>
@@ -13416,8 +14691,11 @@
       <c r="J416" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" ht="20">
+      <c r="K416" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" ht="20">
       <c r="A417" s="1">
         <v>9</v>
       </c>
@@ -13436,8 +14714,11 @@
       <c r="J417" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" ht="20">
+      <c r="K417" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" ht="20">
       <c r="A418" s="1">
         <v>712</v>
       </c>
@@ -13456,8 +14737,11 @@
       <c r="J418" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" ht="20">
+      <c r="K418" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" ht="20">
       <c r="A419" s="1">
         <v>739</v>
       </c>
@@ -13476,8 +14760,11 @@
       <c r="J419" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" ht="20">
+      <c r="K419" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" ht="20">
       <c r="A420" s="1">
         <v>738</v>
       </c>
@@ -13496,8 +14783,11 @@
       <c r="J420" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" ht="20">
+      <c r="K420" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="20">
       <c r="A421" s="1">
         <v>437</v>
       </c>
@@ -13516,8 +14806,11 @@
       <c r="J421" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" ht="20">
+      <c r="K421" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" ht="20">
       <c r="A422" s="1">
         <v>436</v>
       </c>
@@ -13536,8 +14829,11 @@
       <c r="J422" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" ht="20">
+      <c r="K422" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" ht="20">
       <c r="A423" s="1">
         <v>435</v>
       </c>
@@ -13556,8 +14852,11 @@
       <c r="J423" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" ht="20">
+      <c r="K423" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" ht="20">
       <c r="A424" s="1">
         <v>434</v>
       </c>
@@ -13576,8 +14875,11 @@
       <c r="J424" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" ht="20">
+      <c r="K424" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="20">
       <c r="A425" s="1">
         <v>433</v>
       </c>
@@ -13596,8 +14898,11 @@
       <c r="J425" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" ht="20">
+      <c r="K425" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="20">
       <c r="A426" s="1">
         <v>801</v>
       </c>
@@ -13616,8 +14921,11 @@
       <c r="J426" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" ht="20">
+      <c r="K426" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="20">
       <c r="A427" s="1">
         <v>898</v>
       </c>
@@ -13636,8 +14944,11 @@
       <c r="J427" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" ht="20">
+      <c r="K427" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" ht="20">
       <c r="A428" s="1">
         <v>938</v>
       </c>
@@ -13656,8 +14967,11 @@
       <c r="J428" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" ht="20">
+      <c r="K428" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="20">
       <c r="A429" s="1">
         <v>3371</v>
       </c>
@@ -13676,8 +14990,11 @@
       <c r="J429" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" ht="20">
+      <c r="K429" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" ht="20">
       <c r="A430" s="1">
         <v>543</v>
       </c>
@@ -13696,8 +15013,11 @@
       <c r="J430" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" ht="20">
+      <c r="K430" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" ht="20">
       <c r="A431" s="1">
         <v>3864</v>
       </c>
@@ -13716,8 +15036,11 @@
       <c r="J431" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" ht="20">
+      <c r="K431" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="20">
       <c r="A432" s="1">
         <v>3863</v>
       </c>
@@ -13736,8 +15059,11 @@
       <c r="J432" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" ht="20">
+      <c r="K432" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="20">
       <c r="A433" s="1">
         <v>3862</v>
       </c>
@@ -13756,8 +15082,11 @@
       <c r="J433" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" ht="20">
+      <c r="K433" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" ht="20">
       <c r="A434" s="1">
         <v>3031</v>
       </c>
@@ -13776,8 +15105,11 @@
       <c r="J434" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" ht="20">
+      <c r="K434" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="20">
       <c r="A435" s="1">
         <v>3865</v>
       </c>
@@ -13796,8 +15128,11 @@
       <c r="J435" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" ht="20">
+      <c r="K435" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="20">
       <c r="A436" s="1" t="s">
         <v>484</v>
       </c>
@@ -13816,8 +15151,11 @@
       <c r="J436" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" ht="20">
+      <c r="K436" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" ht="20">
       <c r="A437" s="1">
         <v>822</v>
       </c>
@@ -13836,8 +15174,11 @@
       <c r="J437" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" ht="20">
+      <c r="K437" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="20">
       <c r="A438" s="1">
         <v>644</v>
       </c>
@@ -13856,8 +15197,11 @@
       <c r="J438" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" ht="20">
+      <c r="K438" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="20">
       <c r="A439" s="1">
         <v>642</v>
       </c>
@@ -13876,8 +15220,11 @@
       <c r="J439" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" ht="20">
+      <c r="K439" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" ht="20">
       <c r="A440" s="1">
         <v>640</v>
       </c>
@@ -13896,8 +15243,11 @@
       <c r="J440" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" ht="20">
+      <c r="K440" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="20">
       <c r="A441" s="1">
         <v>3787</v>
       </c>
@@ -13916,8 +15266,11 @@
       <c r="J441" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" ht="20">
+      <c r="K441" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" ht="20">
       <c r="A442" s="1">
         <v>3021</v>
       </c>
@@ -13936,8 +15289,11 @@
       <c r="J442" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" ht="20">
+      <c r="K442" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" ht="20">
       <c r="A443" s="1">
         <v>844</v>
       </c>
@@ -13956,8 +15312,11 @@
       <c r="J443" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" ht="20">
+      <c r="K443" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="20">
       <c r="A444" s="1">
         <v>3033</v>
       </c>
@@ -13976,8 +15335,11 @@
       <c r="J444" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" ht="20">
+      <c r="K444" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="20">
       <c r="A445" s="1">
         <v>3782</v>
       </c>
@@ -13996,8 +15358,11 @@
       <c r="J445" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" ht="20">
+      <c r="K445" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" ht="20">
       <c r="A446" s="1">
         <v>3032</v>
       </c>
@@ -14016,8 +15381,11 @@
       <c r="J446" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" ht="20">
+      <c r="K446" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" ht="20">
       <c r="A447" s="1">
         <v>3790</v>
       </c>
@@ -14036,8 +15404,11 @@
       <c r="J447" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" ht="20">
+      <c r="K447" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" ht="20">
       <c r="A448" s="1">
         <v>3781</v>
       </c>
@@ -14056,8 +15427,11 @@
       <c r="J448" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" ht="20">
+      <c r="K448" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" ht="20">
       <c r="A449" s="1">
         <v>5</v>
       </c>
@@ -14076,8 +15450,11 @@
       <c r="J449" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" ht="20">
+      <c r="K449" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" ht="20">
       <c r="A450" s="1">
         <v>6</v>
       </c>
@@ -14096,8 +15473,11 @@
       <c r="J450" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" ht="20">
+      <c r="K450" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="20">
       <c r="A451" s="1">
         <v>7</v>
       </c>
@@ -14116,8 +15496,11 @@
       <c r="J451" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" ht="20">
+      <c r="K451" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" ht="20">
       <c r="A452" s="1">
         <v>8</v>
       </c>
@@ -14136,8 +15519,11 @@
       <c r="J452" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" ht="20">
+      <c r="K452" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" ht="20">
       <c r="A453" s="1">
         <v>3866</v>
       </c>
@@ -14156,8 +15542,11 @@
       <c r="J453" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" ht="20">
+      <c r="K453" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" ht="20">
       <c r="A454" s="1">
         <v>842</v>
       </c>
@@ -14176,8 +15565,11 @@
       <c r="J454" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" ht="20">
+      <c r="K454" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" ht="20">
       <c r="A455" s="1">
         <v>841</v>
       </c>
@@ -14196,8 +15588,11 @@
       <c r="J455" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" ht="20">
+      <c r="K455" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="20">
       <c r="A456" s="1">
         <v>840</v>
       </c>
@@ -14216,8 +15611,11 @@
       <c r="J456" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" ht="20">
+      <c r="K456" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" ht="20">
       <c r="A457" s="1">
         <v>839</v>
       </c>
@@ -14236,8 +15634,11 @@
       <c r="J457" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" ht="20">
+      <c r="K457" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" ht="20">
       <c r="A458" s="1">
         <v>838</v>
       </c>
@@ -14256,8 +15657,11 @@
       <c r="J458" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" ht="20">
+      <c r="K458" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" ht="20">
       <c r="A459" s="1">
         <v>3072</v>
       </c>
@@ -14276,8 +15680,11 @@
       <c r="J459" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" ht="20">
+      <c r="K459" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" ht="20">
       <c r="A460" s="1">
         <v>647</v>
       </c>
@@ -14296,8 +15703,11 @@
       <c r="J460" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" ht="20">
+      <c r="K460" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" ht="20">
       <c r="A461" s="1">
         <v>3023</v>
       </c>
@@ -14316,8 +15726,11 @@
       <c r="J461" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" ht="20">
+      <c r="K461" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" ht="20">
       <c r="A462" s="1">
         <v>3022</v>
       </c>
@@ -14336,8 +15749,11 @@
       <c r="J462" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" ht="20">
+      <c r="K462" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" ht="20">
       <c r="A463" s="1">
         <v>3024</v>
       </c>
@@ -14356,8 +15772,11 @@
       <c r="J463" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" ht="20">
+      <c r="K463" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" ht="20">
       <c r="A464" s="1">
         <v>648</v>
       </c>
@@ -14376,8 +15795,11 @@
       <c r="J464" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" ht="20">
+      <c r="K464" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" ht="20">
       <c r="A465" s="1">
         <v>646</v>
       </c>
@@ -14396,8 +15818,11 @@
       <c r="J465" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" ht="20">
+      <c r="K465" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" ht="20">
       <c r="A466" s="1">
         <v>645</v>
       </c>
@@ -14416,8 +15841,11 @@
       <c r="J466" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" ht="20">
+      <c r="K466" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" ht="20">
       <c r="A467" s="1" t="s">
         <v>485</v>
       </c>
@@ -14436,8 +15864,11 @@
       <c r="J467" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" ht="20">
+      <c r="K467" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" ht="20">
       <c r="A468" s="1" t="s">
         <v>486</v>
       </c>
@@ -14456,8 +15887,11 @@
       <c r="J468" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" ht="20">
+      <c r="K468" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="20">
       <c r="A469" s="1">
         <v>762</v>
       </c>
@@ -14476,8 +15910,11 @@
       <c r="J469" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" ht="20">
+      <c r="K469" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" ht="20">
       <c r="A470" s="1">
         <v>415</v>
       </c>
@@ -14496,8 +15933,11 @@
       <c r="J470" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" ht="20">
+      <c r="K470" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" ht="20">
       <c r="A471" s="1">
         <v>318</v>
       </c>
@@ -14516,8 +15956,11 @@
       <c r="J471" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" ht="20">
+      <c r="K471" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" ht="20">
       <c r="A472" s="1">
         <v>414</v>
       </c>
@@ -14536,8 +15979,11 @@
       <c r="J472" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" ht="20">
+      <c r="K472" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" ht="20">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -14556,8 +16002,11 @@
       <c r="J473" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" ht="20">
+      <c r="K473" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="20">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -14576,8 +16025,11 @@
       <c r="J474" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" ht="20">
+      <c r="K474" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" ht="20">
       <c r="A475" s="1">
         <v>3</v>
       </c>
@@ -14596,8 +16048,11 @@
       <c r="J475" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" ht="20">
+      <c r="K475" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" ht="20">
       <c r="A476" s="1">
         <v>4</v>
       </c>
@@ -14616,8 +16071,11 @@
       <c r="J476" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" ht="20">
+      <c r="K476" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" ht="20">
       <c r="A477" s="1">
         <v>535</v>
       </c>
@@ -14636,8 +16094,11 @@
       <c r="J477" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" ht="20">
+      <c r="K477" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" ht="20">
       <c r="A478" s="1">
         <v>168</v>
       </c>
@@ -14656,8 +16117,11 @@
       <c r="J478" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" ht="20">
+      <c r="K478" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" ht="20">
       <c r="A479" s="1">
         <v>169</v>
       </c>
@@ -14676,8 +16140,11 @@
       <c r="J479" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" ht="20">
+      <c r="K479" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="20">
       <c r="A480" s="1">
         <v>317</v>
       </c>
@@ -14696,8 +16163,11 @@
       <c r="J480" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" ht="20">
+      <c r="K480" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="20">
       <c r="A481" s="1">
         <v>413</v>
       </c>
@@ -14716,8 +16186,11 @@
       <c r="J481" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" ht="20">
+      <c r="K481" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="20">
       <c r="A482" s="1">
         <v>3799</v>
       </c>
@@ -14736,8 +16209,11 @@
       <c r="J482" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" ht="20">
+      <c r="K482" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="20">
       <c r="A483" s="1">
         <v>310</v>
       </c>
@@ -14755,6 +16231,9 @@
       </c>
       <c r="J483" s="8" t="s">
         <v>561</v>
+      </c>
+      <c r="K483" s="5" t="s">
+        <v>1507</v>
       </c>
     </row>
   </sheetData>

--- a/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
+++ b/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahughes/GitHub/image2dmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2115842-3604-7042-961F-396F3E117EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A22E6F-5580-6449-9D19-C5C83EF9C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13480" yWindow="660" windowWidth="13140" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1509">
   <si>
     <t>bf9584</t>
   </si>
@@ -4535,6 +4535,36 @@
   </si>
   <si>
     <t>c75770</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>pinks</t>
+  </si>
+  <si>
+    <t>purples</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>greens</t>
+  </si>
+  <si>
+    <t>browns</t>
+  </si>
+  <si>
+    <t>yellows</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>greys</t>
+  </si>
+  <si>
+    <t>reds</t>
   </si>
 </sst>
 </file>
@@ -4957,9 +4987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J331" sqref="J331"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4972,7 +5002,8 @@
     <col min="6" max="6" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.3984375" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="8"/>
-    <col min="11" max="13" width="9" style="5"/>
+    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="5"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5007,7 +5038,9 @@
       <c r="J1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>1499</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
@@ -5042,6 +5075,9 @@
       <c r="J2" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="20">
       <c r="A3" s="1">
@@ -5062,6 +5098,9 @@
       <c r="J3" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="20">
       <c r="A4" s="1">
@@ -5082,6 +5121,9 @@
       <c r="J4" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="20">
       <c r="A5" s="1">
@@ -5102,6 +5144,9 @@
       <c r="J5" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="20">
       <c r="A6" s="1">
@@ -5122,6 +5167,9 @@
       <c r="J6" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K6" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="20">
       <c r="A7" s="1">
@@ -5142,6 +5190,9 @@
       <c r="J7" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K7" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="20">
       <c r="A8" s="1">
@@ -5162,6 +5213,9 @@
       <c r="J8" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K8" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="20">
       <c r="A9" s="1">
@@ -5182,6 +5236,9 @@
       <c r="J9" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K9" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="20">
       <c r="A10" s="1">
@@ -5202,6 +5259,9 @@
       <c r="J10" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K10" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="20">
       <c r="A11" s="1">
@@ -5222,6 +5282,9 @@
       <c r="J11" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K11" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="20">
       <c r="A12" s="1">
@@ -5242,6 +5305,9 @@
       <c r="J12" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K12" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="20">
       <c r="A13" s="1">
@@ -5262,6 +5328,9 @@
       <c r="J13" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K13" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="20">
       <c r="A14" s="1">
@@ -5282,6 +5351,9 @@
       <c r="J14" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K14" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="20">
       <c r="A15" s="1">
@@ -5302,6 +5374,9 @@
       <c r="J15" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="K15" s="5" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="20">
       <c r="A16" s="1">
@@ -5322,8 +5397,11 @@
       <c r="J16" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="20">
+      <c r="K16" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20">
       <c r="A17" s="1">
         <v>3831</v>
       </c>
@@ -5342,8 +5420,11 @@
       <c r="J17" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="20">
+      <c r="K17" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20">
       <c r="A18" s="1">
         <v>777</v>
       </c>
@@ -5362,8 +5443,11 @@
       <c r="J18" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="20">
+      <c r="K18" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20">
       <c r="A19" s="1">
         <v>3801</v>
       </c>
@@ -5394,8 +5478,11 @@
       <c r="J19" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20">
+      <c r="K19" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20">
       <c r="A20" s="1">
         <v>666</v>
       </c>
@@ -5414,8 +5501,11 @@
       <c r="J20" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="20">
+      <c r="K20" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20">
       <c r="A21" s="1">
         <v>321</v>
       </c>
@@ -5434,8 +5524,11 @@
       <c r="J21" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="20">
+      <c r="K21" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20">
       <c r="A22" s="1">
         <v>498</v>
       </c>
@@ -5454,8 +5547,11 @@
       <c r="J22" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="20">
+      <c r="K22" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20">
       <c r="A23" s="1">
         <v>816</v>
       </c>
@@ -5474,8 +5570,11 @@
       <c r="J23" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="20">
+      <c r="K23" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20">
       <c r="A24" s="1">
         <v>815</v>
       </c>
@@ -5494,8 +5593,11 @@
       <c r="J24" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="20">
+      <c r="K24" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20">
       <c r="A25" s="1">
         <v>814</v>
       </c>
@@ -5514,8 +5616,11 @@
       <c r="J25" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="20">
+      <c r="K25" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20">
       <c r="A26" s="1">
         <v>894</v>
       </c>
@@ -5534,8 +5639,11 @@
       <c r="J26" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="20">
+      <c r="K26" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20">
       <c r="A27" s="1">
         <v>893</v>
       </c>
@@ -5554,8 +5662,11 @@
       <c r="J27" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20">
+      <c r="K27" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20">
       <c r="A28" s="1">
         <v>892</v>
       </c>
@@ -5574,8 +5685,11 @@
       <c r="J28" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20">
+      <c r="K28" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20">
       <c r="A29" s="1">
         <v>891</v>
       </c>
@@ -5594,8 +5708,11 @@
       <c r="J29" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20">
+      <c r="K29" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20">
       <c r="A30" s="1">
         <v>818</v>
       </c>
@@ -5614,8 +5731,11 @@
       <c r="J30" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20">
+      <c r="K30" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20">
       <c r="A31" s="1">
         <v>957</v>
       </c>
@@ -5634,8 +5754,11 @@
       <c r="J31" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="20">
+      <c r="K31" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20">
       <c r="A32" s="1">
         <v>956</v>
       </c>
@@ -5654,8 +5777,11 @@
       <c r="J32" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="20">
+      <c r="K32" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20">
       <c r="A33" s="1">
         <v>3708</v>
       </c>
@@ -5674,8 +5800,11 @@
       <c r="J33" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="20">
+      <c r="K33" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20">
       <c r="A34" s="1">
         <v>3706</v>
       </c>
@@ -5694,8 +5823,11 @@
       <c r="J34" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="20">
+      <c r="K34" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20">
       <c r="A35" s="1">
         <v>3705</v>
       </c>
@@ -5714,8 +5846,11 @@
       <c r="J35" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="20">
+      <c r="K35" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20">
       <c r="A36" s="1">
         <v>963</v>
       </c>
@@ -5734,8 +5869,11 @@
       <c r="J36" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="20">
+      <c r="K36" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20">
       <c r="A37" s="1">
         <v>3716</v>
       </c>
@@ -5754,8 +5892,11 @@
       <c r="J37" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="20">
+      <c r="K37" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20">
       <c r="A38" s="1">
         <v>962</v>
       </c>
@@ -5774,8 +5915,11 @@
       <c r="J38" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="20">
+      <c r="K38" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20">
       <c r="A39" s="1">
         <v>961</v>
       </c>
@@ -5794,8 +5938,11 @@
       <c r="J39" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="20">
+      <c r="K39" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20">
       <c r="A40" s="1">
         <v>309</v>
       </c>
@@ -5814,8 +5961,11 @@
       <c r="J40" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="20">
+      <c r="K40" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20">
       <c r="A41" s="1">
         <v>819</v>
       </c>
@@ -5834,8 +5984,11 @@
       <c r="J41" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="20">
+      <c r="K41" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20">
       <c r="A42" s="1">
         <v>3326</v>
       </c>
@@ -5854,8 +6007,11 @@
       <c r="J42" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="20">
+      <c r="K42" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="20">
       <c r="A43" s="1">
         <v>899</v>
       </c>
@@ -5874,8 +6030,11 @@
       <c r="J43" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="20">
+      <c r="K43" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20">
       <c r="A44" s="1">
         <v>335</v>
       </c>
@@ -5894,8 +6053,11 @@
       <c r="J44" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="20">
+      <c r="K44" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20">
       <c r="A45" s="1">
         <v>326</v>
       </c>
@@ -5914,8 +6076,11 @@
       <c r="J45" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="20">
+      <c r="K45" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20">
       <c r="A46" s="1">
         <v>151</v>
       </c>
@@ -5934,8 +6099,11 @@
       <c r="J46" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="20">
+      <c r="K46" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20">
       <c r="A47" s="1">
         <v>3354</v>
       </c>
@@ -5954,8 +6122,11 @@
       <c r="J47" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="20">
+      <c r="K47" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20">
       <c r="A48" s="1">
         <v>3733</v>
       </c>
@@ -5974,8 +6145,11 @@
       <c r="J48" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="20">
+      <c r="K48" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20">
       <c r="A49" s="1">
         <v>3731</v>
       </c>
@@ -5994,8 +6168,11 @@
       <c r="J49" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="20">
+      <c r="K49" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20">
       <c r="A50" s="1">
         <v>3350</v>
       </c>
@@ -6014,8 +6191,11 @@
       <c r="J50" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="20">
+      <c r="K50" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20">
       <c r="A51" s="1">
         <v>150</v>
       </c>
@@ -6034,8 +6214,11 @@
       <c r="J51" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="20">
+      <c r="K51" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -6054,8 +6237,11 @@
       <c r="J52" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="20">
+      <c r="K52" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20">
       <c r="A53" s="1">
         <v>3689</v>
       </c>
@@ -6074,8 +6260,11 @@
       <c r="J53" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="20">
+      <c r="K53" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="20">
       <c r="A54" s="1">
         <v>3688</v>
       </c>
@@ -6094,8 +6283,11 @@
       <c r="J54" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="20">
+      <c r="K54" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20">
       <c r="A55" s="1">
         <v>3687</v>
       </c>
@@ -6114,8 +6306,11 @@
       <c r="J55" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="20">
+      <c r="K55" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="20">
       <c r="A56" s="1">
         <v>3803</v>
       </c>
@@ -6134,8 +6329,11 @@
       <c r="J56" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="20">
+      <c r="K56" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="20">
       <c r="A57" s="1">
         <v>3685</v>
       </c>
@@ -6154,8 +6352,11 @@
       <c r="J57" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="20">
+      <c r="K57" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20">
       <c r="A58" s="1">
         <v>605</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="J58" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="20">
+      <c r="K58" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="20">
       <c r="A59" s="1">
         <v>604</v>
       </c>
@@ -6194,8 +6398,11 @@
       <c r="J59" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="20">
+      <c r="K59" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="20">
       <c r="A60" s="1">
         <v>603</v>
       </c>
@@ -6214,8 +6421,11 @@
       <c r="J60" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="20">
+      <c r="K60" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="20">
       <c r="A61" s="1">
         <v>602</v>
       </c>
@@ -6234,8 +6444,11 @@
       <c r="J61" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="20">
+      <c r="K61" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="20">
       <c r="A62" s="1">
         <v>601</v>
       </c>
@@ -6254,8 +6467,11 @@
       <c r="J62" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="20">
+      <c r="K62" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20">
       <c r="A63" s="1">
         <v>600</v>
       </c>
@@ -6274,8 +6490,11 @@
       <c r="J63" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="20">
+      <c r="K63" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="20">
       <c r="A64" s="1">
         <v>3806</v>
       </c>
@@ -6294,8 +6513,11 @@
       <c r="J64" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="20">
+      <c r="K64" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20">
       <c r="A65" s="1">
         <v>3805</v>
       </c>
@@ -6326,8 +6548,11 @@
       <c r="J65" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="20">
+      <c r="K65" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20">
       <c r="A66" s="1">
         <v>3804</v>
       </c>
@@ -6346,8 +6571,11 @@
       <c r="J66" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="20">
+      <c r="K66" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20">
       <c r="A67" s="1">
         <v>3609</v>
       </c>
@@ -6366,8 +6594,11 @@
       <c r="J67" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="20">
+      <c r="K67" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20">
       <c r="A68" s="1">
         <v>3608</v>
       </c>
@@ -6386,8 +6617,11 @@
       <c r="J68" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="20">
+      <c r="K68" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20">
       <c r="A69" s="1">
         <v>3607</v>
       </c>
@@ -6406,8 +6640,11 @@
       <c r="J69" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="20">
+      <c r="K69" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20">
       <c r="A70" s="1">
         <v>718</v>
       </c>
@@ -6426,8 +6663,11 @@
       <c r="J70" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="20">
+      <c r="K70" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20">
       <c r="A71" s="1">
         <v>917</v>
       </c>
@@ -6446,8 +6686,11 @@
       <c r="J71" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="20">
+      <c r="K71" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="20">
       <c r="A72" s="1">
         <v>915</v>
       </c>
@@ -6466,8 +6709,11 @@
       <c r="J72" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="20">
+      <c r="K72" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20">
       <c r="A73" s="1">
         <v>33</v>
       </c>
@@ -6486,8 +6732,11 @@
       <c r="J73" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="20">
+      <c r="K73" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20">
       <c r="A74" s="1">
         <v>34</v>
       </c>
@@ -6506,8 +6755,11 @@
       <c r="J74" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="20">
+      <c r="K74" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="20">
       <c r="A75" s="1">
         <v>35</v>
       </c>
@@ -6526,8 +6778,11 @@
       <c r="J75" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="20">
+      <c r="K75" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="20">
       <c r="A76" s="1">
         <v>778</v>
       </c>
@@ -6546,8 +6801,11 @@
       <c r="J76" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="20">
+      <c r="K76" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="20">
       <c r="A77" s="1">
         <v>3727</v>
       </c>
@@ -6566,8 +6824,11 @@
       <c r="J77" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="20">
+      <c r="K77" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="20">
       <c r="A78" s="1">
         <v>316</v>
       </c>
@@ -6586,8 +6847,11 @@
       <c r="J78" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="20">
+      <c r="K78" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="20">
       <c r="A79" s="1">
         <v>3726</v>
       </c>
@@ -6606,8 +6870,11 @@
       <c r="J79" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="20">
+      <c r="K79" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="20">
       <c r="A80" s="1">
         <v>315</v>
       </c>
@@ -6626,8 +6893,11 @@
       <c r="J80" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="20">
+      <c r="K80" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="20">
       <c r="A81" s="1">
         <v>3802</v>
       </c>
@@ -6646,8 +6916,11 @@
       <c r="J81" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="20">
+      <c r="K81" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20">
       <c r="A82" s="1">
         <v>902</v>
       </c>
@@ -6666,8 +6939,11 @@
       <c r="J82" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="20">
+      <c r="K82" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="20">
       <c r="A83" s="1">
         <v>3836</v>
       </c>
@@ -6686,8 +6962,11 @@
       <c r="J83" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="20">
+      <c r="K83" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="20">
       <c r="A84" s="1">
         <v>3835</v>
       </c>
@@ -6706,8 +6985,11 @@
       <c r="J84" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="20">
+      <c r="K84" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20">
       <c r="A85" s="1">
         <v>3834</v>
       </c>
@@ -6726,8 +7008,11 @@
       <c r="J85" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="20">
+      <c r="K85" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="20">
       <c r="A86" s="1">
         <v>154</v>
       </c>
@@ -6746,8 +7031,11 @@
       <c r="J86" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="20">
+      <c r="K86" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="20">
       <c r="A87" s="1">
         <v>24</v>
       </c>
@@ -6766,8 +7054,11 @@
       <c r="J87" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="20">
+      <c r="K87" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="20">
       <c r="A88" s="1">
         <v>25</v>
       </c>
@@ -6786,8 +7077,11 @@
       <c r="J88" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="20">
+      <c r="K88" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="20">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -6818,8 +7112,11 @@
       <c r="J89" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="20">
+      <c r="K89" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20">
       <c r="A90" s="1">
         <v>211</v>
       </c>
@@ -6838,8 +7135,11 @@
       <c r="J90" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="20">
+      <c r="K90" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20">
       <c r="A91" s="1">
         <v>210</v>
       </c>
@@ -6858,8 +7158,11 @@
       <c r="J91" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="20">
+      <c r="K91" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20">
       <c r="A92" s="1">
         <v>209</v>
       </c>
@@ -6878,8 +7181,11 @@
       <c r="J92" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="20">
+      <c r="K92" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20">
       <c r="A93" s="1">
         <v>208</v>
       </c>
@@ -6898,8 +7204,11 @@
       <c r="J93" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="20">
+      <c r="K93" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="20">
       <c r="A94" s="1">
         <v>3837</v>
       </c>
@@ -6918,8 +7227,11 @@
       <c r="J94" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="20">
+      <c r="K94" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20">
       <c r="A95" s="1">
         <v>327</v>
       </c>
@@ -6938,8 +7250,11 @@
       <c r="J95" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="20">
+      <c r="K95" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20">
       <c r="A96" s="1">
         <v>153</v>
       </c>
@@ -6958,8 +7273,11 @@
       <c r="J96" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="20">
+      <c r="K96" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="20">
       <c r="A97" s="1">
         <v>554</v>
       </c>
@@ -6978,8 +7296,11 @@
       <c r="J97" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="20">
+      <c r="K97" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20">
       <c r="A98" s="1">
         <v>553</v>
       </c>
@@ -6998,8 +7319,11 @@
       <c r="J98" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="20">
+      <c r="K98" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20">
       <c r="A99" s="1">
         <v>552</v>
       </c>
@@ -7018,8 +7342,11 @@
       <c r="J99" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="20">
+      <c r="K99" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20">
       <c r="A100" s="1">
         <v>550</v>
       </c>
@@ -7038,8 +7365,11 @@
       <c r="J100" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="20">
+      <c r="K100" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20">
       <c r="A101" s="1">
         <v>3743</v>
       </c>
@@ -7058,8 +7388,11 @@
       <c r="J101" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="20">
+      <c r="K101" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20">
       <c r="A102" s="1">
         <v>3042</v>
       </c>
@@ -7078,8 +7411,11 @@
       <c r="J102" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="20">
+      <c r="K102" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20">
       <c r="A103" s="1">
         <v>3041</v>
       </c>
@@ -7098,8 +7434,11 @@
       <c r="J103" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="20">
+      <c r="K103" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20">
       <c r="A104" s="1">
         <v>3740</v>
       </c>
@@ -7118,8 +7457,11 @@
       <c r="J104" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="20">
+      <c r="K104" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="20">
       <c r="A105" s="1">
         <v>27</v>
       </c>
@@ -7138,8 +7480,11 @@
       <c r="J105" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="20">
+      <c r="K105" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20">
       <c r="A106" s="1">
         <v>28</v>
       </c>
@@ -7158,8 +7503,11 @@
       <c r="J106" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="20">
+      <c r="K106" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="20">
       <c r="A107" s="1">
         <v>29</v>
       </c>
@@ -7178,8 +7526,11 @@
       <c r="J107" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="20">
+      <c r="K107" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20">
       <c r="A108" s="1">
         <v>3747</v>
       </c>
@@ -7198,8 +7549,11 @@
       <c r="J108" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="20">
+      <c r="K108" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20">
       <c r="A109" s="1">
         <v>341</v>
       </c>
@@ -7218,8 +7572,11 @@
       <c r="J109" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="20">
+      <c r="K109" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20">
       <c r="A110" s="1">
         <v>156</v>
       </c>
@@ -7238,8 +7595,11 @@
       <c r="J110" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="20">
+      <c r="K110" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="20">
       <c r="A111" s="1">
         <v>340</v>
       </c>
@@ -7258,8 +7618,11 @@
       <c r="J111" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="20">
+      <c r="K111" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="20">
       <c r="A112" s="1">
         <v>155</v>
       </c>
@@ -7278,8 +7641,11 @@
       <c r="J112" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="20">
+      <c r="K112" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="20">
       <c r="A113" s="1">
         <v>3746</v>
       </c>
@@ -7298,8 +7664,11 @@
       <c r="J113" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="20">
+      <c r="K113" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20">
       <c r="A114" s="1">
         <v>333</v>
       </c>
@@ -7330,8 +7699,11 @@
       <c r="J114" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="20">
+      <c r="K114" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="20">
       <c r="A115" s="1">
         <v>30</v>
       </c>
@@ -7350,8 +7722,11 @@
       <c r="J115" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="20">
+      <c r="K115" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="20">
       <c r="A116" s="1">
         <v>31</v>
       </c>
@@ -7370,8 +7745,11 @@
       <c r="J116" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="20">
+      <c r="K116" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="20">
       <c r="A117" s="1">
         <v>32</v>
       </c>
@@ -7390,8 +7768,11 @@
       <c r="J117" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="20">
+      <c r="K117" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="20">
       <c r="A118" s="1">
         <v>157</v>
       </c>
@@ -7410,8 +7791,11 @@
       <c r="J118" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="20">
+      <c r="K118" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="20">
       <c r="A119" s="1">
         <v>794</v>
       </c>
@@ -7430,8 +7814,11 @@
       <c r="J119" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="20">
+      <c r="K119" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="20">
       <c r="A120" s="1">
         <v>793</v>
       </c>
@@ -7450,8 +7837,11 @@
       <c r="J120" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="20">
+      <c r="K120" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="20">
       <c r="A121" s="1">
         <v>3807</v>
       </c>
@@ -7470,8 +7860,11 @@
       <c r="J121" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="20">
+      <c r="K121" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="20">
       <c r="A122" s="1">
         <v>792</v>
       </c>
@@ -7490,8 +7883,11 @@
       <c r="J122" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="20">
+      <c r="K122" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="20">
       <c r="A123" s="1">
         <v>158</v>
       </c>
@@ -7510,8 +7906,11 @@
       <c r="J123" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="20">
+      <c r="K123" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="20">
       <c r="A124" s="1">
         <v>791</v>
       </c>
@@ -7530,8 +7929,11 @@
       <c r="J124" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="20">
+      <c r="K124" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="20">
       <c r="A125" s="1">
         <v>3840</v>
       </c>
@@ -7550,8 +7952,11 @@
       <c r="J125" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="20">
+      <c r="K125" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="20">
       <c r="A126" s="1">
         <v>3839</v>
       </c>
@@ -7570,8 +7975,11 @@
       <c r="J126" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="20">
+      <c r="K126" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="20">
       <c r="A127" s="1">
         <v>3838</v>
       </c>
@@ -7590,8 +7998,11 @@
       <c r="J127" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="20">
+      <c r="K127" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="20">
       <c r="A128" s="1">
         <v>800</v>
       </c>
@@ -7610,8 +8021,11 @@
       <c r="J128" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="20">
+      <c r="K128" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="20">
       <c r="A129" s="1">
         <v>809</v>
       </c>
@@ -7630,8 +8044,11 @@
       <c r="J129" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="20">
+      <c r="K129" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="20">
       <c r="A130" s="1">
         <v>799</v>
       </c>
@@ -7650,8 +8067,11 @@
       <c r="J130" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="20">
+      <c r="K130" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="20">
       <c r="A131" s="1">
         <v>798</v>
       </c>
@@ -7670,8 +8090,11 @@
       <c r="J131" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="20">
+      <c r="K131" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="20">
       <c r="A132" s="1">
         <v>797</v>
       </c>
@@ -7690,8 +8113,11 @@
       <c r="J132" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="20">
+      <c r="K132" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="20">
       <c r="A133" s="1">
         <v>796</v>
       </c>
@@ -7710,8 +8136,11 @@
       <c r="J133" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="20">
+      <c r="K133" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="20">
       <c r="A134" s="1">
         <v>820</v>
       </c>
@@ -7730,8 +8159,11 @@
       <c r="J134" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="20">
+      <c r="K134" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="20">
       <c r="A135" s="1">
         <v>162</v>
       </c>
@@ -7750,8 +8182,11 @@
       <c r="J135" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="20">
+      <c r="K135" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="20">
       <c r="A136" s="1">
         <v>827</v>
       </c>
@@ -7770,8 +8205,11 @@
       <c r="J136" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="20">
+      <c r="K136" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="20">
       <c r="A137" s="1">
         <v>813</v>
       </c>
@@ -7790,8 +8228,11 @@
       <c r="J137" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="20">
+      <c r="K137" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="20">
       <c r="A138" s="1">
         <v>826</v>
       </c>
@@ -7810,8 +8251,11 @@
       <c r="J138" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="20">
+      <c r="K138" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="20">
       <c r="A139" s="1">
         <v>825</v>
       </c>
@@ -7830,8 +8274,11 @@
       <c r="J139" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="20">
+      <c r="K139" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="20">
       <c r="A140" s="1">
         <v>824</v>
       </c>
@@ -7850,8 +8297,11 @@
       <c r="J140" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="20">
+      <c r="K140" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="20">
       <c r="A141" s="1">
         <v>996</v>
       </c>
@@ -7870,8 +8320,11 @@
       <c r="J141" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="20">
+      <c r="K141" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="20">
       <c r="A142" s="1">
         <v>3843</v>
       </c>
@@ -7890,8 +8343,11 @@
       <c r="J142" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="20">
+      <c r="K142" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="20">
       <c r="A143" s="1">
         <v>995</v>
       </c>
@@ -7910,8 +8366,11 @@
       <c r="J143" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="20">
+      <c r="K143" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="20">
       <c r="A144" s="1">
         <v>3846</v>
       </c>
@@ -7930,8 +8389,11 @@
       <c r="J144" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="20">
+      <c r="K144" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="20">
       <c r="A145" s="1">
         <v>3845</v>
       </c>
@@ -7950,8 +8412,11 @@
       <c r="J145" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="20">
+      <c r="K145" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="20">
       <c r="A146" s="1">
         <v>3844</v>
       </c>
@@ -7970,8 +8435,11 @@
       <c r="J146" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="20">
+      <c r="K146" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="20">
       <c r="A147" s="1">
         <v>159</v>
       </c>
@@ -7990,8 +8458,11 @@
       <c r="J147" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="20">
+      <c r="K147" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="20">
       <c r="A148" s="1">
         <v>160</v>
       </c>
@@ -8010,8 +8481,11 @@
       <c r="J148" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="20">
+      <c r="K148" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="20">
       <c r="A149" s="1">
         <v>161</v>
       </c>
@@ -8030,8 +8504,11 @@
       <c r="J149" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="20">
+      <c r="K149" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="20">
       <c r="A150" s="1">
         <v>3756</v>
       </c>
@@ -8050,8 +8527,11 @@
       <c r="J150" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="20">
+      <c r="K150" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="20">
       <c r="A151" s="1">
         <v>775</v>
       </c>
@@ -8070,8 +8550,11 @@
       <c r="J151" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="20">
+      <c r="K151" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="20">
       <c r="A152" s="1">
         <v>3841</v>
       </c>
@@ -8090,8 +8573,11 @@
       <c r="J152" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="20">
+      <c r="K152" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="20">
       <c r="A153" s="1">
         <v>3325</v>
       </c>
@@ -8110,8 +8596,11 @@
       <c r="J153" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="20">
+      <c r="K153" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="20">
       <c r="A154" s="1">
         <v>3755</v>
       </c>
@@ -8130,8 +8619,11 @@
       <c r="J154" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="20">
+      <c r="K154" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="20">
       <c r="A155" s="1">
         <v>334</v>
       </c>
@@ -8150,8 +8642,11 @@
       <c r="J155" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="20">
+      <c r="K155" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="20">
       <c r="A156" s="1">
         <v>322</v>
       </c>
@@ -8170,8 +8665,11 @@
       <c r="J156" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="20">
+      <c r="K156" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="20">
       <c r="A157" s="1">
         <v>312</v>
       </c>
@@ -8190,8 +8688,11 @@
       <c r="J157" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="20">
+      <c r="K157" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="20">
       <c r="A158" s="1">
         <v>803</v>
       </c>
@@ -8210,8 +8711,11 @@
       <c r="J158" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="20">
+      <c r="K158" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="20">
       <c r="A159" s="1">
         <v>336</v>
       </c>
@@ -8230,8 +8734,11 @@
       <c r="J159" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="20">
+      <c r="K159" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="20">
       <c r="A160" s="1">
         <v>823</v>
       </c>
@@ -8250,8 +8757,11 @@
       <c r="J160" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="20">
+      <c r="K160" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="20">
       <c r="A161" s="1">
         <v>939</v>
       </c>
@@ -8270,8 +8780,11 @@
       <c r="J161" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="20">
+      <c r="K161" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="20">
       <c r="A162" s="1">
         <v>3753</v>
       </c>
@@ -8290,8 +8803,11 @@
       <c r="J162" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="20">
+      <c r="K162" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="20">
       <c r="A163" s="1">
         <v>3752</v>
       </c>
@@ -8310,8 +8826,11 @@
       <c r="J163" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="20">
+      <c r="K163" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="20">
       <c r="A164" s="1">
         <v>932</v>
       </c>
@@ -8330,8 +8849,11 @@
       <c r="J164" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="20">
+      <c r="K164" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="20">
       <c r="A165" s="1">
         <v>931</v>
       </c>
@@ -8350,8 +8872,11 @@
       <c r="J165" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="20">
+      <c r="K165" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="20">
       <c r="A166" s="1">
         <v>930</v>
       </c>
@@ -8370,8 +8895,11 @@
       <c r="J166" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="20">
+      <c r="K166" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="20">
       <c r="A167" s="1">
         <v>3750</v>
       </c>
@@ -8390,8 +8918,11 @@
       <c r="J167" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="20">
+      <c r="K167" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="20">
       <c r="A168" s="1">
         <v>828</v>
       </c>
@@ -8410,8 +8941,11 @@
       <c r="J168" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="20">
+      <c r="K168" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="20">
       <c r="A169" s="1">
         <v>3761</v>
       </c>
@@ -8430,8 +8964,11 @@
       <c r="J169" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="20">
+      <c r="K169" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="20">
       <c r="A170" s="1">
         <v>519</v>
       </c>
@@ -8450,8 +8987,11 @@
       <c r="J170" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="20">
+      <c r="K170" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="20">
       <c r="A171" s="1">
         <v>518</v>
       </c>
@@ -8470,8 +9010,11 @@
       <c r="J171" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="20">
+      <c r="K171" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="20">
       <c r="A172" s="1">
         <v>3760</v>
       </c>
@@ -8490,8 +9033,11 @@
       <c r="J172" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="20">
+      <c r="K172" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="20">
       <c r="A173" s="1">
         <v>517</v>
       </c>
@@ -8510,8 +9056,11 @@
       <c r="J173" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="20">
+      <c r="K173" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="20">
       <c r="A174" s="1">
         <v>3842</v>
       </c>
@@ -8530,8 +9079,11 @@
       <c r="J174" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="20">
+      <c r="K174" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="20">
       <c r="A175" s="1">
         <v>311</v>
       </c>
@@ -8550,8 +9102,11 @@
       <c r="J175" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="20">
+      <c r="K175" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="20">
       <c r="A176" s="1">
         <v>747</v>
       </c>
@@ -8570,8 +9125,11 @@
       <c r="J176" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="20">
+      <c r="K176" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="20">
       <c r="A177" s="1">
         <v>3766</v>
       </c>
@@ -8590,8 +9148,11 @@
       <c r="J177" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="20">
+      <c r="K177" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="20">
       <c r="A178" s="1">
         <v>807</v>
       </c>
@@ -8610,8 +9171,11 @@
       <c r="J178" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="20">
+      <c r="K178" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="20">
       <c r="A179" s="1">
         <v>3765</v>
       </c>
@@ -8630,8 +9194,11 @@
       <c r="J179" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="20">
+      <c r="K179" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="20">
       <c r="A180" s="1">
         <v>3811</v>
       </c>
@@ -8650,8 +9217,11 @@
       <c r="J180" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="20">
+      <c r="K180" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="20">
       <c r="A181" s="1">
         <v>598</v>
       </c>
@@ -8670,8 +9240,11 @@
       <c r="J181" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="20">
+      <c r="K181" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="20">
       <c r="A182" s="1">
         <v>597</v>
       </c>
@@ -8690,8 +9263,11 @@
       <c r="J182" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="20">
+      <c r="K182" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="20">
       <c r="A183" s="1">
         <v>3810</v>
       </c>
@@ -8710,8 +9286,11 @@
       <c r="J183" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="20">
+      <c r="K183" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="20">
       <c r="A184" s="1">
         <v>3809</v>
       </c>
@@ -8730,8 +9309,11 @@
       <c r="J184" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="20">
+      <c r="K184" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="20">
       <c r="A185" s="1">
         <v>3808</v>
       </c>
@@ -8750,8 +9332,11 @@
       <c r="J185" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="20">
+      <c r="K185" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="20">
       <c r="A186" s="1">
         <v>928</v>
       </c>
@@ -8770,8 +9355,11 @@
       <c r="J186" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="20">
+      <c r="K186" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="20">
       <c r="A187" s="1">
         <v>927</v>
       </c>
@@ -8790,8 +9378,11 @@
       <c r="J187" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="20">
+      <c r="K187" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="20">
       <c r="A188" s="1">
         <v>926</v>
       </c>
@@ -8810,8 +9401,11 @@
       <c r="J188" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="20">
+      <c r="K188" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="20">
       <c r="A189" s="1">
         <v>3768</v>
       </c>
@@ -8830,8 +9424,11 @@
       <c r="J189" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="20">
+      <c r="K189" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="20">
       <c r="A190" s="1">
         <v>924</v>
       </c>
@@ -8850,8 +9447,11 @@
       <c r="J190" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="20">
+      <c r="K190" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="20">
       <c r="A191" s="1">
         <v>3849</v>
       </c>
@@ -8870,8 +9470,11 @@
       <c r="J191" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="20">
+      <c r="K191" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="20">
       <c r="A192" s="1">
         <v>3848</v>
       </c>
@@ -8890,8 +9493,11 @@
       <c r="J192" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="20">
+      <c r="K192" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="20">
       <c r="A193" s="1">
         <v>3847</v>
       </c>
@@ -8910,8 +9516,11 @@
       <c r="J193" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="20">
+      <c r="K193" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="20">
       <c r="A194" s="1">
         <v>964</v>
       </c>
@@ -8930,8 +9539,11 @@
       <c r="J194" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="20">
+      <c r="K194" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="20">
       <c r="A195" s="1">
         <v>959</v>
       </c>
@@ -8950,8 +9562,11 @@
       <c r="J195" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="20">
+      <c r="K195" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="20">
       <c r="A196" s="1">
         <v>958</v>
       </c>
@@ -8970,8 +9585,11 @@
       <c r="J196" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="20">
+      <c r="K196" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="20">
       <c r="A197" s="1">
         <v>3812</v>
       </c>
@@ -8990,8 +9608,11 @@
       <c r="J197" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="20">
+      <c r="K197" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="20">
       <c r="A198" s="1">
         <v>3851</v>
       </c>
@@ -9010,8 +9631,11 @@
       <c r="J198" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="20">
+      <c r="K198" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="20">
       <c r="A199" s="1">
         <v>943</v>
       </c>
@@ -9030,8 +9654,11 @@
       <c r="J199" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="20">
+      <c r="K199" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="20">
       <c r="A200" s="1">
         <v>3850</v>
       </c>
@@ -9050,8 +9677,11 @@
       <c r="J200" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="20">
+      <c r="K200" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="20">
       <c r="A201" s="1">
         <v>993</v>
       </c>
@@ -9070,8 +9700,11 @@
       <c r="J201" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="20">
+      <c r="K201" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="20">
       <c r="A202" s="1">
         <v>992</v>
       </c>
@@ -9090,8 +9723,11 @@
       <c r="J202" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="20">
+      <c r="K202" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="20">
       <c r="A203" s="1">
         <v>3814</v>
       </c>
@@ -9110,8 +9746,11 @@
       <c r="J203" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="20">
+      <c r="K203" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="20">
       <c r="A204" s="1">
         <v>991</v>
       </c>
@@ -9130,8 +9769,11 @@
       <c r="J204" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="20">
+      <c r="K204" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="20">
       <c r="A205" s="1">
         <v>966</v>
       </c>
@@ -9150,8 +9792,11 @@
       <c r="J205" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="20">
+      <c r="K205" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="20">
       <c r="A206" s="1">
         <v>564</v>
       </c>
@@ -9170,8 +9815,11 @@
       <c r="J206" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="20">
+      <c r="K206" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="20">
       <c r="A207" s="1">
         <v>563</v>
       </c>
@@ -9190,8 +9838,11 @@
       <c r="J207" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="20">
+      <c r="K207" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="20">
       <c r="A208" s="1">
         <v>562</v>
       </c>
@@ -9210,8 +9861,11 @@
       <c r="J208" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="20">
+      <c r="K208" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="20">
       <c r="A209" s="1">
         <v>505</v>
       </c>
@@ -9230,8 +9884,11 @@
       <c r="J209" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="20">
+      <c r="K209" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="20">
       <c r="A210" s="1">
         <v>3817</v>
       </c>
@@ -9250,8 +9907,11 @@
       <c r="J210" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="20">
+      <c r="K210" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="20">
       <c r="A211" s="1">
         <v>3816</v>
       </c>
@@ -9270,8 +9930,11 @@
       <c r="J211" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="20">
+      <c r="K211" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="20">
       <c r="A212" s="1">
         <v>163</v>
       </c>
@@ -9290,8 +9953,11 @@
       <c r="J212" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="20">
+      <c r="K212" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="20">
       <c r="A213" s="1">
         <v>3815</v>
       </c>
@@ -9310,8 +9976,11 @@
       <c r="J213" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="20">
+      <c r="K213" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="20">
       <c r="A214" s="1">
         <v>561</v>
       </c>
@@ -9330,8 +9999,11 @@
       <c r="J214" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="20">
+      <c r="K214" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="20">
       <c r="A215" s="1">
         <v>3813</v>
       </c>
@@ -9350,8 +10022,11 @@
       <c r="J215" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="20">
+      <c r="K215" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="20">
       <c r="A216" s="1">
         <v>503</v>
       </c>
@@ -9370,8 +10045,11 @@
       <c r="J216" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="20">
+      <c r="K216" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="20">
       <c r="A217" s="1">
         <v>502</v>
       </c>
@@ -9390,8 +10068,11 @@
       <c r="J217" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="20">
+      <c r="K217" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="20">
       <c r="A218" s="1">
         <v>501</v>
       </c>
@@ -9410,8 +10091,11 @@
       <c r="J218" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="20">
+      <c r="K218" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="20">
       <c r="A219" s="1">
         <v>500</v>
       </c>
@@ -9430,8 +10114,11 @@
       <c r="J219" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="20">
+      <c r="K219" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="20">
       <c r="A220" s="1">
         <v>955</v>
       </c>
@@ -9450,8 +10137,11 @@
       <c r="J220" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="20">
+      <c r="K220" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="20">
       <c r="A221" s="1">
         <v>13</v>
       </c>
@@ -9470,8 +10160,11 @@
       <c r="J221" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="20">
+      <c r="K221" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="20">
       <c r="A222" s="1">
         <v>954</v>
       </c>
@@ -9490,8 +10183,11 @@
       <c r="J222" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="20">
+      <c r="K222" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="20">
       <c r="A223" s="1">
         <v>913</v>
       </c>
@@ -9510,8 +10206,11 @@
       <c r="J223" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="20">
+      <c r="K223" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="20">
       <c r="A224" s="1">
         <v>912</v>
       </c>
@@ -9530,8 +10229,11 @@
       <c r="J224" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="20">
+      <c r="K224" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="20">
       <c r="A225" s="1">
         <v>911</v>
       </c>
@@ -9550,8 +10252,11 @@
       <c r="J225" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="20">
+      <c r="K225" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="20">
       <c r="A226" s="1">
         <v>910</v>
       </c>
@@ -9570,8 +10275,11 @@
       <c r="J226" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="20">
+      <c r="K226" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="20">
       <c r="A227" s="1">
         <v>909</v>
       </c>
@@ -9590,8 +10298,11 @@
       <c r="J227" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="20">
+      <c r="K227" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="20">
       <c r="A228" s="1">
         <v>3818</v>
       </c>
@@ -9610,8 +10321,11 @@
       <c r="J228" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="20">
+      <c r="K228" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="20">
       <c r="A229" s="1">
         <v>369</v>
       </c>
@@ -9630,8 +10344,11 @@
       <c r="J229" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="20">
+      <c r="K229" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="20">
       <c r="A230" s="1">
         <v>368</v>
       </c>
@@ -9650,8 +10367,11 @@
       <c r="J230" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="20">
+      <c r="K230" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="20">
       <c r="A231" s="1">
         <v>320</v>
       </c>
@@ -9670,8 +10390,11 @@
       <c r="J231" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="20">
+      <c r="K231" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="20">
       <c r="A232" s="1">
         <v>367</v>
       </c>
@@ -9690,8 +10413,11 @@
       <c r="J232" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="20">
+      <c r="K232" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="20">
       <c r="A233" s="1">
         <v>319</v>
       </c>
@@ -9710,8 +10436,11 @@
       <c r="J233" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="20">
+      <c r="K233" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="20">
       <c r="A234" s="1">
         <v>890</v>
       </c>
@@ -9730,8 +10459,11 @@
       <c r="J234" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="20">
+      <c r="K234" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="20">
       <c r="A235" s="1">
         <v>164</v>
       </c>
@@ -9750,8 +10482,11 @@
       <c r="J235" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="20">
+      <c r="K235" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="20">
       <c r="A236" s="1">
         <v>989</v>
       </c>
@@ -9770,8 +10505,11 @@
       <c r="J236" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="20">
+      <c r="K236" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="20">
       <c r="A237" s="1">
         <v>988</v>
       </c>
@@ -9790,8 +10528,11 @@
       <c r="J237" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="20">
+      <c r="K237" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="20">
       <c r="A238" s="1">
         <v>987</v>
       </c>
@@ -9810,8 +10551,11 @@
       <c r="J238" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="20">
+      <c r="K238" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="20">
       <c r="A239" s="1">
         <v>986</v>
       </c>
@@ -9830,8 +10574,11 @@
       <c r="J239" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="20">
+      <c r="K239" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="20">
       <c r="A240" s="1">
         <v>772</v>
       </c>
@@ -9850,8 +10597,11 @@
       <c r="J240" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="20">
+      <c r="K240" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="20">
       <c r="A241" s="1">
         <v>3348</v>
       </c>
@@ -9870,8 +10620,11 @@
       <c r="J241" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="20">
+      <c r="K241" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="20">
       <c r="A242" s="1">
         <v>3347</v>
       </c>
@@ -9890,8 +10643,11 @@
       <c r="J242" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="20">
+      <c r="K242" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="20">
       <c r="A243" s="1">
         <v>3346</v>
       </c>
@@ -9910,8 +10666,11 @@
       <c r="J243" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="20">
+      <c r="K243" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="20">
       <c r="A244" s="1">
         <v>3345</v>
       </c>
@@ -9930,8 +10689,11 @@
       <c r="J244" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="20">
+      <c r="K244" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="20">
       <c r="A245" s="1">
         <v>895</v>
       </c>
@@ -9950,8 +10712,11 @@
       <c r="J245" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="20">
+      <c r="K245" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="20">
       <c r="A246" s="1">
         <v>14</v>
       </c>
@@ -9970,8 +10735,11 @@
       <c r="J246" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="20">
+      <c r="K246" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="20">
       <c r="A247" s="1">
         <v>15</v>
       </c>
@@ -9990,8 +10758,11 @@
       <c r="J247" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="20">
+      <c r="K247" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="20">
       <c r="A248" s="1">
         <v>16</v>
       </c>
@@ -10010,8 +10781,11 @@
       <c r="J248" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="20">
+      <c r="K248" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="20">
       <c r="A249" s="1">
         <v>704</v>
       </c>
@@ -10030,8 +10804,11 @@
       <c r="J249" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="20">
+      <c r="K249" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="20">
       <c r="A250" s="1">
         <v>703</v>
       </c>
@@ -10050,8 +10827,11 @@
       <c r="J250" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" ht="20">
+      <c r="K250" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="20">
       <c r="A251" s="1">
         <v>702</v>
       </c>
@@ -10070,8 +10850,11 @@
       <c r="J251" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" ht="20">
+      <c r="K251" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="20">
       <c r="A252" s="1">
         <v>701</v>
       </c>
@@ -10090,8 +10873,11 @@
       <c r="J252" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" ht="20">
+      <c r="K252" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="20">
       <c r="A253" s="1">
         <v>700</v>
       </c>
@@ -10110,8 +10896,11 @@
       <c r="J253" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" ht="20">
+      <c r="K253" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="20">
       <c r="A254" s="1">
         <v>699</v>
       </c>
@@ -10130,8 +10919,11 @@
       <c r="J254" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="20">
+      <c r="K254" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="20">
       <c r="A255" s="1">
         <v>907</v>
       </c>
@@ -10150,8 +10942,11 @@
       <c r="J255" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="20">
+      <c r="K255" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="20">
       <c r="A256" s="1">
         <v>906</v>
       </c>
@@ -10170,8 +10965,11 @@
       <c r="J256" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="20">
+      <c r="K256" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="20">
       <c r="A257" s="1">
         <v>905</v>
       </c>
@@ -10190,8 +10988,11 @@
       <c r="J257" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="20">
+      <c r="K257" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="20">
       <c r="A258" s="1">
         <v>904</v>
       </c>
@@ -10210,8 +11011,11 @@
       <c r="J258" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="20">
+      <c r="K258" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="20">
       <c r="A259" s="1">
         <v>472</v>
       </c>
@@ -10230,8 +11034,11 @@
       <c r="J259" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" ht="20">
+      <c r="K259" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="20">
       <c r="A260" s="1">
         <v>471</v>
       </c>
@@ -10250,8 +11057,11 @@
       <c r="J260" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" ht="20">
+      <c r="K260" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="20">
       <c r="A261" s="1">
         <v>470</v>
       </c>
@@ -10270,8 +11080,11 @@
       <c r="J261" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" ht="20">
+      <c r="K261" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="20">
       <c r="A262" s="1">
         <v>469</v>
       </c>
@@ -10290,8 +11103,11 @@
       <c r="J262" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" ht="20">
+      <c r="K262" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="20">
       <c r="A263" s="1">
         <v>937</v>
       </c>
@@ -10310,8 +11126,11 @@
       <c r="J263" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" ht="20">
+      <c r="K263" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="20">
       <c r="A264" s="1">
         <v>936</v>
       </c>
@@ -10330,8 +11149,11 @@
       <c r="J264" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" ht="20">
+      <c r="K264" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="20">
       <c r="A265" s="1">
         <v>935</v>
       </c>
@@ -10350,8 +11172,11 @@
       <c r="J265" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" ht="20">
+      <c r="K265" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="20">
       <c r="A266" s="1">
         <v>934</v>
       </c>
@@ -10370,8 +11195,11 @@
       <c r="J266" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" ht="20">
+      <c r="K266" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="20">
       <c r="A267" s="1">
         <v>3364</v>
       </c>
@@ -10390,8 +11218,11 @@
       <c r="J267" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" ht="20">
+      <c r="K267" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="20">
       <c r="A268" s="1">
         <v>3363</v>
       </c>
@@ -10410,8 +11241,11 @@
       <c r="J268" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" ht="20">
+      <c r="K268" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="20">
       <c r="A269" s="1">
         <v>3362</v>
       </c>
@@ -10430,8 +11264,11 @@
       <c r="J269" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" ht="20">
+      <c r="K269" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="20">
       <c r="A270" s="1">
         <v>10</v>
       </c>
@@ -10450,8 +11287,11 @@
       <c r="J270" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" ht="20">
+      <c r="K270" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="20">
       <c r="A271" s="1">
         <v>11</v>
       </c>
@@ -10470,8 +11310,11 @@
       <c r="J271" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="20">
+      <c r="K271" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="20">
       <c r="A272" s="1">
         <v>12</v>
       </c>
@@ -10490,8 +11333,11 @@
       <c r="J272" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="20">
+      <c r="K272" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="20">
       <c r="A273" s="1">
         <v>165</v>
       </c>
@@ -10510,8 +11356,11 @@
       <c r="J273" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="20">
+      <c r="K273" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="20">
       <c r="A274" s="1">
         <v>3819</v>
       </c>
@@ -10530,8 +11379,11 @@
       <c r="J274" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" ht="20">
+      <c r="K274" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="20">
       <c r="A275" s="1">
         <v>166</v>
       </c>
@@ -10550,8 +11402,11 @@
       <c r="J275" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="20">
+      <c r="K275" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="20">
       <c r="A276" s="1">
         <v>581</v>
       </c>
@@ -10570,8 +11425,11 @@
       <c r="J276" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" ht="20">
+      <c r="K276" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="20">
       <c r="A277" s="1">
         <v>580</v>
       </c>
@@ -10590,8 +11448,11 @@
       <c r="J277" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" ht="20">
+      <c r="K277" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="20">
       <c r="A278" s="1">
         <v>523</v>
       </c>
@@ -10610,8 +11471,11 @@
       <c r="J278" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" ht="20">
+      <c r="K278" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="20">
       <c r="A279" s="1">
         <v>3053</v>
       </c>
@@ -10630,8 +11494,11 @@
       <c r="J279" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" ht="20">
+      <c r="K279" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="20">
       <c r="A280" s="1">
         <v>3052</v>
       </c>
@@ -10650,8 +11517,11 @@
       <c r="J280" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" ht="20">
+      <c r="K280" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="20">
       <c r="A281" s="1">
         <v>3051</v>
       </c>
@@ -10670,8 +11540,11 @@
       <c r="J281" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="20">
+      <c r="K281" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="20">
       <c r="A282" s="1">
         <v>524</v>
       </c>
@@ -10690,8 +11563,11 @@
       <c r="J282" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" ht="20">
+      <c r="K282" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="20">
       <c r="A283" s="1">
         <v>522</v>
       </c>
@@ -10710,8 +11586,11 @@
       <c r="J283" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="20">
+      <c r="K283" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="20">
       <c r="A284" s="1">
         <v>520</v>
       </c>
@@ -10730,8 +11609,11 @@
       <c r="J284" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" ht="20">
+      <c r="K284" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="20">
       <c r="A285" s="1">
         <v>734</v>
       </c>
@@ -10750,8 +11632,11 @@
       <c r="J285" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" ht="20">
+      <c r="K285" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="20">
       <c r="A286" s="1">
         <v>733</v>
       </c>
@@ -10770,8 +11655,11 @@
       <c r="J286" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" ht="20">
+      <c r="K286" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="20">
       <c r="A287" s="1">
         <v>732</v>
       </c>
@@ -10790,8 +11678,11 @@
       <c r="J287" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="20">
+      <c r="K287" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="20">
       <c r="A288" s="1">
         <v>730</v>
       </c>
@@ -10810,8 +11701,11 @@
       <c r="J288" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="20">
+      <c r="K288" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="20">
       <c r="A289" s="1">
         <v>3013</v>
       </c>
@@ -10830,8 +11724,11 @@
       <c r="J289" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="20">
+      <c r="K289" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="20">
       <c r="A290" s="1">
         <v>3012</v>
       </c>
@@ -10850,8 +11747,11 @@
       <c r="J290" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="20">
+      <c r="K290" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="20">
       <c r="A291" s="1">
         <v>3011</v>
       </c>
@@ -10870,8 +11770,11 @@
       <c r="J291" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="20">
+      <c r="K291" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="20">
       <c r="A292" s="1">
         <v>372</v>
       </c>
@@ -10890,8 +11793,11 @@
       <c r="J292" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="20">
+      <c r="K292" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="20">
       <c r="A293" s="1">
         <v>371</v>
       </c>
@@ -10910,8 +11816,11 @@
       <c r="J293" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="20">
+      <c r="K293" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="20">
       <c r="A294" s="1">
         <v>370</v>
       </c>
@@ -10930,8 +11839,11 @@
       <c r="J294" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="20">
+      <c r="K294" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="20">
       <c r="A295" s="1">
         <v>17</v>
       </c>
@@ -10950,8 +11862,11 @@
       <c r="J295" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" ht="20">
+      <c r="K295" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="20">
       <c r="A296" s="1">
         <v>18</v>
       </c>
@@ -10970,8 +11885,11 @@
       <c r="J296" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="20">
+      <c r="K296" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="20">
       <c r="A297" s="1">
         <v>834</v>
       </c>
@@ -10990,8 +11908,11 @@
       <c r="J297" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="20">
+      <c r="K297" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="20">
       <c r="A298" s="1">
         <v>833</v>
       </c>
@@ -11010,8 +11931,11 @@
       <c r="J298" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="20">
+      <c r="K298" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="20">
       <c r="A299" s="1">
         <v>832</v>
       </c>
@@ -11030,8 +11954,11 @@
       <c r="J299" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="20">
+      <c r="K299" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="20">
       <c r="A300" s="1">
         <v>831</v>
       </c>
@@ -11050,8 +11977,11 @@
       <c r="J300" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="20">
+      <c r="K300" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="20">
       <c r="A301" s="1">
         <v>830</v>
       </c>
@@ -11070,8 +12000,11 @@
       <c r="J301" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="20">
+      <c r="K301" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="20">
       <c r="A302" s="1">
         <v>829</v>
       </c>
@@ -11090,8 +12023,11 @@
       <c r="J302" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="20">
+      <c r="K302" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="20">
       <c r="A303" s="1">
         <v>746</v>
       </c>
@@ -11110,8 +12046,11 @@
       <c r="J303" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" ht="20">
+      <c r="K303" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="20">
       <c r="A304" s="1">
         <v>677</v>
       </c>
@@ -11130,8 +12069,11 @@
       <c r="J304" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" ht="20">
+      <c r="K304" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="20">
       <c r="A305" s="1">
         <v>422</v>
       </c>
@@ -11150,8 +12092,11 @@
       <c r="J305" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" ht="20">
+      <c r="K305" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="20">
       <c r="A306" s="1">
         <v>3828</v>
       </c>
@@ -11170,8 +12115,11 @@
       <c r="J306" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" ht="20">
+      <c r="K306" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="20">
       <c r="A307" s="1">
         <v>420</v>
       </c>
@@ -11190,8 +12138,11 @@
       <c r="J307" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" ht="20">
+      <c r="K307" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="20">
       <c r="A308" s="1">
         <v>869</v>
       </c>
@@ -11210,8 +12161,11 @@
       <c r="J308" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" ht="20">
+      <c r="K308" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="20">
       <c r="A309" s="1">
         <v>613</v>
       </c>
@@ -11230,8 +12184,11 @@
       <c r="J309" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" ht="20">
+      <c r="K309" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="20">
       <c r="A310" s="1">
         <v>612</v>
       </c>
@@ -11250,8 +12207,11 @@
       <c r="J310" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" ht="20">
+      <c r="K310" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="20">
       <c r="A311" s="1">
         <v>611</v>
       </c>
@@ -11270,8 +12230,11 @@
       <c r="J311" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" ht="20">
+      <c r="K311" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="20">
       <c r="A312" s="1">
         <v>610</v>
       </c>
@@ -11290,8 +12253,11 @@
       <c r="J312" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" ht="20">
+      <c r="K312" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="20">
       <c r="A313" s="1">
         <v>3047</v>
       </c>
@@ -11310,8 +12276,11 @@
       <c r="J313" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" ht="20">
+      <c r="K313" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="20">
       <c r="A314" s="1">
         <v>3046</v>
       </c>
@@ -11330,8 +12299,11 @@
       <c r="J314" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" ht="20">
+      <c r="K314" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="20">
       <c r="A315" s="1">
         <v>3045</v>
       </c>
@@ -11350,8 +12322,11 @@
       <c r="J315" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" ht="20">
+      <c r="K315" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="20">
       <c r="A316" s="1">
         <v>167</v>
       </c>
@@ -11370,8 +12345,11 @@
       <c r="J316" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" ht="20">
+      <c r="K316" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="20">
       <c r="A317" s="1">
         <v>676</v>
       </c>
@@ -11390,8 +12368,11 @@
       <c r="J317" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" ht="20">
+      <c r="K317" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="20">
       <c r="A318" s="1">
         <v>729</v>
       </c>
@@ -11410,8 +12391,11 @@
       <c r="J318" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" ht="20">
+      <c r="K318" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="20">
       <c r="A319" s="1">
         <v>680</v>
       </c>
@@ -11430,8 +12414,11 @@
       <c r="J319" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" ht="20">
+      <c r="K319" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" ht="20">
       <c r="A320" s="1">
         <v>3829</v>
       </c>
@@ -11450,8 +12437,11 @@
       <c r="J320" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="20">
+      <c r="K320" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" ht="20">
       <c r="A321" s="1">
         <v>3822</v>
       </c>
@@ -11470,8 +12460,11 @@
       <c r="J321" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" ht="20">
+      <c r="K321" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" ht="20">
       <c r="A322" s="1">
         <v>3821</v>
       </c>
@@ -11490,8 +12483,11 @@
       <c r="J322" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" ht="20">
+      <c r="K322" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="20">
       <c r="A323" s="1">
         <v>3820</v>
       </c>
@@ -11510,8 +12506,11 @@
       <c r="J323" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" ht="20">
+      <c r="K323" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="20">
       <c r="A324" s="1">
         <v>3852</v>
       </c>
@@ -11530,8 +12529,11 @@
       <c r="J324" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" ht="20">
+      <c r="K324" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="20">
       <c r="A325" s="1">
         <v>728</v>
       </c>
@@ -11550,8 +12552,11 @@
       <c r="J325" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" ht="20">
+      <c r="K325" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" ht="20">
       <c r="A326" s="1">
         <v>783</v>
       </c>
@@ -11570,8 +12575,11 @@
       <c r="J326" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" ht="20">
+      <c r="K326" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="20">
       <c r="A327" s="1">
         <v>782</v>
       </c>
@@ -11590,8 +12598,11 @@
       <c r="J327" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" ht="20">
+      <c r="K327" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="20">
       <c r="A328" s="1">
         <v>780</v>
       </c>
@@ -11610,8 +12621,11 @@
       <c r="J328" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" ht="20">
+      <c r="K328" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" ht="20">
       <c r="A329" s="1">
         <v>3823</v>
       </c>
@@ -11630,8 +12644,11 @@
       <c r="J329" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" ht="20">
+      <c r="K329" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="20">
       <c r="A330" s="1">
         <v>3855</v>
       </c>
@@ -11650,8 +12667,11 @@
       <c r="J330" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" ht="20">
+      <c r="K330" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="20">
       <c r="A331" s="1">
         <v>19</v>
       </c>
@@ -11670,8 +12690,11 @@
       <c r="J331" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="20">
+      <c r="K331" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="20">
       <c r="A332" s="1">
         <v>3854</v>
       </c>
@@ -11690,8 +12713,11 @@
       <c r="J332" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" ht="20">
+      <c r="K332" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="20">
       <c r="A333" s="1">
         <v>3853</v>
       </c>
@@ -11710,8 +12736,11 @@
       <c r="J333" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="20">
+      <c r="K333" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="20">
       <c r="A334" s="1">
         <v>3827</v>
       </c>
@@ -11730,8 +12759,11 @@
       <c r="J334" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" ht="20">
+      <c r="K334" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="20">
       <c r="A335" s="1">
         <v>977</v>
       </c>
@@ -11750,8 +12782,11 @@
       <c r="J335" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="20">
+      <c r="K335" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="20">
       <c r="A336" s="1">
         <v>976</v>
       </c>
@@ -11770,8 +12805,11 @@
       <c r="J336" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" ht="20">
+      <c r="K336" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="20">
       <c r="A337" s="1">
         <v>3826</v>
       </c>
@@ -11790,8 +12828,11 @@
       <c r="J337" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" ht="20">
+      <c r="K337" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="20">
       <c r="A338" s="1">
         <v>975</v>
       </c>
@@ -11810,8 +12851,11 @@
       <c r="J338" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" ht="20">
+      <c r="K338" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="20">
       <c r="A339" s="1">
         <v>445</v>
       </c>
@@ -11830,8 +12874,11 @@
       <c r="J339" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" ht="20">
+      <c r="K339" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="20">
       <c r="A340" s="1">
         <v>307</v>
       </c>
@@ -11850,8 +12897,11 @@
       <c r="J340" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" ht="20">
+      <c r="K340" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="20">
       <c r="A341" s="1">
         <v>973</v>
       </c>
@@ -11870,8 +12920,11 @@
       <c r="J341" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" ht="20">
+      <c r="K341" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="20">
       <c r="A342" s="1">
         <v>444</v>
       </c>
@@ -11890,8 +12943,11 @@
       <c r="J342" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" ht="20">
+      <c r="K342" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="20">
       <c r="A343" s="1">
         <v>3078</v>
       </c>
@@ -11910,8 +12966,11 @@
       <c r="J343" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" ht="20">
+      <c r="K343" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="20">
       <c r="A344" s="1">
         <v>727</v>
       </c>
@@ -11930,8 +12989,11 @@
       <c r="J344" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" ht="20">
+      <c r="K344" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="20">
       <c r="A345" s="1">
         <v>726</v>
       </c>
@@ -11951,8 +13013,11 @@
       <c r="J345" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" ht="20">
+      <c r="K345" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="20">
       <c r="A346" s="1">
         <v>725</v>
       </c>
@@ -11972,8 +13037,11 @@
       <c r="J346" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" ht="20">
+      <c r="K346" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="20">
       <c r="A347" s="1">
         <v>972</v>
       </c>
@@ -11993,8 +13061,11 @@
       <c r="J347" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" ht="20">
+      <c r="K347" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="20">
       <c r="A348" s="1">
         <v>745</v>
       </c>
@@ -12014,8 +13085,11 @@
       <c r="J348" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" ht="20">
+      <c r="K348" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="20">
       <c r="A349" s="1">
         <v>744</v>
       </c>
@@ -12035,8 +13109,11 @@
       <c r="J349" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" ht="20">
+      <c r="K349" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="20">
       <c r="A350" s="1">
         <v>743</v>
       </c>
@@ -12056,8 +13133,11 @@
       <c r="J350" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" ht="20">
+      <c r="K350" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="20">
       <c r="A351" s="1">
         <v>742</v>
       </c>
@@ -12077,8 +13157,11 @@
       <c r="J351" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" ht="20">
+      <c r="K351" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="20">
       <c r="A352" s="1">
         <v>741</v>
       </c>
@@ -12098,8 +13181,11 @@
       <c r="J352" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="20">
+      <c r="K352" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="20">
       <c r="A353" s="1">
         <v>740</v>
       </c>
@@ -12119,8 +13205,11 @@
       <c r="J353" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="20">
+      <c r="K353" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="20">
       <c r="A354" s="1">
         <v>970</v>
       </c>
@@ -12140,8 +13229,11 @@
       <c r="J354" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="20">
+      <c r="K354" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="20">
       <c r="A355" s="1">
         <v>947</v>
       </c>
@@ -12161,8 +13253,11 @@
       <c r="J355" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="20">
+      <c r="K355" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="20">
       <c r="A356" s="1">
         <v>946</v>
       </c>
@@ -12182,8 +13277,11 @@
       <c r="J356" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="20">
+      <c r="K356" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" ht="20">
       <c r="A357" s="1">
         <v>900</v>
       </c>
@@ -12203,8 +13301,11 @@
       <c r="J357" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="20">
+      <c r="K357" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="20">
       <c r="A358" s="1">
         <v>967</v>
       </c>
@@ -12224,8 +13325,11 @@
       <c r="J358" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" ht="20">
+      <c r="K358" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="20">
       <c r="A359" s="1">
         <v>3824</v>
       </c>
@@ -12245,8 +13349,11 @@
       <c r="J359" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="20">
+      <c r="K359" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="20">
       <c r="A360" s="1">
         <v>3341</v>
       </c>
@@ -12266,8 +13373,11 @@
       <c r="J360" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" ht="20">
+      <c r="K360" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="20">
       <c r="A361" s="1">
         <v>3340</v>
       </c>
@@ -12287,8 +13397,11 @@
       <c r="J361" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" ht="20">
+      <c r="K361" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="20">
       <c r="A362" s="1">
         <v>608</v>
       </c>
@@ -12308,8 +13421,11 @@
       <c r="J362" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" ht="20">
+      <c r="K362" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="20">
       <c r="A363" s="1">
         <v>606</v>
       </c>
@@ -12329,8 +13445,11 @@
       <c r="J363" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" ht="20">
+      <c r="K363" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="20">
       <c r="A364" s="1">
         <v>951</v>
       </c>
@@ -12350,8 +13469,11 @@
       <c r="J364" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" ht="20">
+      <c r="K364" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="20">
       <c r="A365" s="1">
         <v>3856</v>
       </c>
@@ -12371,8 +13493,11 @@
       <c r="J365" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" ht="20">
+      <c r="K365" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="20">
       <c r="A366" s="1">
         <v>722</v>
       </c>
@@ -12392,8 +13517,11 @@
       <c r="J366" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" ht="20">
+      <c r="K366" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="20">
       <c r="A367" s="1">
         <v>721</v>
       </c>
@@ -12413,8 +13541,11 @@
       <c r="J367" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" ht="20">
+      <c r="K367" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="20">
       <c r="A368" s="1">
         <v>720</v>
       </c>
@@ -12434,8 +13565,11 @@
       <c r="J368" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" ht="20">
+      <c r="K368" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="20">
       <c r="A369" s="1">
         <v>3825</v>
       </c>
@@ -12455,8 +13589,11 @@
       <c r="J369" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" ht="20">
+      <c r="K369" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="20">
       <c r="A370" s="1">
         <v>922</v>
       </c>
@@ -12476,8 +13613,11 @@
       <c r="J370" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" ht="20">
+      <c r="K370" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="20">
       <c r="A371" s="1">
         <v>921</v>
       </c>
@@ -12497,8 +13637,11 @@
       <c r="J371" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" ht="20">
+      <c r="K371" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="20">
       <c r="A372" s="1">
         <v>920</v>
       </c>
@@ -12518,8 +13661,11 @@
       <c r="J372" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" ht="20">
+      <c r="K372" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="20">
       <c r="A373" s="1">
         <v>919</v>
       </c>
@@ -12539,8 +13685,11 @@
       <c r="J373" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" ht="20">
+      <c r="K373" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="20">
       <c r="A374" s="1">
         <v>918</v>
       </c>
@@ -12560,8 +13709,11 @@
       <c r="J374" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" ht="20">
+      <c r="K374" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="20">
       <c r="A375" s="1">
         <v>3770</v>
       </c>
@@ -12581,8 +13733,11 @@
       <c r="J375" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" ht="20">
+      <c r="K375" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="20">
       <c r="A376" s="1">
         <v>945</v>
       </c>
@@ -12602,8 +13757,11 @@
       <c r="J376" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" ht="20">
+      <c r="K376" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="20">
       <c r="A377" s="1">
         <v>402</v>
       </c>
@@ -12623,8 +13781,11 @@
       <c r="J377" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" ht="20">
+      <c r="K377" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="20">
       <c r="A378" s="1">
         <v>3776</v>
       </c>
@@ -12644,8 +13805,11 @@
       <c r="J378" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" ht="20">
+      <c r="K378" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="20">
       <c r="A379" s="1">
         <v>301</v>
       </c>
@@ -12665,8 +13829,11 @@
       <c r="J379" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" ht="20">
+      <c r="K379" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="20">
       <c r="A380" s="1">
         <v>400</v>
       </c>
@@ -12686,8 +13853,11 @@
       <c r="J380" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" ht="20">
+      <c r="K380" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="20">
       <c r="A381" s="1">
         <v>300</v>
       </c>
@@ -12707,8 +13877,11 @@
       <c r="J381" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" ht="20">
+      <c r="K381" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="20">
       <c r="A382" s="1">
         <v>225</v>
       </c>
@@ -12728,8 +13901,11 @@
       <c r="J382" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" ht="20">
+      <c r="K382" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="20">
       <c r="A383" s="1">
         <v>224</v>
       </c>
@@ -12749,8 +13925,11 @@
       <c r="J383" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" ht="20">
+      <c r="K383" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="20">
       <c r="A384" s="1">
         <v>152</v>
       </c>
@@ -12770,8 +13949,11 @@
       <c r="J384" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" ht="20">
+      <c r="K384" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="20">
       <c r="A385" s="1">
         <v>223</v>
       </c>
@@ -12791,8 +13973,11 @@
       <c r="J385" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" ht="20">
+      <c r="K385" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="20">
       <c r="A386" s="1">
         <v>3722</v>
       </c>
@@ -12812,8 +13997,11 @@
       <c r="J386" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" ht="20">
+      <c r="K386" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="20">
       <c r="A387" s="1">
         <v>3721</v>
       </c>
@@ -12833,8 +14021,11 @@
       <c r="J387" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" ht="20">
+      <c r="K387" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="20">
       <c r="A388" s="1">
         <v>221</v>
       </c>
@@ -12854,8 +14045,11 @@
       <c r="J388" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" ht="20">
+      <c r="K388" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="20">
       <c r="A389" s="1">
         <v>948</v>
       </c>
@@ -12875,8 +14069,11 @@
       <c r="J389" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" ht="20">
+      <c r="K389" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="20">
       <c r="A390" s="1">
         <v>754</v>
       </c>
@@ -12896,8 +14093,11 @@
       <c r="J390" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" ht="20">
+      <c r="K390" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="20">
       <c r="A391" s="1">
         <v>3771</v>
       </c>
@@ -12916,8 +14116,11 @@
       <c r="J391" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" ht="20">
+      <c r="K391" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="20">
       <c r="A392" s="1">
         <v>758</v>
       </c>
@@ -12936,8 +14139,11 @@
       <c r="J392" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" ht="20">
+      <c r="K392" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="20">
       <c r="A393" s="1">
         <v>3778</v>
       </c>
@@ -12956,8 +14162,11 @@
       <c r="J393" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" ht="20">
+      <c r="K393" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="20">
       <c r="A394" s="1">
         <v>356</v>
       </c>
@@ -12976,8 +14185,11 @@
       <c r="J394" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" ht="20">
+      <c r="K394" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="20">
       <c r="A395" s="1">
         <v>3830</v>
       </c>
@@ -12996,8 +14208,11 @@
       <c r="J395" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" ht="20">
+      <c r="K395" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="20">
       <c r="A396" s="1">
         <v>355</v>
       </c>
@@ -13016,8 +14231,11 @@
       <c r="J396" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" ht="20">
+      <c r="K396" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="20">
       <c r="A397" s="1">
         <v>3777</v>
       </c>
@@ -13036,8 +14254,11 @@
       <c r="J397" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" ht="20">
+      <c r="K397" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="20">
       <c r="A398" s="1">
         <v>3779</v>
       </c>
@@ -13056,8 +14277,11 @@
       <c r="J398" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" ht="20">
+      <c r="K398" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" ht="20">
       <c r="A399" s="1">
         <v>3859</v>
       </c>
@@ -13076,8 +14300,11 @@
       <c r="J399" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" ht="20">
+      <c r="K399" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="20">
       <c r="A400" s="1">
         <v>3858</v>
       </c>
@@ -13096,8 +14323,11 @@
       <c r="J400" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" ht="20">
+      <c r="K400" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" ht="20">
       <c r="A401" s="1">
         <v>3857</v>
       </c>
@@ -13116,8 +14346,11 @@
       <c r="J401" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" ht="20">
+      <c r="K401" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="20">
       <c r="A402" s="1">
         <v>20</v>
       </c>
@@ -13136,8 +14369,11 @@
       <c r="J402" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" ht="20">
+      <c r="K402" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" ht="20">
       <c r="A403" s="1">
         <v>21</v>
       </c>
@@ -13156,8 +14392,11 @@
       <c r="J403" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" ht="20">
+      <c r="K403" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" ht="20">
       <c r="A404" s="1">
         <v>22</v>
       </c>
@@ -13176,8 +14415,11 @@
       <c r="J404" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" ht="20">
+      <c r="K404" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" ht="20">
       <c r="A405" s="1">
         <v>3774</v>
       </c>
@@ -13196,8 +14438,11 @@
       <c r="J405" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" ht="20">
+      <c r="K405" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="20">
       <c r="A406" s="1">
         <v>950</v>
       </c>
@@ -13216,8 +14461,11 @@
       <c r="J406" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" ht="20">
+      <c r="K406" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" ht="20">
       <c r="A407" s="1">
         <v>3064</v>
       </c>
@@ -13236,8 +14484,11 @@
       <c r="J407" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" ht="20">
+      <c r="K407" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" ht="20">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -13256,8 +14507,11 @@
       <c r="J408" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" ht="20">
+      <c r="K408" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="20">
       <c r="A409" s="1">
         <v>3772</v>
       </c>
@@ -13276,8 +14530,11 @@
       <c r="J409" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" ht="20">
+      <c r="K409" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" ht="20">
       <c r="A410" s="1">
         <v>632</v>
       </c>
@@ -13296,8 +14553,11 @@
       <c r="J410" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" ht="20">
+      <c r="K410" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" ht="20">
       <c r="A411" s="1">
         <v>453</v>
       </c>
@@ -13316,8 +14576,11 @@
       <c r="J411" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" ht="20">
+      <c r="K411" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" ht="20">
       <c r="A412" s="1">
         <v>452</v>
       </c>
@@ -13336,8 +14599,11 @@
       <c r="J412" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" ht="20">
+      <c r="K412" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" ht="20">
       <c r="A413" s="1">
         <v>451</v>
       </c>
@@ -13356,8 +14622,11 @@
       <c r="J413" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" ht="20">
+      <c r="K413" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" ht="20">
       <c r="A414" s="1">
         <v>3861</v>
       </c>
@@ -13376,8 +14645,11 @@
       <c r="J414" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" ht="20">
+      <c r="K414" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="20">
       <c r="A415" s="1">
         <v>3860</v>
       </c>
@@ -13396,8 +14668,11 @@
       <c r="J415" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" ht="20">
+      <c r="K415" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" ht="20">
       <c r="A416" s="1">
         <v>779</v>
       </c>
@@ -13416,8 +14691,11 @@
       <c r="J416" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" ht="20">
+      <c r="K416" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" ht="20">
       <c r="A417" s="1">
         <v>9</v>
       </c>
@@ -13436,8 +14714,11 @@
       <c r="J417" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" ht="20">
+      <c r="K417" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" ht="20">
       <c r="A418" s="1">
         <v>712</v>
       </c>
@@ -13456,8 +14737,11 @@
       <c r="J418" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" ht="20">
+      <c r="K418" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" ht="20">
       <c r="A419" s="1">
         <v>739</v>
       </c>
@@ -13476,8 +14760,11 @@
       <c r="J419" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" ht="20">
+      <c r="K419" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" ht="20">
       <c r="A420" s="1">
         <v>738</v>
       </c>
@@ -13496,8 +14783,11 @@
       <c r="J420" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" ht="20">
+      <c r="K420" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="20">
       <c r="A421" s="1">
         <v>437</v>
       </c>
@@ -13516,8 +14806,11 @@
       <c r="J421" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" ht="20">
+      <c r="K421" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" ht="20">
       <c r="A422" s="1">
         <v>436</v>
       </c>
@@ -13536,8 +14829,11 @@
       <c r="J422" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" ht="20">
+      <c r="K422" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" ht="20">
       <c r="A423" s="1">
         <v>435</v>
       </c>
@@ -13556,8 +14852,11 @@
       <c r="J423" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" ht="20">
+      <c r="K423" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" ht="20">
       <c r="A424" s="1">
         <v>434</v>
       </c>
@@ -13576,8 +14875,11 @@
       <c r="J424" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" ht="20">
+      <c r="K424" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="20">
       <c r="A425" s="1">
         <v>433</v>
       </c>
@@ -13596,8 +14898,11 @@
       <c r="J425" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" ht="20">
+      <c r="K425" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="20">
       <c r="A426" s="1">
         <v>801</v>
       </c>
@@ -13616,8 +14921,11 @@
       <c r="J426" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" ht="20">
+      <c r="K426" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="20">
       <c r="A427" s="1">
         <v>898</v>
       </c>
@@ -13636,8 +14944,11 @@
       <c r="J427" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" ht="20">
+      <c r="K427" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" ht="20">
       <c r="A428" s="1">
         <v>938</v>
       </c>
@@ -13656,8 +14967,11 @@
       <c r="J428" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" ht="20">
+      <c r="K428" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="20">
       <c r="A429" s="1">
         <v>3371</v>
       </c>
@@ -13676,8 +14990,11 @@
       <c r="J429" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" ht="20">
+      <c r="K429" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" ht="20">
       <c r="A430" s="1">
         <v>543</v>
       </c>
@@ -13696,8 +15013,11 @@
       <c r="J430" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" ht="20">
+      <c r="K430" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" ht="20">
       <c r="A431" s="1">
         <v>3864</v>
       </c>
@@ -13716,8 +15036,11 @@
       <c r="J431" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" ht="20">
+      <c r="K431" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="20">
       <c r="A432" s="1">
         <v>3863</v>
       </c>
@@ -13736,8 +15059,11 @@
       <c r="J432" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" ht="20">
+      <c r="K432" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="20">
       <c r="A433" s="1">
         <v>3862</v>
       </c>
@@ -13756,8 +15082,11 @@
       <c r="J433" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" ht="20">
+      <c r="K433" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" ht="20">
       <c r="A434" s="1">
         <v>3031</v>
       </c>
@@ -13776,8 +15105,11 @@
       <c r="J434" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" ht="20">
+      <c r="K434" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="20">
       <c r="A435" s="1">
         <v>3865</v>
       </c>
@@ -13796,8 +15128,11 @@
       <c r="J435" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" ht="20">
+      <c r="K435" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="20">
       <c r="A436" s="1" t="s">
         <v>484</v>
       </c>
@@ -13816,8 +15151,11 @@
       <c r="J436" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" ht="20">
+      <c r="K436" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" ht="20">
       <c r="A437" s="1">
         <v>822</v>
       </c>
@@ -13836,8 +15174,11 @@
       <c r="J437" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" ht="20">
+      <c r="K437" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="20">
       <c r="A438" s="1">
         <v>644</v>
       </c>
@@ -13856,8 +15197,11 @@
       <c r="J438" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" ht="20">
+      <c r="K438" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="20">
       <c r="A439" s="1">
         <v>642</v>
       </c>
@@ -13876,8 +15220,11 @@
       <c r="J439" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" ht="20">
+      <c r="K439" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" ht="20">
       <c r="A440" s="1">
         <v>640</v>
       </c>
@@ -13896,8 +15243,11 @@
       <c r="J440" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" ht="20">
+      <c r="K440" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="20">
       <c r="A441" s="1">
         <v>3787</v>
       </c>
@@ -13916,8 +15266,11 @@
       <c r="J441" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" ht="20">
+      <c r="K441" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" ht="20">
       <c r="A442" s="1">
         <v>3021</v>
       </c>
@@ -13936,8 +15289,11 @@
       <c r="J442" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" ht="20">
+      <c r="K442" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" ht="20">
       <c r="A443" s="1">
         <v>844</v>
       </c>
@@ -13956,8 +15312,11 @@
       <c r="J443" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" ht="20">
+      <c r="K443" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="20">
       <c r="A444" s="1">
         <v>3033</v>
       </c>
@@ -13976,8 +15335,11 @@
       <c r="J444" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" ht="20">
+      <c r="K444" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="20">
       <c r="A445" s="1">
         <v>3782</v>
       </c>
@@ -13996,8 +15358,11 @@
       <c r="J445" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" ht="20">
+      <c r="K445" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" ht="20">
       <c r="A446" s="1">
         <v>3032</v>
       </c>
@@ -14016,8 +15381,11 @@
       <c r="J446" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" ht="20">
+      <c r="K446" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" ht="20">
       <c r="A447" s="1">
         <v>3790</v>
       </c>
@@ -14036,8 +15404,11 @@
       <c r="J447" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" ht="20">
+      <c r="K447" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" ht="20">
       <c r="A448" s="1">
         <v>3781</v>
       </c>
@@ -14056,8 +15427,11 @@
       <c r="J448" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" ht="20">
+      <c r="K448" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" ht="20">
       <c r="A449" s="1">
         <v>5</v>
       </c>
@@ -14076,8 +15450,11 @@
       <c r="J449" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" ht="20">
+      <c r="K449" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" ht="20">
       <c r="A450" s="1">
         <v>6</v>
       </c>
@@ -14096,8 +15473,11 @@
       <c r="J450" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" ht="20">
+      <c r="K450" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="20">
       <c r="A451" s="1">
         <v>7</v>
       </c>
@@ -14116,8 +15496,11 @@
       <c r="J451" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" ht="20">
+      <c r="K451" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" ht="20">
       <c r="A452" s="1">
         <v>8</v>
       </c>
@@ -14136,8 +15519,11 @@
       <c r="J452" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" ht="20">
+      <c r="K452" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" ht="20">
       <c r="A453" s="1">
         <v>3866</v>
       </c>
@@ -14156,8 +15542,11 @@
       <c r="J453" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" ht="20">
+      <c r="K453" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" ht="20">
       <c r="A454" s="1">
         <v>842</v>
       </c>
@@ -14176,8 +15565,11 @@
       <c r="J454" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" ht="20">
+      <c r="K454" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" ht="20">
       <c r="A455" s="1">
         <v>841</v>
       </c>
@@ -14196,8 +15588,11 @@
       <c r="J455" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" ht="20">
+      <c r="K455" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="20">
       <c r="A456" s="1">
         <v>840</v>
       </c>
@@ -14216,8 +15611,11 @@
       <c r="J456" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" ht="20">
+      <c r="K456" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" ht="20">
       <c r="A457" s="1">
         <v>839</v>
       </c>
@@ -14236,8 +15634,11 @@
       <c r="J457" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" ht="20">
+      <c r="K457" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" ht="20">
       <c r="A458" s="1">
         <v>838</v>
       </c>
@@ -14256,8 +15657,11 @@
       <c r="J458" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" ht="20">
+      <c r="K458" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" ht="20">
       <c r="A459" s="1">
         <v>3072</v>
       </c>
@@ -14276,8 +15680,11 @@
       <c r="J459" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" ht="20">
+      <c r="K459" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" ht="20">
       <c r="A460" s="1">
         <v>647</v>
       </c>
@@ -14296,8 +15703,11 @@
       <c r="J460" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" ht="20">
+      <c r="K460" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" ht="20">
       <c r="A461" s="1">
         <v>3023</v>
       </c>
@@ -14316,8 +15726,11 @@
       <c r="J461" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" ht="20">
+      <c r="K461" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" ht="20">
       <c r="A462" s="1">
         <v>3022</v>
       </c>
@@ -14336,8 +15749,11 @@
       <c r="J462" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" ht="20">
+      <c r="K462" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" ht="20">
       <c r="A463" s="1">
         <v>3024</v>
       </c>
@@ -14356,8 +15772,11 @@
       <c r="J463" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" ht="20">
+      <c r="K463" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" ht="20">
       <c r="A464" s="1">
         <v>648</v>
       </c>
@@ -14376,8 +15795,11 @@
       <c r="J464" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" ht="20">
+      <c r="K464" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" ht="20">
       <c r="A465" s="1">
         <v>646</v>
       </c>
@@ -14396,8 +15818,11 @@
       <c r="J465" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" ht="20">
+      <c r="K465" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" ht="20">
       <c r="A466" s="1">
         <v>645</v>
       </c>
@@ -14416,8 +15841,11 @@
       <c r="J466" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" ht="20">
+      <c r="K466" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" ht="20">
       <c r="A467" s="1" t="s">
         <v>485</v>
       </c>
@@ -14436,8 +15864,11 @@
       <c r="J467" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" ht="20">
+      <c r="K467" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" ht="20">
       <c r="A468" s="1" t="s">
         <v>486</v>
       </c>
@@ -14456,8 +15887,11 @@
       <c r="J468" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" ht="20">
+      <c r="K468" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="20">
       <c r="A469" s="1">
         <v>762</v>
       </c>
@@ -14476,8 +15910,11 @@
       <c r="J469" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" ht="20">
+      <c r="K469" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" ht="20">
       <c r="A470" s="1">
         <v>415</v>
       </c>
@@ -14496,8 +15933,11 @@
       <c r="J470" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" ht="20">
+      <c r="K470" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" ht="20">
       <c r="A471" s="1">
         <v>318</v>
       </c>
@@ -14516,8 +15956,11 @@
       <c r="J471" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" ht="20">
+      <c r="K471" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" ht="20">
       <c r="A472" s="1">
         <v>414</v>
       </c>
@@ -14536,8 +15979,11 @@
       <c r="J472" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" ht="20">
+      <c r="K472" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" ht="20">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -14556,8 +16002,11 @@
       <c r="J473" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" ht="20">
+      <c r="K473" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="20">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -14576,8 +16025,11 @@
       <c r="J474" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" ht="20">
+      <c r="K474" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" ht="20">
       <c r="A475" s="1">
         <v>3</v>
       </c>
@@ -14596,8 +16048,11 @@
       <c r="J475" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" ht="20">
+      <c r="K475" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" ht="20">
       <c r="A476" s="1">
         <v>4</v>
       </c>
@@ -14616,8 +16071,11 @@
       <c r="J476" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" ht="20">
+      <c r="K476" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" ht="20">
       <c r="A477" s="1">
         <v>535</v>
       </c>
@@ -14636,8 +16094,11 @@
       <c r="J477" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" ht="20">
+      <c r="K477" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" ht="20">
       <c r="A478" s="1">
         <v>168</v>
       </c>
@@ -14656,8 +16117,11 @@
       <c r="J478" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" ht="20">
+      <c r="K478" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" ht="20">
       <c r="A479" s="1">
         <v>169</v>
       </c>
@@ -14676,8 +16140,11 @@
       <c r="J479" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" ht="20">
+      <c r="K479" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="20">
       <c r="A480" s="1">
         <v>317</v>
       </c>
@@ -14696,8 +16163,11 @@
       <c r="J480" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" ht="20">
+      <c r="K480" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="20">
       <c r="A481" s="1">
         <v>413</v>
       </c>
@@ -14716,8 +16186,11 @@
       <c r="J481" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" ht="20">
+      <c r="K481" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="20">
       <c r="A482" s="1">
         <v>3799</v>
       </c>
@@ -14736,8 +16209,11 @@
       <c r="J482" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" ht="20">
+      <c r="K482" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="20">
       <c r="A483" s="1">
         <v>310</v>
       </c>
@@ -14755,6 +16231,9 @@
       </c>
       <c r="J483" s="8" t="s">
         <v>561</v>
+      </c>
+      <c r="K483" s="5" t="s">
+        <v>1507</v>
       </c>
     </row>
   </sheetData>

--- a/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
+++ b/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahughes/GitHub/image2dmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A22E6F-5580-6449-9D19-C5C83EF9C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEC911-3DE1-B248-9362-3E4C1043F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="660" windowWidth="13140" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34740" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -4987,9 +4987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -5076,7 +5076,7 @@
         <v>542</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20">
@@ -5099,7 +5099,7 @@
         <v>542</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20">
@@ -5122,7 +5122,7 @@
         <v>542</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20">
@@ -5145,7 +5145,7 @@
         <v>542</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20">
@@ -5168,7 +5168,7 @@
         <v>542</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20">
@@ -5191,7 +5191,7 @@
         <v>542</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20">
@@ -5214,7 +5214,7 @@
         <v>542</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20">
@@ -5237,7 +5237,7 @@
         <v>542</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20">
@@ -5260,7 +5260,7 @@
         <v>542</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20">
@@ -5283,7 +5283,7 @@
         <v>542</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20">
@@ -5306,7 +5306,7 @@
         <v>542</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20">
@@ -5329,7 +5329,7 @@
         <v>542</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20">
@@ -5352,7 +5352,7 @@
         <v>542</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20">
@@ -5375,7 +5375,7 @@
         <v>542</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20">
@@ -5398,7 +5398,7 @@
         <v>542</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20">
@@ -5421,7 +5421,7 @@
         <v>542</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20">
@@ -5444,7 +5444,7 @@
         <v>542</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20">
@@ -5479,7 +5479,7 @@
         <v>542</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20">
@@ -5502,7 +5502,7 @@
         <v>542</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20">
@@ -5525,7 +5525,7 @@
         <v>542</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20">
@@ -5548,7 +5548,7 @@
         <v>542</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20">
@@ -5571,7 +5571,7 @@
         <v>542</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20">
@@ -5594,7 +5594,7 @@
         <v>542</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20">
@@ -5617,7 +5617,7 @@
         <v>542</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20">
@@ -16237,7 +16237,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J483">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K483">
     <sortCondition ref="J2:J483"/>
     <sortCondition ref="I2:I483"/>
   </sortState>

--- a/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
+++ b/data/DMC_Embroidery_Floss_Color_Families_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahughes/GitHub/image2dmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEC911-3DE1-B248-9362-3E4C1043F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB6E13-439D-0D41-A707-A0E3BC4AA30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34740" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4987,9 +4987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3:K25"/>
+      <selection pane="topRight" activeCell="U335" sqref="U335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
